--- a/Validation/Test Cases.xlsx
+++ b/Validation/Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>TC ID</t>
   </si>
@@ -40,17 +40,10 @@
     <t>TC_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> validate happy scenario</t>
+    <t xml:space="preserve"> validate button pressing</t>
   </si>
   <si>
-    <t>Run the Blender to see its behavior in normal state with normal voltage (5v-9v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-1-The switch is to be connected to  the microcontroller.
-2- The Motor Driver is connected to microcontroller.
-3- The Motor is connected to the Motor Driver.
-4- Motor Driver and Microcontroller are  to be connected to Voltage Protection Circuit to Power Supply.</t>
+    <t>when pressing the button the state of blender must be changed from off to be speed 1 in normal state with normal voltage (5v-9v)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -58,10 +51,43 @@
 2- watch motor rotational speed</t>
   </si>
   <si>
-    <t xml:space="preserve"> The blender start in off Mode then by every pressing the speed should be changed from speed 1 to speed 2 to speed 3 then finally return back to 0ff</t>
+    <t xml:space="preserve"> The blender start in off Mode then by pressing  button the speed should be changed from off to speed 1 then by every pressing  the speed changed from current to hiegher speed </t>
   </si>
   <si>
     <t>TC_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validate Speed 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  when measuring  speed must be equivalent to speed 1</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validate Speed 2</t>
+  </si>
+  <si>
+    <t>when pressing the button the state of blender must be changed from speed1 to be speed 2 in normal state with normal voltage (5v-9v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  when measuring  speed must be equivalent to speed 2</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validate Speed 3</t>
+  </si>
+  <si>
+    <t>when pressing the button the state of blender must be changed from speed 2 to be speed 3 in normal state with normal voltage (5v-9v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  when measuring  speed must be equivalent to speed 3</t>
+  </si>
+  <si>
+    <t>TC_5</t>
   </si>
   <si>
     <t>Validate Pressing on button frequently.</t>
@@ -76,7 +102,7 @@
     <t>The button should not response to another action/pressing while the pressing in 1 second or less</t>
   </si>
   <si>
-    <t>TC_3</t>
+    <t>TC_6</t>
   </si>
   <si>
     <t>Validate Long Press on the button.</t>
@@ -93,7 +119,7 @@
     <t>The state/ speed should not be changed to other</t>
   </si>
   <si>
-    <t>TC_4</t>
+    <t>TC_7</t>
   </si>
   <si>
     <t>validate motor rotation</t>
@@ -106,7 +132,7 @@
 2- watch motor rotational direction</t>
   </si>
   <si>
-    <t>TC_5</t>
+    <t>TC_8</t>
   </si>
   <si>
     <t xml:space="preserve">Verify Protection circuit </t>
@@ -121,7 +147,7 @@
     <t>The system should shut down completely.</t>
   </si>
   <si>
-    <t>TC _6</t>
+    <t>TC _9</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the PWM Voltage </t>
@@ -138,7 +164,7 @@
     <t>The PWM voltage should differ from speed to another.</t>
   </si>
   <si>
-    <t>TC_7</t>
+    <t>TC_10</t>
   </si>
   <si>
     <t>Verify the initial state of the blender.</t>
@@ -155,7 +181,7 @@
     <t>The initial state should be OFF and the motor speed should be zero.</t>
   </si>
   <si>
-    <t>TC_8</t>
+    <t>TC_11</t>
   </si>
   <si>
     <t>Verify No Power Button.</t>
@@ -373,63 +399,111 @@
       <c r="AA1" s="9"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3">
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4">
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
@@ -446,25 +520,25 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
@@ -481,25 +555,25 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
@@ -520,106 +594,111 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23">
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="I24" s="14"/>
     </row>
     <row r="25">
       <c r="I25" s="14"/>
     </row>
     <row r="26">
-      <c r="I26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27">
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33">
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="15"/>
       <c r="D33" s="13"/>
       <c r="E33" s="16"/>
@@ -628,7 +707,7 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34">
-      <c r="B34" s="18"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="13"/>
       <c r="E34" s="16"/>
@@ -637,11 +716,11 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35">
-      <c r="B35" s="16"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
@@ -9348,43 +9427,29 @@
       <c r="G1002" s="13"/>
       <c r="H1002" s="13"/>
     </row>
-    <row r="1003">
-      <c r="B1003" s="18"/>
-      <c r="C1003" s="13"/>
-      <c r="D1003" s="13"/>
-      <c r="E1003" s="16"/>
-      <c r="F1003" s="13"/>
-      <c r="G1003" s="13"/>
-      <c r="H1003" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="D2:D32"/>
+  <mergeCells count="21">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D2:D31"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Validation/Test Cases.xlsx
+++ b/Validation/Test Cases.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israa\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8905"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Embedded Test Cases" sheetId="1" r:id="rId3"/>
+    <sheet name="Embedded Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>TC ID</t>
   </si>
@@ -192,27 +200,39 @@
   <si>
     <t>No Power Button and the initial state should be OFF and the motor speed should be zero.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 
+1-The switch is to be connected to  the microcontroller.
+2- The Motor Driver is connected to microcontroller.
+3- The Motor is connected to the Motor Driver.
+4- Motor Driver and Microcontroller are  to be connected to Voltage Protection Circuit to Power Supply.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -222,7 +242,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -238,7 +258,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -252,8 +278,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -263,97 +291,369 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.7" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="27.71"/>
-    <col customWidth="1" min="3" max="4" width="47.43"/>
-    <col customWidth="1" min="5" max="5" width="47.71"/>
-    <col customWidth="1" min="6" max="6" width="47.0"/>
-    <col customWidth="1" min="7" max="8" width="31.43"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="8" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,17 +698,19 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -418,6 +720,7 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="20"/>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
@@ -427,7 +730,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -437,6 +740,7 @@
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="20"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
@@ -446,7 +750,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -456,6 +760,7 @@
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
@@ -465,7 +770,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -475,6 +780,7 @@
       <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="20"/>
       <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
@@ -484,144 +790,244 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="22" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -631,6 +1037,7 @@
       <c r="C27" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="D27" s="20"/>
       <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
@@ -638,15 +1045,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="11"/>
       <c r="F28" s="15"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="38.049999999999997" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>48</v>
       </c>
@@ -656,6 +1064,7 @@
       <c r="C29" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="D29" s="20"/>
       <c r="E29" s="11" t="s">
         <v>51</v>
       </c>
@@ -663,15 +1072,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="11"/>
       <c r="F30" s="15"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="38.049999999999997" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>53</v>
       </c>
@@ -681,6 +1091,7 @@
       <c r="C31" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="D31" s="20"/>
       <c r="E31" s="17" t="s">
         <v>51</v>
       </c>
@@ -688,16 +1099,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="16"/>
       <c r="F32" s="15"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
       <c r="D33" s="13"/>
@@ -706,7 +1117,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="13"/>
@@ -715,7 +1126,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35">
+    <row r="35" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -724,7 +1135,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -733,7 +1144,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -742,7 +1153,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -751,7 +1162,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39">
+    <row r="39" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -760,7 +1171,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -769,7 +1180,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -778,7 +1189,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -787,7 +1198,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43">
+    <row r="43" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -796,7 +1207,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44">
+    <row r="44" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -805,7 +1216,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45">
+    <row r="45" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -814,7 +1225,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -823,7 +1234,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -832,7 +1243,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -841,7 +1252,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -850,7 +1261,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -859,7 +1270,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -868,7 +1279,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -877,7 +1288,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53">
+    <row r="53" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -886,7 +1297,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54">
+    <row r="54" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -895,7 +1306,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55">
+    <row r="55" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -904,7 +1315,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56">
+    <row r="56" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -913,7 +1324,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57">
+    <row r="57" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B57" s="18"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -922,7 +1333,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58">
+    <row r="58" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -931,7 +1342,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59">
+    <row r="59" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -940,7 +1351,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60">
+    <row r="60" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -949,7 +1360,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61">
+    <row r="61" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B61" s="18"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -958,7 +1369,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B62" s="18"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -967,7 +1378,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63">
+    <row r="63" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -976,7 +1387,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64">
+    <row r="64" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -985,7 +1396,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -994,7 +1405,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -1003,7 +1414,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67">
+    <row r="67" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -1012,7 +1423,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68">
+    <row r="68" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -1021,7 +1432,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69">
+    <row r="69" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B69" s="18"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -1030,7 +1441,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70">
+    <row r="70" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B70" s="18"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -1039,7 +1450,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71">
+    <row r="71" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -1048,7 +1459,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72">
+    <row r="72" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -1057,7 +1468,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73">
+    <row r="73" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -1066,7 +1477,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74">
+    <row r="74" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -1075,7 +1486,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B75" s="18"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -1084,7 +1495,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76">
+    <row r="76" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -1093,7 +1504,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77">
+    <row r="77" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B77" s="18"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -1102,7 +1513,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78">
+    <row r="78" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -1111,7 +1522,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79">
+    <row r="79" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B79" s="18"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -1120,7 +1531,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80">
+    <row r="80" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -1129,7 +1540,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81">
+    <row r="81" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B81" s="18"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -1138,7 +1549,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82">
+    <row r="82" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B82" s="18"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -1147,7 +1558,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83">
+    <row r="83" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B83" s="18"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -1156,7 +1567,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84">
+    <row r="84" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B84" s="18"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -1165,7 +1576,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85">
+    <row r="85" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B85" s="18"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -1174,7 +1585,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86">
+    <row r="86" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -1183,7 +1594,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87">
+    <row r="87" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B87" s="18"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -1192,7 +1603,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88">
+    <row r="88" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B88" s="18"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -1201,7 +1612,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89">
+    <row r="89" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B89" s="18"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -1210,7 +1621,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90">
+    <row r="90" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B90" s="18"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -1219,7 +1630,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91">
+    <row r="91" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B91" s="18"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -1228,7 +1639,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92">
+    <row r="92" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B92" s="18"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -1237,7 +1648,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93">
+    <row r="93" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B93" s="18"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -1246,7 +1657,7 @@
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94">
+    <row r="94" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B94" s="18"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -1255,7 +1666,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95">
+    <row r="95" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B95" s="18"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -1264,7 +1675,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96">
+    <row r="96" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B96" s="18"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -1273,7 +1684,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B97" s="18"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -1282,7 +1693,7 @@
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B98" s="18"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -1291,7 +1702,7 @@
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
     </row>
-    <row r="99">
+    <row r="99" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B99" s="18"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -1300,7 +1711,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
     </row>
-    <row r="100">
+    <row r="100" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B100" s="18"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -1309,7 +1720,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101">
+    <row r="101" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B101" s="18"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -1318,7 +1729,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102">
+    <row r="102" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B102" s="18"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -1327,7 +1738,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
     </row>
-    <row r="103">
+    <row r="103" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B103" s="18"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -1336,7 +1747,7 @@
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104">
+    <row r="104" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B104" s="18"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -1345,7 +1756,7 @@
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B105" s="18"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -1354,7 +1765,7 @@
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106">
+    <row r="106" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B106" s="18"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -1363,7 +1774,7 @@
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
     </row>
-    <row r="107">
+    <row r="107" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B107" s="18"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -1372,7 +1783,7 @@
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
     </row>
-    <row r="108">
+    <row r="108" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B108" s="18"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -1381,7 +1792,7 @@
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
     </row>
-    <row r="109">
+    <row r="109" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B109" s="18"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -1390,7 +1801,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110">
+    <row r="110" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B110" s="18"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
@@ -1399,7 +1810,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111">
+    <row r="111" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B111" s="18"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -1408,7 +1819,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112">
+    <row r="112" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B112" s="18"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -1417,7 +1828,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
     </row>
-    <row r="113">
+    <row r="113" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B113" s="18"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -1426,7 +1837,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -1435,7 +1846,7 @@
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
     </row>
-    <row r="115">
+    <row r="115" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -1444,7 +1855,7 @@
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
     </row>
-    <row r="116">
+    <row r="116" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B116" s="18"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -1453,7 +1864,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117">
+    <row r="117" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -1462,7 +1873,7 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118">
+    <row r="118" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B118" s="18"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -1471,7 +1882,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119">
+    <row r="119" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B119" s="18"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -1480,7 +1891,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120">
+    <row r="120" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B120" s="18"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
@@ -1489,7 +1900,7 @@
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121">
+    <row r="121" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B121" s="18"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -1498,7 +1909,7 @@
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122">
+    <row r="122" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B122" s="18"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -1507,7 +1918,7 @@
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
     </row>
-    <row r="123">
+    <row r="123" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B123" s="18"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -1516,7 +1927,7 @@
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
     </row>
-    <row r="124">
+    <row r="124" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B124" s="18"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -1525,7 +1936,7 @@
       <c r="G124" s="13"/>
       <c r="H124" s="13"/>
     </row>
-    <row r="125">
+    <row r="125" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B125" s="18"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -1534,7 +1945,7 @@
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
     </row>
-    <row r="126">
+    <row r="126" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B126" s="18"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -1543,7 +1954,7 @@
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127">
+    <row r="127" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B127" s="18"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
@@ -1552,7 +1963,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
     </row>
-    <row r="128">
+    <row r="128" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B128" s="18"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -1561,7 +1972,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B129" s="18"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
@@ -1570,7 +1981,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B130" s="18"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -1579,7 +1990,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B131" s="18"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -1588,7 +1999,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
     </row>
-    <row r="132">
+    <row r="132" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B132" s="18"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -1597,7 +2008,7 @@
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B133" s="18"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -1606,7 +2017,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
     </row>
-    <row r="134">
+    <row r="134" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B134" s="18"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -1615,7 +2026,7 @@
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
     </row>
-    <row r="135">
+    <row r="135" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B135" s="18"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -1624,7 +2035,7 @@
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
     </row>
-    <row r="136">
+    <row r="136" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B136" s="18"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -1633,7 +2044,7 @@
       <c r="G136" s="13"/>
       <c r="H136" s="13"/>
     </row>
-    <row r="137">
+    <row r="137" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B137" s="18"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
@@ -1642,7 +2053,7 @@
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
     </row>
-    <row r="138">
+    <row r="138" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B138" s="18"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -1651,7 +2062,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
     </row>
-    <row r="139">
+    <row r="139" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B139" s="18"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
@@ -1660,7 +2071,7 @@
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
     </row>
-    <row r="140">
+    <row r="140" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B140" s="18"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
@@ -1669,7 +2080,7 @@
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
     </row>
-    <row r="141">
+    <row r="141" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B141" s="18"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -1678,7 +2089,7 @@
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
     </row>
-    <row r="142">
+    <row r="142" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B142" s="18"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
@@ -1687,7 +2098,7 @@
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
     </row>
-    <row r="143">
+    <row r="143" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B143" s="18"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -1696,7 +2107,7 @@
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
     </row>
-    <row r="144">
+    <row r="144" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B144" s="18"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
@@ -1705,7 +2116,7 @@
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
     </row>
-    <row r="145">
+    <row r="145" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B145" s="18"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -1714,7 +2125,7 @@
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
     </row>
-    <row r="146">
+    <row r="146" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B146" s="18"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -1723,7 +2134,7 @@
       <c r="G146" s="13"/>
       <c r="H146" s="13"/>
     </row>
-    <row r="147">
+    <row r="147" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B147" s="18"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
@@ -1732,7 +2143,7 @@
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
@@ -1741,7 +2152,7 @@
       <c r="G148" s="13"/>
       <c r="H148" s="13"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B149" s="18"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
@@ -1750,7 +2161,7 @@
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
@@ -1759,7 +2170,7 @@
       <c r="G150" s="13"/>
       <c r="H150" s="13"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B151" s="18"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -1768,7 +2179,7 @@
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -1777,7 +2188,7 @@
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
     </row>
-    <row r="153">
+    <row r="153" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B153" s="18"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -1786,7 +2197,7 @@
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
     </row>
-    <row r="154">
+    <row r="154" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B154" s="18"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
@@ -1795,7 +2206,7 @@
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
     </row>
-    <row r="155">
+    <row r="155" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B155" s="18"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -1804,7 +2215,7 @@
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
     </row>
-    <row r="156">
+    <row r="156" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B156" s="18"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -1813,7 +2224,7 @@
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
     </row>
-    <row r="157">
+    <row r="157" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B157" s="18"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -1822,7 +2233,7 @@
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
     </row>
-    <row r="158">
+    <row r="158" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B158" s="18"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -1831,7 +2242,7 @@
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
     </row>
-    <row r="159">
+    <row r="159" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B159" s="18"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -1840,7 +2251,7 @@
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
     </row>
-    <row r="160">
+    <row r="160" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B160" s="18"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
@@ -1849,7 +2260,7 @@
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
     </row>
-    <row r="161">
+    <row r="161" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B161" s="18"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
@@ -1858,7 +2269,7 @@
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
     </row>
-    <row r="162">
+    <row r="162" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B162" s="18"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
@@ -1867,7 +2278,7 @@
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
     </row>
-    <row r="163">
+    <row r="163" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
@@ -1876,7 +2287,7 @@
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
     </row>
-    <row r="164">
+    <row r="164" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
@@ -1885,7 +2296,7 @@
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
     </row>
-    <row r="165">
+    <row r="165" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B165" s="18"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -1894,7 +2305,7 @@
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
     </row>
-    <row r="166">
+    <row r="166" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B166" s="18"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
@@ -1903,7 +2314,7 @@
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
     </row>
-    <row r="167">
+    <row r="167" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B167" s="18"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
@@ -1912,7 +2323,7 @@
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
     </row>
-    <row r="168">
+    <row r="168" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B168" s="18"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -1921,7 +2332,7 @@
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
     </row>
-    <row r="169">
+    <row r="169" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B169" s="18"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
@@ -1930,7 +2341,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170">
+    <row r="170" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B170" s="18"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
@@ -1939,7 +2350,7 @@
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
     </row>
-    <row r="171">
+    <row r="171" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B171" s="18"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
@@ -1948,7 +2359,7 @@
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
     </row>
-    <row r="172">
+    <row r="172" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B172" s="18"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -1957,7 +2368,7 @@
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
     </row>
-    <row r="173">
+    <row r="173" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B173" s="18"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -1966,7 +2377,7 @@
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
     </row>
-    <row r="174">
+    <row r="174" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B174" s="18"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
@@ -1975,7 +2386,7 @@
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
     </row>
-    <row r="175">
+    <row r="175" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B175" s="18"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
@@ -1984,7 +2395,7 @@
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
     </row>
-    <row r="176">
+    <row r="176" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B176" s="18"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
@@ -1993,7 +2404,7 @@
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
     </row>
-    <row r="177">
+    <row r="177" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B177" s="18"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
@@ -2002,7 +2413,7 @@
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
     </row>
-    <row r="178">
+    <row r="178" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B178" s="18"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -2011,7 +2422,7 @@
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
     </row>
-    <row r="179">
+    <row r="179" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B179" s="18"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -2020,7 +2431,7 @@
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
     </row>
-    <row r="180">
+    <row r="180" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B180" s="18"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
@@ -2029,7 +2440,7 @@
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
     </row>
-    <row r="181">
+    <row r="181" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B181" s="18"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
@@ -2038,7 +2449,7 @@
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
     </row>
-    <row r="182">
+    <row r="182" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B182" s="18"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
@@ -2047,7 +2458,7 @@
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
     </row>
-    <row r="183">
+    <row r="183" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B183" s="18"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
@@ -2056,7 +2467,7 @@
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
     </row>
-    <row r="184">
+    <row r="184" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B184" s="18"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
@@ -2065,7 +2476,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
     </row>
-    <row r="185">
+    <row r="185" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B185" s="18"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -2074,7 +2485,7 @@
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
     </row>
-    <row r="186">
+    <row r="186" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B186" s="18"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
@@ -2083,7 +2494,7 @@
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
     </row>
-    <row r="187">
+    <row r="187" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B187" s="18"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
@@ -2092,7 +2503,7 @@
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
     </row>
-    <row r="188">
+    <row r="188" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B188" s="18"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -2101,7 +2512,7 @@
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
     </row>
-    <row r="189">
+    <row r="189" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B189" s="18"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
@@ -2110,7 +2521,7 @@
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
     </row>
-    <row r="190">
+    <row r="190" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B190" s="18"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
@@ -2119,7 +2530,7 @@
       <c r="G190" s="13"/>
       <c r="H190" s="13"/>
     </row>
-    <row r="191">
+    <row r="191" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B191" s="18"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -2128,7 +2539,7 @@
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
     </row>
-    <row r="192">
+    <row r="192" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B192" s="18"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -2137,7 +2548,7 @@
       <c r="G192" s="13"/>
       <c r="H192" s="13"/>
     </row>
-    <row r="193">
+    <row r="193" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B193" s="18"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -2146,7 +2557,7 @@
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
     </row>
-    <row r="194">
+    <row r="194" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B194" s="18"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -2155,7 +2566,7 @@
       <c r="G194" s="13"/>
       <c r="H194" s="13"/>
     </row>
-    <row r="195">
+    <row r="195" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B195" s="18"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -2164,7 +2575,7 @@
       <c r="G195" s="13"/>
       <c r="H195" s="13"/>
     </row>
-    <row r="196">
+    <row r="196" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B196" s="18"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -2173,7 +2584,7 @@
       <c r="G196" s="13"/>
       <c r="H196" s="13"/>
     </row>
-    <row r="197">
+    <row r="197" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B197" s="18"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -2182,7 +2593,7 @@
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
     </row>
-    <row r="198">
+    <row r="198" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B198" s="18"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -2191,7 +2602,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="13"/>
     </row>
-    <row r="199">
+    <row r="199" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B199" s="18"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -2200,7 +2611,7 @@
       <c r="G199" s="13"/>
       <c r="H199" s="13"/>
     </row>
-    <row r="200">
+    <row r="200" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B200" s="18"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -2209,7 +2620,7 @@
       <c r="G200" s="13"/>
       <c r="H200" s="13"/>
     </row>
-    <row r="201">
+    <row r="201" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B201" s="18"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -2218,7 +2629,7 @@
       <c r="G201" s="13"/>
       <c r="H201" s="13"/>
     </row>
-    <row r="202">
+    <row r="202" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B202" s="18"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
@@ -2227,7 +2638,7 @@
       <c r="G202" s="13"/>
       <c r="H202" s="13"/>
     </row>
-    <row r="203">
+    <row r="203" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B203" s="18"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -2236,7 +2647,7 @@
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
     </row>
-    <row r="204">
+    <row r="204" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B204" s="18"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
@@ -2245,7 +2656,7 @@
       <c r="G204" s="13"/>
       <c r="H204" s="13"/>
     </row>
-    <row r="205">
+    <row r="205" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B205" s="18"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
@@ -2254,7 +2665,7 @@
       <c r="G205" s="13"/>
       <c r="H205" s="13"/>
     </row>
-    <row r="206">
+    <row r="206" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B206" s="18"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
@@ -2263,7 +2674,7 @@
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
     </row>
-    <row r="207">
+    <row r="207" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B207" s="18"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
@@ -2272,7 +2683,7 @@
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
     </row>
-    <row r="208">
+    <row r="208" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B208" s="18"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
@@ -2281,7 +2692,7 @@
       <c r="G208" s="13"/>
       <c r="H208" s="13"/>
     </row>
-    <row r="209">
+    <row r="209" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B209" s="18"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
@@ -2290,7 +2701,7 @@
       <c r="G209" s="13"/>
       <c r="H209" s="13"/>
     </row>
-    <row r="210">
+    <row r="210" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B210" s="18"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
@@ -2299,7 +2710,7 @@
       <c r="G210" s="13"/>
       <c r="H210" s="13"/>
     </row>
-    <row r="211">
+    <row r="211" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B211" s="18"/>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
@@ -2308,7 +2719,7 @@
       <c r="G211" s="13"/>
       <c r="H211" s="13"/>
     </row>
-    <row r="212">
+    <row r="212" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B212" s="18"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
@@ -2317,7 +2728,7 @@
       <c r="G212" s="13"/>
       <c r="H212" s="13"/>
     </row>
-    <row r="213">
+    <row r="213" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B213" s="18"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
@@ -2326,7 +2737,7 @@
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
     </row>
-    <row r="214">
+    <row r="214" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B214" s="18"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
@@ -2335,7 +2746,7 @@
       <c r="G214" s="13"/>
       <c r="H214" s="13"/>
     </row>
-    <row r="215">
+    <row r="215" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
@@ -2344,7 +2755,7 @@
       <c r="G215" s="13"/>
       <c r="H215" s="13"/>
     </row>
-    <row r="216">
+    <row r="216" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B216" s="18"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
@@ -2353,7 +2764,7 @@
       <c r="G216" s="13"/>
       <c r="H216" s="13"/>
     </row>
-    <row r="217">
+    <row r="217" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B217" s="18"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
@@ -2362,7 +2773,7 @@
       <c r="G217" s="13"/>
       <c r="H217" s="13"/>
     </row>
-    <row r="218">
+    <row r="218" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B218" s="18"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
@@ -2371,7 +2782,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
     </row>
-    <row r="219">
+    <row r="219" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B219" s="18"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
@@ -2380,7 +2791,7 @@
       <c r="G219" s="13"/>
       <c r="H219" s="13"/>
     </row>
-    <row r="220">
+    <row r="220" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B220" s="18"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
@@ -2389,7 +2800,7 @@
       <c r="G220" s="13"/>
       <c r="H220" s="13"/>
     </row>
-    <row r="221">
+    <row r="221" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B221" s="18"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
@@ -2398,7 +2809,7 @@
       <c r="G221" s="13"/>
       <c r="H221" s="13"/>
     </row>
-    <row r="222">
+    <row r="222" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B222" s="18"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
@@ -2407,7 +2818,7 @@
       <c r="G222" s="13"/>
       <c r="H222" s="13"/>
     </row>
-    <row r="223">
+    <row r="223" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B223" s="18"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
@@ -2416,7 +2827,7 @@
       <c r="G223" s="13"/>
       <c r="H223" s="13"/>
     </row>
-    <row r="224">
+    <row r="224" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B224" s="18"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
@@ -2425,7 +2836,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="13"/>
     </row>
-    <row r="225">
+    <row r="225" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B225" s="18"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
@@ -2434,7 +2845,7 @@
       <c r="G225" s="13"/>
       <c r="H225" s="13"/>
     </row>
-    <row r="226">
+    <row r="226" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B226" s="18"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
@@ -2443,7 +2854,7 @@
       <c r="G226" s="13"/>
       <c r="H226" s="13"/>
     </row>
-    <row r="227">
+    <row r="227" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B227" s="18"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -2452,7 +2863,7 @@
       <c r="G227" s="13"/>
       <c r="H227" s="13"/>
     </row>
-    <row r="228">
+    <row r="228" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B228" s="18"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -2461,7 +2872,7 @@
       <c r="G228" s="13"/>
       <c r="H228" s="13"/>
     </row>
-    <row r="229">
+    <row r="229" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B229" s="18"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -2470,7 +2881,7 @@
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
     </row>
-    <row r="230">
+    <row r="230" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B230" s="18"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -2479,7 +2890,7 @@
       <c r="G230" s="13"/>
       <c r="H230" s="13"/>
     </row>
-    <row r="231">
+    <row r="231" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B231" s="18"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
@@ -2488,7 +2899,7 @@
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
     </row>
-    <row r="232">
+    <row r="232" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B232" s="18"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
@@ -2497,7 +2908,7 @@
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
     </row>
-    <row r="233">
+    <row r="233" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B233" s="18"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
@@ -2506,7 +2917,7 @@
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
     </row>
-    <row r="234">
+    <row r="234" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B234" s="18"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
@@ -2515,7 +2926,7 @@
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
     </row>
-    <row r="235">
+    <row r="235" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B235" s="18"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
@@ -2524,7 +2935,7 @@
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
     </row>
-    <row r="236">
+    <row r="236" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
@@ -2533,7 +2944,7 @@
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
     </row>
-    <row r="237">
+    <row r="237" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B237" s="18"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
@@ -2542,7 +2953,7 @@
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
     </row>
-    <row r="238">
+    <row r="238" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B238" s="18"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
@@ -2551,7 +2962,7 @@
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
     </row>
-    <row r="239">
+    <row r="239" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B239" s="18"/>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
@@ -2560,7 +2971,7 @@
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
     </row>
-    <row r="240">
+    <row r="240" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B240" s="18"/>
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
@@ -2569,7 +2980,7 @@
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
     </row>
-    <row r="241">
+    <row r="241" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B241" s="18"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
@@ -2578,7 +2989,7 @@
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B242" s="18"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
@@ -2587,7 +2998,7 @@
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
     </row>
-    <row r="243">
+    <row r="243" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B243" s="18"/>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
@@ -2596,7 +3007,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
     </row>
-    <row r="244">
+    <row r="244" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B244" s="18"/>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
@@ -2605,7 +3016,7 @@
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
     </row>
-    <row r="245">
+    <row r="245" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B245" s="18"/>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
@@ -2614,7 +3025,7 @@
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
     </row>
-    <row r="246">
+    <row r="246" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
@@ -2623,7 +3034,7 @@
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
@@ -2632,7 +3043,7 @@
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
     </row>
-    <row r="248">
+    <row r="248" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B248" s="18"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
@@ -2641,7 +3052,7 @@
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
     </row>
-    <row r="249">
+    <row r="249" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B249" s="18"/>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
@@ -2650,7 +3061,7 @@
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
     </row>
-    <row r="250">
+    <row r="250" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B250" s="18"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
@@ -2659,7 +3070,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
     </row>
-    <row r="251">
+    <row r="251" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B251" s="18"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -2668,7 +3079,7 @@
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
     </row>
-    <row r="252">
+    <row r="252" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B252" s="18"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -2677,7 +3088,7 @@
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
     </row>
-    <row r="253">
+    <row r="253" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B253" s="18"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -2686,7 +3097,7 @@
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
     </row>
-    <row r="254">
+    <row r="254" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B254" s="18"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -2695,7 +3106,7 @@
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
     </row>
-    <row r="255">
+    <row r="255" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B255" s="18"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
@@ -2704,7 +3115,7 @@
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
     </row>
-    <row r="256">
+    <row r="256" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B256" s="18"/>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
@@ -2713,7 +3124,7 @@
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B257" s="18"/>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
@@ -2722,7 +3133,7 @@
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B258" s="18"/>
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
@@ -2731,7 +3142,7 @@
       <c r="G258" s="13"/>
       <c r="H258" s="13"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B259" s="18"/>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
@@ -2740,7 +3151,7 @@
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
@@ -2749,7 +3160,7 @@
       <c r="G260" s="13"/>
       <c r="H260" s="13"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B261" s="18"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
@@ -2758,7 +3169,7 @@
       <c r="G261" s="13"/>
       <c r="H261" s="13"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B262" s="18"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
@@ -2767,7 +3178,7 @@
       <c r="G262" s="13"/>
       <c r="H262" s="13"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
@@ -2776,7 +3187,7 @@
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
@@ -2785,7 +3196,7 @@
       <c r="G264" s="13"/>
       <c r="H264" s="13"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
@@ -2794,7 +3205,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
@@ -2803,7 +3214,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B267" s="18"/>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
@@ -2812,7 +3223,7 @@
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B268" s="18"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
@@ -2821,7 +3232,7 @@
       <c r="G268" s="13"/>
       <c r="H268" s="13"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
@@ -2830,7 +3241,7 @@
       <c r="G269" s="13"/>
       <c r="H269" s="13"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
@@ -2839,7 +3250,7 @@
       <c r="G270" s="13"/>
       <c r="H270" s="13"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
@@ -2848,7 +3259,7 @@
       <c r="G271" s="13"/>
       <c r="H271" s="13"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
@@ -2857,7 +3268,7 @@
       <c r="G272" s="13"/>
       <c r="H272" s="13"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
@@ -2866,7 +3277,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B274" s="18"/>
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
@@ -2875,7 +3286,7 @@
       <c r="G274" s="13"/>
       <c r="H274" s="13"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B275" s="18"/>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
@@ -2884,7 +3295,7 @@
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B276" s="18"/>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
@@ -2893,7 +3304,7 @@
       <c r="G276" s="13"/>
       <c r="H276" s="13"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -2902,7 +3313,7 @@
       <c r="G277" s="13"/>
       <c r="H277" s="13"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -2911,7 +3322,7 @@
       <c r="G278" s="13"/>
       <c r="H278" s="13"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B279" s="18"/>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
@@ -2920,7 +3331,7 @@
       <c r="G279" s="13"/>
       <c r="H279" s="13"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B280" s="18"/>
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
@@ -2929,7 +3340,7 @@
       <c r="G280" s="13"/>
       <c r="H280" s="13"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
@@ -2938,7 +3349,7 @@
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B282" s="18"/>
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
@@ -2947,7 +3358,7 @@
       <c r="G282" s="13"/>
       <c r="H282" s="13"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B283" s="18"/>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
@@ -2956,7 +3367,7 @@
       <c r="G283" s="13"/>
       <c r="H283" s="13"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B284" s="18"/>
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
@@ -2965,7 +3376,7 @@
       <c r="G284" s="13"/>
       <c r="H284" s="13"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
@@ -2974,7 +3385,7 @@
       <c r="G285" s="13"/>
       <c r="H285" s="13"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B286" s="18"/>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
@@ -2983,7 +3394,7 @@
       <c r="G286" s="13"/>
       <c r="H286" s="13"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
@@ -2992,7 +3403,7 @@
       <c r="G287" s="13"/>
       <c r="H287" s="13"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B288" s="18"/>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
@@ -3001,7 +3412,7 @@
       <c r="G288" s="13"/>
       <c r="H288" s="13"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
@@ -3010,7 +3421,7 @@
       <c r="G289" s="13"/>
       <c r="H289" s="13"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B290" s="18"/>
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
@@ -3019,7 +3430,7 @@
       <c r="G290" s="13"/>
       <c r="H290" s="13"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
@@ -3028,7 +3439,7 @@
       <c r="G291" s="13"/>
       <c r="H291" s="13"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B292" s="18"/>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -3037,7 +3448,7 @@
       <c r="G292" s="13"/>
       <c r="H292" s="13"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
@@ -3046,7 +3457,7 @@
       <c r="G293" s="13"/>
       <c r="H293" s="13"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B294" s="18"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
@@ -3055,7 +3466,7 @@
       <c r="G294" s="13"/>
       <c r="H294" s="13"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B295" s="18"/>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
@@ -3064,7 +3475,7 @@
       <c r="G295" s="13"/>
       <c r="H295" s="13"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B296" s="18"/>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -3073,7 +3484,7 @@
       <c r="G296" s="13"/>
       <c r="H296" s="13"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B297" s="18"/>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
@@ -3082,7 +3493,7 @@
       <c r="G297" s="13"/>
       <c r="H297" s="13"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B298" s="18"/>
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
@@ -3091,7 +3502,7 @@
       <c r="G298" s="13"/>
       <c r="H298" s="13"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B299" s="18"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -3100,7 +3511,7 @@
       <c r="G299" s="13"/>
       <c r="H299" s="13"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B300" s="18"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -3109,7 +3520,7 @@
       <c r="G300" s="13"/>
       <c r="H300" s="13"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B301" s="18"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -3118,7 +3529,7 @@
       <c r="G301" s="13"/>
       <c r="H301" s="13"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B302" s="18"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -3127,7 +3538,7 @@
       <c r="G302" s="13"/>
       <c r="H302" s="13"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B303" s="18"/>
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
@@ -3136,7 +3547,7 @@
       <c r="G303" s="13"/>
       <c r="H303" s="13"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B304" s="18"/>
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
@@ -3145,7 +3556,7 @@
       <c r="G304" s="13"/>
       <c r="H304" s="13"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B305" s="18"/>
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
@@ -3154,7 +3565,7 @@
       <c r="G305" s="13"/>
       <c r="H305" s="13"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B306" s="18"/>
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
@@ -3163,7 +3574,7 @@
       <c r="G306" s="13"/>
       <c r="H306" s="13"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B307" s="18"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
@@ -3172,7 +3583,7 @@
       <c r="G307" s="13"/>
       <c r="H307" s="13"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B308" s="18"/>
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
@@ -3181,7 +3592,7 @@
       <c r="G308" s="13"/>
       <c r="H308" s="13"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
@@ -3190,7 +3601,7 @@
       <c r="G309" s="13"/>
       <c r="H309" s="13"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B310" s="18"/>
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
@@ -3199,7 +3610,7 @@
       <c r="G310" s="13"/>
       <c r="H310" s="13"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B311" s="18"/>
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
@@ -3208,7 +3619,7 @@
       <c r="G311" s="13"/>
       <c r="H311" s="13"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B312" s="18"/>
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
@@ -3217,7 +3628,7 @@
       <c r="G312" s="13"/>
       <c r="H312" s="13"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B313" s="18"/>
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
@@ -3226,7 +3637,7 @@
       <c r="G313" s="13"/>
       <c r="H313" s="13"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B314" s="18"/>
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
@@ -3235,7 +3646,7 @@
       <c r="G314" s="13"/>
       <c r="H314" s="13"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B315" s="18"/>
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
@@ -3244,7 +3655,7 @@
       <c r="G315" s="13"/>
       <c r="H315" s="13"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B316" s="18"/>
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
@@ -3253,7 +3664,7 @@
       <c r="G316" s="13"/>
       <c r="H316" s="13"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B317" s="18"/>
       <c r="C317" s="13"/>
       <c r="D317" s="13"/>
@@ -3262,7 +3673,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B318" s="18"/>
       <c r="C318" s="13"/>
       <c r="D318" s="13"/>
@@ -3271,7 +3682,7 @@
       <c r="G318" s="13"/>
       <c r="H318" s="13"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B319" s="18"/>
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
@@ -3280,7 +3691,7 @@
       <c r="G319" s="13"/>
       <c r="H319" s="13"/>
     </row>
-    <row r="320">
+    <row r="320" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B320" s="18"/>
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
@@ -3289,7 +3700,7 @@
       <c r="G320" s="13"/>
       <c r="H320" s="13"/>
     </row>
-    <row r="321">
+    <row r="321" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B321" s="18"/>
       <c r="C321" s="13"/>
       <c r="D321" s="13"/>
@@ -3298,7 +3709,7 @@
       <c r="G321" s="13"/>
       <c r="H321" s="13"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B322" s="18"/>
       <c r="C322" s="13"/>
       <c r="D322" s="13"/>
@@ -3307,7 +3718,7 @@
       <c r="G322" s="13"/>
       <c r="H322" s="13"/>
     </row>
-    <row r="323">
+    <row r="323" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B323" s="18"/>
       <c r="C323" s="13"/>
       <c r="D323" s="13"/>
@@ -3316,7 +3727,7 @@
       <c r="G323" s="13"/>
       <c r="H323" s="13"/>
     </row>
-    <row r="324">
+    <row r="324" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
       <c r="C324" s="13"/>
       <c r="D324" s="13"/>
@@ -3325,7 +3736,7 @@
       <c r="G324" s="13"/>
       <c r="H324" s="13"/>
     </row>
-    <row r="325">
+    <row r="325" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
       <c r="C325" s="13"/>
       <c r="D325" s="13"/>
@@ -3334,7 +3745,7 @@
       <c r="G325" s="13"/>
       <c r="H325" s="13"/>
     </row>
-    <row r="326">
+    <row r="326" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B326" s="18"/>
       <c r="C326" s="13"/>
       <c r="D326" s="13"/>
@@ -3343,7 +3754,7 @@
       <c r="G326" s="13"/>
       <c r="H326" s="13"/>
     </row>
-    <row r="327">
+    <row r="327" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B327" s="18"/>
       <c r="C327" s="13"/>
       <c r="D327" s="13"/>
@@ -3352,7 +3763,7 @@
       <c r="G327" s="13"/>
       <c r="H327" s="13"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B328" s="18"/>
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
@@ -3361,7 +3772,7 @@
       <c r="G328" s="13"/>
       <c r="H328" s="13"/>
     </row>
-    <row r="329">
+    <row r="329" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B329" s="18"/>
       <c r="C329" s="13"/>
       <c r="D329" s="13"/>
@@ -3370,7 +3781,7 @@
       <c r="G329" s="13"/>
       <c r="H329" s="13"/>
     </row>
-    <row r="330">
+    <row r="330" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B330" s="18"/>
       <c r="C330" s="13"/>
       <c r="D330" s="13"/>
@@ -3379,7 +3790,7 @@
       <c r="G330" s="13"/>
       <c r="H330" s="13"/>
     </row>
-    <row r="331">
+    <row r="331" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B331" s="18"/>
       <c r="C331" s="13"/>
       <c r="D331" s="13"/>
@@ -3388,7 +3799,7 @@
       <c r="G331" s="13"/>
       <c r="H331" s="13"/>
     </row>
-    <row r="332">
+    <row r="332" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B332" s="18"/>
       <c r="C332" s="13"/>
       <c r="D332" s="13"/>
@@ -3397,7 +3808,7 @@
       <c r="G332" s="13"/>
       <c r="H332" s="13"/>
     </row>
-    <row r="333">
+    <row r="333" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B333" s="18"/>
       <c r="C333" s="13"/>
       <c r="D333" s="13"/>
@@ -3406,7 +3817,7 @@
       <c r="G333" s="13"/>
       <c r="H333" s="13"/>
     </row>
-    <row r="334">
+    <row r="334" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B334" s="18"/>
       <c r="C334" s="13"/>
       <c r="D334" s="13"/>
@@ -3415,7 +3826,7 @@
       <c r="G334" s="13"/>
       <c r="H334" s="13"/>
     </row>
-    <row r="335">
+    <row r="335" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B335" s="18"/>
       <c r="C335" s="13"/>
       <c r="D335" s="13"/>
@@ -3424,7 +3835,7 @@
       <c r="G335" s="13"/>
       <c r="H335" s="13"/>
     </row>
-    <row r="336">
+    <row r="336" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
       <c r="C336" s="13"/>
       <c r="D336" s="13"/>
@@ -3433,7 +3844,7 @@
       <c r="G336" s="13"/>
       <c r="H336" s="13"/>
     </row>
-    <row r="337">
+    <row r="337" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B337" s="18"/>
       <c r="C337" s="13"/>
       <c r="D337" s="13"/>
@@ -3442,7 +3853,7 @@
       <c r="G337" s="13"/>
       <c r="H337" s="13"/>
     </row>
-    <row r="338">
+    <row r="338" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
       <c r="C338" s="13"/>
       <c r="D338" s="13"/>
@@ -3451,7 +3862,7 @@
       <c r="G338" s="13"/>
       <c r="H338" s="13"/>
     </row>
-    <row r="339">
+    <row r="339" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B339" s="18"/>
       <c r="C339" s="13"/>
       <c r="D339" s="13"/>
@@ -3460,7 +3871,7 @@
       <c r="G339" s="13"/>
       <c r="H339" s="13"/>
     </row>
-    <row r="340">
+    <row r="340" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B340" s="18"/>
       <c r="C340" s="13"/>
       <c r="D340" s="13"/>
@@ -3469,7 +3880,7 @@
       <c r="G340" s="13"/>
       <c r="H340" s="13"/>
     </row>
-    <row r="341">
+    <row r="341" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B341" s="18"/>
       <c r="C341" s="13"/>
       <c r="D341" s="13"/>
@@ -3478,7 +3889,7 @@
       <c r="G341" s="13"/>
       <c r="H341" s="13"/>
     </row>
-    <row r="342">
+    <row r="342" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
       <c r="C342" s="13"/>
       <c r="D342" s="13"/>
@@ -3487,7 +3898,7 @@
       <c r="G342" s="13"/>
       <c r="H342" s="13"/>
     </row>
-    <row r="343">
+    <row r="343" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B343" s="18"/>
       <c r="C343" s="13"/>
       <c r="D343" s="13"/>
@@ -3496,7 +3907,7 @@
       <c r="G343" s="13"/>
       <c r="H343" s="13"/>
     </row>
-    <row r="344">
+    <row r="344" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B344" s="18"/>
       <c r="C344" s="13"/>
       <c r="D344" s="13"/>
@@ -3505,7 +3916,7 @@
       <c r="G344" s="13"/>
       <c r="H344" s="13"/>
     </row>
-    <row r="345">
+    <row r="345" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B345" s="18"/>
       <c r="C345" s="13"/>
       <c r="D345" s="13"/>
@@ -3514,7 +3925,7 @@
       <c r="G345" s="13"/>
       <c r="H345" s="13"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
       <c r="C346" s="13"/>
       <c r="D346" s="13"/>
@@ -3523,7 +3934,7 @@
       <c r="G346" s="13"/>
       <c r="H346" s="13"/>
     </row>
-    <row r="347">
+    <row r="347" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B347" s="18"/>
       <c r="C347" s="13"/>
       <c r="D347" s="13"/>
@@ -3532,7 +3943,7 @@
       <c r="G347" s="13"/>
       <c r="H347" s="13"/>
     </row>
-    <row r="348">
+    <row r="348" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
       <c r="C348" s="13"/>
       <c r="D348" s="13"/>
@@ -3541,7 +3952,7 @@
       <c r="G348" s="13"/>
       <c r="H348" s="13"/>
     </row>
-    <row r="349">
+    <row r="349" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B349" s="18"/>
       <c r="C349" s="13"/>
       <c r="D349" s="13"/>
@@ -3550,7 +3961,7 @@
       <c r="G349" s="13"/>
       <c r="H349" s="13"/>
     </row>
-    <row r="350">
+    <row r="350" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
       <c r="C350" s="13"/>
       <c r="D350" s="13"/>
@@ -3559,7 +3970,7 @@
       <c r="G350" s="13"/>
       <c r="H350" s="13"/>
     </row>
-    <row r="351">
+    <row r="351" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B351" s="18"/>
       <c r="C351" s="13"/>
       <c r="D351" s="13"/>
@@ -3568,7 +3979,7 @@
       <c r="G351" s="13"/>
       <c r="H351" s="13"/>
     </row>
-    <row r="352">
+    <row r="352" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
       <c r="C352" s="13"/>
       <c r="D352" s="13"/>
@@ -3577,7 +3988,7 @@
       <c r="G352" s="13"/>
       <c r="H352" s="13"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B353" s="18"/>
       <c r="C353" s="13"/>
       <c r="D353" s="13"/>
@@ -3586,7 +3997,7 @@
       <c r="G353" s="13"/>
       <c r="H353" s="13"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
       <c r="C354" s="13"/>
       <c r="D354" s="13"/>
@@ -3595,7 +4006,7 @@
       <c r="G354" s="13"/>
       <c r="H354" s="13"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B355" s="18"/>
       <c r="C355" s="13"/>
       <c r="D355" s="13"/>
@@ -3604,7 +4015,7 @@
       <c r="G355" s="13"/>
       <c r="H355" s="13"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B356" s="18"/>
       <c r="C356" s="13"/>
       <c r="D356" s="13"/>
@@ -3613,7 +4024,7 @@
       <c r="G356" s="13"/>
       <c r="H356" s="13"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B357" s="18"/>
       <c r="C357" s="13"/>
       <c r="D357" s="13"/>
@@ -3622,7 +4033,7 @@
       <c r="G357" s="13"/>
       <c r="H357" s="13"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B358" s="18"/>
       <c r="C358" s="13"/>
       <c r="D358" s="13"/>
@@ -3631,7 +4042,7 @@
       <c r="G358" s="13"/>
       <c r="H358" s="13"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
       <c r="C359" s="13"/>
       <c r="D359" s="13"/>
@@ -3640,7 +4051,7 @@
       <c r="G359" s="13"/>
       <c r="H359" s="13"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
       <c r="C360" s="13"/>
       <c r="D360" s="13"/>
@@ -3649,7 +4060,7 @@
       <c r="G360" s="13"/>
       <c r="H360" s="13"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B361" s="18"/>
       <c r="C361" s="13"/>
       <c r="D361" s="13"/>
@@ -3658,7 +4069,7 @@
       <c r="G361" s="13"/>
       <c r="H361" s="13"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
       <c r="C362" s="13"/>
       <c r="D362" s="13"/>
@@ -3667,7 +4078,7 @@
       <c r="G362" s="13"/>
       <c r="H362" s="13"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
       <c r="C363" s="13"/>
       <c r="D363" s="13"/>
@@ -3676,7 +4087,7 @@
       <c r="G363" s="13"/>
       <c r="H363" s="13"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B364" s="18"/>
       <c r="C364" s="13"/>
       <c r="D364" s="13"/>
@@ -3685,7 +4096,7 @@
       <c r="G364" s="13"/>
       <c r="H364" s="13"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B365" s="18"/>
       <c r="C365" s="13"/>
       <c r="D365" s="13"/>
@@ -3694,7 +4105,7 @@
       <c r="G365" s="13"/>
       <c r="H365" s="13"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B366" s="18"/>
       <c r="C366" s="13"/>
       <c r="D366" s="13"/>
@@ -3703,7 +4114,7 @@
       <c r="G366" s="13"/>
       <c r="H366" s="13"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B367" s="18"/>
       <c r="C367" s="13"/>
       <c r="D367" s="13"/>
@@ -3712,7 +4123,7 @@
       <c r="G367" s="13"/>
       <c r="H367" s="13"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
       <c r="C368" s="13"/>
       <c r="D368" s="13"/>
@@ -3721,7 +4132,7 @@
       <c r="G368" s="13"/>
       <c r="H368" s="13"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B369" s="18"/>
       <c r="C369" s="13"/>
       <c r="D369" s="13"/>
@@ -3730,7 +4141,7 @@
       <c r="G369" s="13"/>
       <c r="H369" s="13"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
       <c r="C370" s="13"/>
       <c r="D370" s="13"/>
@@ -3739,7 +4150,7 @@
       <c r="G370" s="13"/>
       <c r="H370" s="13"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B371" s="18"/>
       <c r="C371" s="13"/>
       <c r="D371" s="13"/>
@@ -3748,7 +4159,7 @@
       <c r="G371" s="13"/>
       <c r="H371" s="13"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B372" s="18"/>
       <c r="C372" s="13"/>
       <c r="D372" s="13"/>
@@ -3757,7 +4168,7 @@
       <c r="G372" s="13"/>
       <c r="H372" s="13"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B373" s="18"/>
       <c r="C373" s="13"/>
       <c r="D373" s="13"/>
@@ -3766,7 +4177,7 @@
       <c r="G373" s="13"/>
       <c r="H373" s="13"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B374" s="18"/>
       <c r="C374" s="13"/>
       <c r="D374" s="13"/>
@@ -3775,7 +4186,7 @@
       <c r="G374" s="13"/>
       <c r="H374" s="13"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B375" s="18"/>
       <c r="C375" s="13"/>
       <c r="D375" s="13"/>
@@ -3784,7 +4195,7 @@
       <c r="G375" s="13"/>
       <c r="H375" s="13"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B376" s="18"/>
       <c r="C376" s="13"/>
       <c r="D376" s="13"/>
@@ -3793,7 +4204,7 @@
       <c r="G376" s="13"/>
       <c r="H376" s="13"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B377" s="18"/>
       <c r="C377" s="13"/>
       <c r="D377" s="13"/>
@@ -3802,7 +4213,7 @@
       <c r="G377" s="13"/>
       <c r="H377" s="13"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B378" s="18"/>
       <c r="C378" s="13"/>
       <c r="D378" s="13"/>
@@ -3811,7 +4222,7 @@
       <c r="G378" s="13"/>
       <c r="H378" s="13"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B379" s="18"/>
       <c r="C379" s="13"/>
       <c r="D379" s="13"/>
@@ -3820,7 +4231,7 @@
       <c r="G379" s="13"/>
       <c r="H379" s="13"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B380" s="18"/>
       <c r="C380" s="13"/>
       <c r="D380" s="13"/>
@@ -3829,7 +4240,7 @@
       <c r="G380" s="13"/>
       <c r="H380" s="13"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B381" s="18"/>
       <c r="C381" s="13"/>
       <c r="D381" s="13"/>
@@ -3838,7 +4249,7 @@
       <c r="G381" s="13"/>
       <c r="H381" s="13"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B382" s="18"/>
       <c r="C382" s="13"/>
       <c r="D382" s="13"/>
@@ -3847,7 +4258,7 @@
       <c r="G382" s="13"/>
       <c r="H382" s="13"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B383" s="18"/>
       <c r="C383" s="13"/>
       <c r="D383" s="13"/>
@@ -3856,7 +4267,7 @@
       <c r="G383" s="13"/>
       <c r="H383" s="13"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B384" s="18"/>
       <c r="C384" s="13"/>
       <c r="D384" s="13"/>
@@ -3865,7 +4276,7 @@
       <c r="G384" s="13"/>
       <c r="H384" s="13"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B385" s="18"/>
       <c r="C385" s="13"/>
       <c r="D385" s="13"/>
@@ -3874,7 +4285,7 @@
       <c r="G385" s="13"/>
       <c r="H385" s="13"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B386" s="18"/>
       <c r="C386" s="13"/>
       <c r="D386" s="13"/>
@@ -3883,7 +4294,7 @@
       <c r="G386" s="13"/>
       <c r="H386" s="13"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B387" s="18"/>
       <c r="C387" s="13"/>
       <c r="D387" s="13"/>
@@ -3892,7 +4303,7 @@
       <c r="G387" s="13"/>
       <c r="H387" s="13"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B388" s="18"/>
       <c r="C388" s="13"/>
       <c r="D388" s="13"/>
@@ -3901,7 +4312,7 @@
       <c r="G388" s="13"/>
       <c r="H388" s="13"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B389" s="18"/>
       <c r="C389" s="13"/>
       <c r="D389" s="13"/>
@@ -3910,7 +4321,7 @@
       <c r="G389" s="13"/>
       <c r="H389" s="13"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B390" s="18"/>
       <c r="C390" s="13"/>
       <c r="D390" s="13"/>
@@ -3919,7 +4330,7 @@
       <c r="G390" s="13"/>
       <c r="H390" s="13"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B391" s="18"/>
       <c r="C391" s="13"/>
       <c r="D391" s="13"/>
@@ -3928,7 +4339,7 @@
       <c r="G391" s="13"/>
       <c r="H391" s="13"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B392" s="18"/>
       <c r="C392" s="13"/>
       <c r="D392" s="13"/>
@@ -3937,7 +4348,7 @@
       <c r="G392" s="13"/>
       <c r="H392" s="13"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
       <c r="C393" s="13"/>
       <c r="D393" s="13"/>
@@ -3946,7 +4357,7 @@
       <c r="G393" s="13"/>
       <c r="H393" s="13"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
       <c r="C394" s="13"/>
       <c r="D394" s="13"/>
@@ -3955,7 +4366,7 @@
       <c r="G394" s="13"/>
       <c r="H394" s="13"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
       <c r="C395" s="13"/>
       <c r="D395" s="13"/>
@@ -3964,7 +4375,7 @@
       <c r="G395" s="13"/>
       <c r="H395" s="13"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B396" s="18"/>
       <c r="C396" s="13"/>
       <c r="D396" s="13"/>
@@ -3973,7 +4384,7 @@
       <c r="G396" s="13"/>
       <c r="H396" s="13"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B397" s="18"/>
       <c r="C397" s="13"/>
       <c r="D397" s="13"/>
@@ -3982,7 +4393,7 @@
       <c r="G397" s="13"/>
       <c r="H397" s="13"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B398" s="18"/>
       <c r="C398" s="13"/>
       <c r="D398" s="13"/>
@@ -3991,7 +4402,7 @@
       <c r="G398" s="13"/>
       <c r="H398" s="13"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B399" s="18"/>
       <c r="C399" s="13"/>
       <c r="D399" s="13"/>
@@ -4000,7 +4411,7 @@
       <c r="G399" s="13"/>
       <c r="H399" s="13"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B400" s="18"/>
       <c r="C400" s="13"/>
       <c r="D400" s="13"/>
@@ -4009,7 +4420,7 @@
       <c r="G400" s="13"/>
       <c r="H400" s="13"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B401" s="18"/>
       <c r="C401" s="13"/>
       <c r="D401" s="13"/>
@@ -4018,7 +4429,7 @@
       <c r="G401" s="13"/>
       <c r="H401" s="13"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B402" s="18"/>
       <c r="C402" s="13"/>
       <c r="D402" s="13"/>
@@ -4027,7 +4438,7 @@
       <c r="G402" s="13"/>
       <c r="H402" s="13"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B403" s="18"/>
       <c r="C403" s="13"/>
       <c r="D403" s="13"/>
@@ -4036,7 +4447,7 @@
       <c r="G403" s="13"/>
       <c r="H403" s="13"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B404" s="18"/>
       <c r="C404" s="13"/>
       <c r="D404" s="13"/>
@@ -4045,7 +4456,7 @@
       <c r="G404" s="13"/>
       <c r="H404" s="13"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B405" s="18"/>
       <c r="C405" s="13"/>
       <c r="D405" s="13"/>
@@ -4054,7 +4465,7 @@
       <c r="G405" s="13"/>
       <c r="H405" s="13"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B406" s="18"/>
       <c r="C406" s="13"/>
       <c r="D406" s="13"/>
@@ -4063,7 +4474,7 @@
       <c r="G406" s="13"/>
       <c r="H406" s="13"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B407" s="18"/>
       <c r="C407" s="13"/>
       <c r="D407" s="13"/>
@@ -4072,7 +4483,7 @@
       <c r="G407" s="13"/>
       <c r="H407" s="13"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B408" s="18"/>
       <c r="C408" s="13"/>
       <c r="D408" s="13"/>
@@ -4081,7 +4492,7 @@
       <c r="G408" s="13"/>
       <c r="H408" s="13"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B409" s="18"/>
       <c r="C409" s="13"/>
       <c r="D409" s="13"/>
@@ -4090,7 +4501,7 @@
       <c r="G409" s="13"/>
       <c r="H409" s="13"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B410" s="18"/>
       <c r="C410" s="13"/>
       <c r="D410" s="13"/>
@@ -4099,7 +4510,7 @@
       <c r="G410" s="13"/>
       <c r="H410" s="13"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B411" s="18"/>
       <c r="C411" s="13"/>
       <c r="D411" s="13"/>
@@ -4108,7 +4519,7 @@
       <c r="G411" s="13"/>
       <c r="H411" s="13"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B412" s="18"/>
       <c r="C412" s="13"/>
       <c r="D412" s="13"/>
@@ -4117,7 +4528,7 @@
       <c r="G412" s="13"/>
       <c r="H412" s="13"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B413" s="18"/>
       <c r="C413" s="13"/>
       <c r="D413" s="13"/>
@@ -4126,7 +4537,7 @@
       <c r="G413" s="13"/>
       <c r="H413" s="13"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B414" s="18"/>
       <c r="C414" s="13"/>
       <c r="D414" s="13"/>
@@ -4135,7 +4546,7 @@
       <c r="G414" s="13"/>
       <c r="H414" s="13"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
       <c r="C415" s="13"/>
       <c r="D415" s="13"/>
@@ -4144,7 +4555,7 @@
       <c r="G415" s="13"/>
       <c r="H415" s="13"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B416" s="18"/>
       <c r="C416" s="13"/>
       <c r="D416" s="13"/>
@@ -4153,7 +4564,7 @@
       <c r="G416" s="13"/>
       <c r="H416" s="13"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B417" s="18"/>
       <c r="C417" s="13"/>
       <c r="D417" s="13"/>
@@ -4162,7 +4573,7 @@
       <c r="G417" s="13"/>
       <c r="H417" s="13"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B418" s="18"/>
       <c r="C418" s="13"/>
       <c r="D418" s="13"/>
@@ -4171,7 +4582,7 @@
       <c r="G418" s="13"/>
       <c r="H418" s="13"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B419" s="18"/>
       <c r="C419" s="13"/>
       <c r="D419" s="13"/>
@@ -4180,7 +4591,7 @@
       <c r="G419" s="13"/>
       <c r="H419" s="13"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B420" s="18"/>
       <c r="C420" s="13"/>
       <c r="D420" s="13"/>
@@ -4189,7 +4600,7 @@
       <c r="G420" s="13"/>
       <c r="H420" s="13"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B421" s="18"/>
       <c r="C421" s="13"/>
       <c r="D421" s="13"/>
@@ -4198,7 +4609,7 @@
       <c r="G421" s="13"/>
       <c r="H421" s="13"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B422" s="18"/>
       <c r="C422" s="13"/>
       <c r="D422" s="13"/>
@@ -4207,7 +4618,7 @@
       <c r="G422" s="13"/>
       <c r="H422" s="13"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B423" s="18"/>
       <c r="C423" s="13"/>
       <c r="D423" s="13"/>
@@ -4216,7 +4627,7 @@
       <c r="G423" s="13"/>
       <c r="H423" s="13"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B424" s="18"/>
       <c r="C424" s="13"/>
       <c r="D424" s="13"/>
@@ -4225,7 +4636,7 @@
       <c r="G424" s="13"/>
       <c r="H424" s="13"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B425" s="18"/>
       <c r="C425" s="13"/>
       <c r="D425" s="13"/>
@@ -4234,7 +4645,7 @@
       <c r="G425" s="13"/>
       <c r="H425" s="13"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B426" s="18"/>
       <c r="C426" s="13"/>
       <c r="D426" s="13"/>
@@ -4243,7 +4654,7 @@
       <c r="G426" s="13"/>
       <c r="H426" s="13"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B427" s="18"/>
       <c r="C427" s="13"/>
       <c r="D427" s="13"/>
@@ -4252,7 +4663,7 @@
       <c r="G427" s="13"/>
       <c r="H427" s="13"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B428" s="18"/>
       <c r="C428" s="13"/>
       <c r="D428" s="13"/>
@@ -4261,7 +4672,7 @@
       <c r="G428" s="13"/>
       <c r="H428" s="13"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B429" s="18"/>
       <c r="C429" s="13"/>
       <c r="D429" s="13"/>
@@ -4270,7 +4681,7 @@
       <c r="G429" s="13"/>
       <c r="H429" s="13"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B430" s="18"/>
       <c r="C430" s="13"/>
       <c r="D430" s="13"/>
@@ -4279,7 +4690,7 @@
       <c r="G430" s="13"/>
       <c r="H430" s="13"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B431" s="18"/>
       <c r="C431" s="13"/>
       <c r="D431" s="13"/>
@@ -4288,7 +4699,7 @@
       <c r="G431" s="13"/>
       <c r="H431" s="13"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B432" s="18"/>
       <c r="C432" s="13"/>
       <c r="D432" s="13"/>
@@ -4297,7 +4708,7 @@
       <c r="G432" s="13"/>
       <c r="H432" s="13"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B433" s="18"/>
       <c r="C433" s="13"/>
       <c r="D433" s="13"/>
@@ -4306,7 +4717,7 @@
       <c r="G433" s="13"/>
       <c r="H433" s="13"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B434" s="18"/>
       <c r="C434" s="13"/>
       <c r="D434" s="13"/>
@@ -4315,7 +4726,7 @@
       <c r="G434" s="13"/>
       <c r="H434" s="13"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B435" s="18"/>
       <c r="C435" s="13"/>
       <c r="D435" s="13"/>
@@ -4324,7 +4735,7 @@
       <c r="G435" s="13"/>
       <c r="H435" s="13"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B436" s="18"/>
       <c r="C436" s="13"/>
       <c r="D436" s="13"/>
@@ -4333,7 +4744,7 @@
       <c r="G436" s="13"/>
       <c r="H436" s="13"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B437" s="18"/>
       <c r="C437" s="13"/>
       <c r="D437" s="13"/>
@@ -4342,7 +4753,7 @@
       <c r="G437" s="13"/>
       <c r="H437" s="13"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B438" s="18"/>
       <c r="C438" s="13"/>
       <c r="D438" s="13"/>
@@ -4351,7 +4762,7 @@
       <c r="G438" s="13"/>
       <c r="H438" s="13"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B439" s="18"/>
       <c r="C439" s="13"/>
       <c r="D439" s="13"/>
@@ -4360,7 +4771,7 @@
       <c r="G439" s="13"/>
       <c r="H439" s="13"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B440" s="18"/>
       <c r="C440" s="13"/>
       <c r="D440" s="13"/>
@@ -4369,7 +4780,7 @@
       <c r="G440" s="13"/>
       <c r="H440" s="13"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B441" s="18"/>
       <c r="C441" s="13"/>
       <c r="D441" s="13"/>
@@ -4378,7 +4789,7 @@
       <c r="G441" s="13"/>
       <c r="H441" s="13"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B442" s="18"/>
       <c r="C442" s="13"/>
       <c r="D442" s="13"/>
@@ -4387,7 +4798,7 @@
       <c r="G442" s="13"/>
       <c r="H442" s="13"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B443" s="18"/>
       <c r="C443" s="13"/>
       <c r="D443" s="13"/>
@@ -4396,7 +4807,7 @@
       <c r="G443" s="13"/>
       <c r="H443" s="13"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B444" s="18"/>
       <c r="C444" s="13"/>
       <c r="D444" s="13"/>
@@ -4405,7 +4816,7 @@
       <c r="G444" s="13"/>
       <c r="H444" s="13"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B445" s="18"/>
       <c r="C445" s="13"/>
       <c r="D445" s="13"/>
@@ -4414,7 +4825,7 @@
       <c r="G445" s="13"/>
       <c r="H445" s="13"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B446" s="18"/>
       <c r="C446" s="13"/>
       <c r="D446" s="13"/>
@@ -4423,7 +4834,7 @@
       <c r="G446" s="13"/>
       <c r="H446" s="13"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B447" s="18"/>
       <c r="C447" s="13"/>
       <c r="D447" s="13"/>
@@ -4432,7 +4843,7 @@
       <c r="G447" s="13"/>
       <c r="H447" s="13"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B448" s="18"/>
       <c r="C448" s="13"/>
       <c r="D448" s="13"/>
@@ -4441,7 +4852,7 @@
       <c r="G448" s="13"/>
       <c r="H448" s="13"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B449" s="18"/>
       <c r="C449" s="13"/>
       <c r="D449" s="13"/>
@@ -4450,7 +4861,7 @@
       <c r="G449" s="13"/>
       <c r="H449" s="13"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B450" s="18"/>
       <c r="C450" s="13"/>
       <c r="D450" s="13"/>
@@ -4459,7 +4870,7 @@
       <c r="G450" s="13"/>
       <c r="H450" s="13"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B451" s="18"/>
       <c r="C451" s="13"/>
       <c r="D451" s="13"/>
@@ -4468,7 +4879,7 @@
       <c r="G451" s="13"/>
       <c r="H451" s="13"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B452" s="18"/>
       <c r="C452" s="13"/>
       <c r="D452" s="13"/>
@@ -4477,7 +4888,7 @@
       <c r="G452" s="13"/>
       <c r="H452" s="13"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B453" s="18"/>
       <c r="C453" s="13"/>
       <c r="D453" s="13"/>
@@ -4486,7 +4897,7 @@
       <c r="G453" s="13"/>
       <c r="H453" s="13"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B454" s="18"/>
       <c r="C454" s="13"/>
       <c r="D454" s="13"/>
@@ -4495,7 +4906,7 @@
       <c r="G454" s="13"/>
       <c r="H454" s="13"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B455" s="18"/>
       <c r="C455" s="13"/>
       <c r="D455" s="13"/>
@@ -4504,7 +4915,7 @@
       <c r="G455" s="13"/>
       <c r="H455" s="13"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B456" s="18"/>
       <c r="C456" s="13"/>
       <c r="D456" s="13"/>
@@ -4513,7 +4924,7 @@
       <c r="G456" s="13"/>
       <c r="H456" s="13"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B457" s="18"/>
       <c r="C457" s="13"/>
       <c r="D457" s="13"/>
@@ -4522,7 +4933,7 @@
       <c r="G457" s="13"/>
       <c r="H457" s="13"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B458" s="18"/>
       <c r="C458" s="13"/>
       <c r="D458" s="13"/>
@@ -4531,7 +4942,7 @@
       <c r="G458" s="13"/>
       <c r="H458" s="13"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B459" s="18"/>
       <c r="C459" s="13"/>
       <c r="D459" s="13"/>
@@ -4540,7 +4951,7 @@
       <c r="G459" s="13"/>
       <c r="H459" s="13"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B460" s="18"/>
       <c r="C460" s="13"/>
       <c r="D460" s="13"/>
@@ -4549,7 +4960,7 @@
       <c r="G460" s="13"/>
       <c r="H460" s="13"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B461" s="18"/>
       <c r="C461" s="13"/>
       <c r="D461" s="13"/>
@@ -4558,7 +4969,7 @@
       <c r="G461" s="13"/>
       <c r="H461" s="13"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B462" s="18"/>
       <c r="C462" s="13"/>
       <c r="D462" s="13"/>
@@ -4567,7 +4978,7 @@
       <c r="G462" s="13"/>
       <c r="H462" s="13"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B463" s="18"/>
       <c r="C463" s="13"/>
       <c r="D463" s="13"/>
@@ -4576,7 +4987,7 @@
       <c r="G463" s="13"/>
       <c r="H463" s="13"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B464" s="18"/>
       <c r="C464" s="13"/>
       <c r="D464" s="13"/>
@@ -4585,7 +4996,7 @@
       <c r="G464" s="13"/>
       <c r="H464" s="13"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B465" s="18"/>
       <c r="C465" s="13"/>
       <c r="D465" s="13"/>
@@ -4594,7 +5005,7 @@
       <c r="G465" s="13"/>
       <c r="H465" s="13"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B466" s="18"/>
       <c r="C466" s="13"/>
       <c r="D466" s="13"/>
@@ -4603,7 +5014,7 @@
       <c r="G466" s="13"/>
       <c r="H466" s="13"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B467" s="18"/>
       <c r="C467" s="13"/>
       <c r="D467" s="13"/>
@@ -4612,7 +5023,7 @@
       <c r="G467" s="13"/>
       <c r="H467" s="13"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B468" s="18"/>
       <c r="C468" s="13"/>
       <c r="D468" s="13"/>
@@ -4621,7 +5032,7 @@
       <c r="G468" s="13"/>
       <c r="H468" s="13"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B469" s="18"/>
       <c r="C469" s="13"/>
       <c r="D469" s="13"/>
@@ -4630,7 +5041,7 @@
       <c r="G469" s="13"/>
       <c r="H469" s="13"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B470" s="18"/>
       <c r="C470" s="13"/>
       <c r="D470" s="13"/>
@@ -4639,7 +5050,7 @@
       <c r="G470" s="13"/>
       <c r="H470" s="13"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B471" s="18"/>
       <c r="C471" s="13"/>
       <c r="D471" s="13"/>
@@ -4648,7 +5059,7 @@
       <c r="G471" s="13"/>
       <c r="H471" s="13"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B472" s="18"/>
       <c r="C472" s="13"/>
       <c r="D472" s="13"/>
@@ -4657,7 +5068,7 @@
       <c r="G472" s="13"/>
       <c r="H472" s="13"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B473" s="18"/>
       <c r="C473" s="13"/>
       <c r="D473" s="13"/>
@@ -4666,7 +5077,7 @@
       <c r="G473" s="13"/>
       <c r="H473" s="13"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B474" s="18"/>
       <c r="C474" s="13"/>
       <c r="D474" s="13"/>
@@ -4675,7 +5086,7 @@
       <c r="G474" s="13"/>
       <c r="H474" s="13"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B475" s="18"/>
       <c r="C475" s="13"/>
       <c r="D475" s="13"/>
@@ -4684,7 +5095,7 @@
       <c r="G475" s="13"/>
       <c r="H475" s="13"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B476" s="18"/>
       <c r="C476" s="13"/>
       <c r="D476" s="13"/>
@@ -4693,7 +5104,7 @@
       <c r="G476" s="13"/>
       <c r="H476" s="13"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B477" s="18"/>
       <c r="C477" s="13"/>
       <c r="D477" s="13"/>
@@ -4702,7 +5113,7 @@
       <c r="G477" s="13"/>
       <c r="H477" s="13"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B478" s="18"/>
       <c r="C478" s="13"/>
       <c r="D478" s="13"/>
@@ -4711,7 +5122,7 @@
       <c r="G478" s="13"/>
       <c r="H478" s="13"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B479" s="18"/>
       <c r="C479" s="13"/>
       <c r="D479" s="13"/>
@@ -4720,7 +5131,7 @@
       <c r="G479" s="13"/>
       <c r="H479" s="13"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B480" s="18"/>
       <c r="C480" s="13"/>
       <c r="D480" s="13"/>
@@ -4729,7 +5140,7 @@
       <c r="G480" s="13"/>
       <c r="H480" s="13"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B481" s="18"/>
       <c r="C481" s="13"/>
       <c r="D481" s="13"/>
@@ -4738,7 +5149,7 @@
       <c r="G481" s="13"/>
       <c r="H481" s="13"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B482" s="18"/>
       <c r="C482" s="13"/>
       <c r="D482" s="13"/>
@@ -4747,7 +5158,7 @@
       <c r="G482" s="13"/>
       <c r="H482" s="13"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B483" s="18"/>
       <c r="C483" s="13"/>
       <c r="D483" s="13"/>
@@ -4756,7 +5167,7 @@
       <c r="G483" s="13"/>
       <c r="H483" s="13"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B484" s="18"/>
       <c r="C484" s="13"/>
       <c r="D484" s="13"/>
@@ -4765,7 +5176,7 @@
       <c r="G484" s="13"/>
       <c r="H484" s="13"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B485" s="18"/>
       <c r="C485" s="13"/>
       <c r="D485" s="13"/>
@@ -4774,7 +5185,7 @@
       <c r="G485" s="13"/>
       <c r="H485" s="13"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B486" s="18"/>
       <c r="C486" s="13"/>
       <c r="D486" s="13"/>
@@ -4783,7 +5194,7 @@
       <c r="G486" s="13"/>
       <c r="H486" s="13"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B487" s="18"/>
       <c r="C487" s="13"/>
       <c r="D487" s="13"/>
@@ -4792,7 +5203,7 @@
       <c r="G487" s="13"/>
       <c r="H487" s="13"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B488" s="18"/>
       <c r="C488" s="13"/>
       <c r="D488" s="13"/>
@@ -4801,7 +5212,7 @@
       <c r="G488" s="13"/>
       <c r="H488" s="13"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B489" s="18"/>
       <c r="C489" s="13"/>
       <c r="D489" s="13"/>
@@ -4810,7 +5221,7 @@
       <c r="G489" s="13"/>
       <c r="H489" s="13"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B490" s="18"/>
       <c r="C490" s="13"/>
       <c r="D490" s="13"/>
@@ -4819,7 +5230,7 @@
       <c r="G490" s="13"/>
       <c r="H490" s="13"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B491" s="18"/>
       <c r="C491" s="13"/>
       <c r="D491" s="13"/>
@@ -4828,7 +5239,7 @@
       <c r="G491" s="13"/>
       <c r="H491" s="13"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B492" s="18"/>
       <c r="C492" s="13"/>
       <c r="D492" s="13"/>
@@ -4837,7 +5248,7 @@
       <c r="G492" s="13"/>
       <c r="H492" s="13"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B493" s="18"/>
       <c r="C493" s="13"/>
       <c r="D493" s="13"/>
@@ -4846,7 +5257,7 @@
       <c r="G493" s="13"/>
       <c r="H493" s="13"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B494" s="18"/>
       <c r="C494" s="13"/>
       <c r="D494" s="13"/>
@@ -4855,7 +5266,7 @@
       <c r="G494" s="13"/>
       <c r="H494" s="13"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B495" s="18"/>
       <c r="C495" s="13"/>
       <c r="D495" s="13"/>
@@ -4864,7 +5275,7 @@
       <c r="G495" s="13"/>
       <c r="H495" s="13"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B496" s="18"/>
       <c r="C496" s="13"/>
       <c r="D496" s="13"/>
@@ -4873,7 +5284,7 @@
       <c r="G496" s="13"/>
       <c r="H496" s="13"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B497" s="18"/>
       <c r="C497" s="13"/>
       <c r="D497" s="13"/>
@@ -4882,7 +5293,7 @@
       <c r="G497" s="13"/>
       <c r="H497" s="13"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B498" s="18"/>
       <c r="C498" s="13"/>
       <c r="D498" s="13"/>
@@ -4891,7 +5302,7 @@
       <c r="G498" s="13"/>
       <c r="H498" s="13"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B499" s="18"/>
       <c r="C499" s="13"/>
       <c r="D499" s="13"/>
@@ -4900,7 +5311,7 @@
       <c r="G499" s="13"/>
       <c r="H499" s="13"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B500" s="18"/>
       <c r="C500" s="13"/>
       <c r="D500" s="13"/>
@@ -4909,7 +5320,7 @@
       <c r="G500" s="13"/>
       <c r="H500" s="13"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B501" s="18"/>
       <c r="C501" s="13"/>
       <c r="D501" s="13"/>
@@ -4918,7 +5329,7 @@
       <c r="G501" s="13"/>
       <c r="H501" s="13"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B502" s="18"/>
       <c r="C502" s="13"/>
       <c r="D502" s="13"/>
@@ -4927,7 +5338,7 @@
       <c r="G502" s="13"/>
       <c r="H502" s="13"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B503" s="18"/>
       <c r="C503" s="13"/>
       <c r="D503" s="13"/>
@@ -4936,7 +5347,7 @@
       <c r="G503" s="13"/>
       <c r="H503" s="13"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B504" s="18"/>
       <c r="C504" s="13"/>
       <c r="D504" s="13"/>
@@ -4945,7 +5356,7 @@
       <c r="G504" s="13"/>
       <c r="H504" s="13"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B505" s="18"/>
       <c r="C505" s="13"/>
       <c r="D505" s="13"/>
@@ -4954,7 +5365,7 @@
       <c r="G505" s="13"/>
       <c r="H505" s="13"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B506" s="18"/>
       <c r="C506" s="13"/>
       <c r="D506" s="13"/>
@@ -4963,7 +5374,7 @@
       <c r="G506" s="13"/>
       <c r="H506" s="13"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B507" s="18"/>
       <c r="C507" s="13"/>
       <c r="D507" s="13"/>
@@ -4972,7 +5383,7 @@
       <c r="G507" s="13"/>
       <c r="H507" s="13"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B508" s="18"/>
       <c r="C508" s="13"/>
       <c r="D508" s="13"/>
@@ -4981,7 +5392,7 @@
       <c r="G508" s="13"/>
       <c r="H508" s="13"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B509" s="18"/>
       <c r="C509" s="13"/>
       <c r="D509" s="13"/>
@@ -4990,7 +5401,7 @@
       <c r="G509" s="13"/>
       <c r="H509" s="13"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B510" s="18"/>
       <c r="C510" s="13"/>
       <c r="D510" s="13"/>
@@ -4999,7 +5410,7 @@
       <c r="G510" s="13"/>
       <c r="H510" s="13"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B511" s="18"/>
       <c r="C511" s="13"/>
       <c r="D511" s="13"/>
@@ -5008,7 +5419,7 @@
       <c r="G511" s="13"/>
       <c r="H511" s="13"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B512" s="18"/>
       <c r="C512" s="13"/>
       <c r="D512" s="13"/>
@@ -5017,7 +5428,7 @@
       <c r="G512" s="13"/>
       <c r="H512" s="13"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B513" s="18"/>
       <c r="C513" s="13"/>
       <c r="D513" s="13"/>
@@ -5026,7 +5437,7 @@
       <c r="G513" s="13"/>
       <c r="H513" s="13"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B514" s="18"/>
       <c r="C514" s="13"/>
       <c r="D514" s="13"/>
@@ -5035,7 +5446,7 @@
       <c r="G514" s="13"/>
       <c r="H514" s="13"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B515" s="18"/>
       <c r="C515" s="13"/>
       <c r="D515" s="13"/>
@@ -5044,7 +5455,7 @@
       <c r="G515" s="13"/>
       <c r="H515" s="13"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B516" s="18"/>
       <c r="C516" s="13"/>
       <c r="D516" s="13"/>
@@ -5053,7 +5464,7 @@
       <c r="G516" s="13"/>
       <c r="H516" s="13"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B517" s="18"/>
       <c r="C517" s="13"/>
       <c r="D517" s="13"/>
@@ -5062,7 +5473,7 @@
       <c r="G517" s="13"/>
       <c r="H517" s="13"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B518" s="18"/>
       <c r="C518" s="13"/>
       <c r="D518" s="13"/>
@@ -5071,7 +5482,7 @@
       <c r="G518" s="13"/>
       <c r="H518" s="13"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B519" s="18"/>
       <c r="C519" s="13"/>
       <c r="D519" s="13"/>
@@ -5080,7 +5491,7 @@
       <c r="G519" s="13"/>
       <c r="H519" s="13"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B520" s="18"/>
       <c r="C520" s="13"/>
       <c r="D520" s="13"/>
@@ -5089,7 +5500,7 @@
       <c r="G520" s="13"/>
       <c r="H520" s="13"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B521" s="18"/>
       <c r="C521" s="13"/>
       <c r="D521" s="13"/>
@@ -5098,7 +5509,7 @@
       <c r="G521" s="13"/>
       <c r="H521" s="13"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B522" s="18"/>
       <c r="C522" s="13"/>
       <c r="D522" s="13"/>
@@ -5107,7 +5518,7 @@
       <c r="G522" s="13"/>
       <c r="H522" s="13"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B523" s="18"/>
       <c r="C523" s="13"/>
       <c r="D523" s="13"/>
@@ -5116,7 +5527,7 @@
       <c r="G523" s="13"/>
       <c r="H523" s="13"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B524" s="18"/>
       <c r="C524" s="13"/>
       <c r="D524" s="13"/>
@@ -5125,7 +5536,7 @@
       <c r="G524" s="13"/>
       <c r="H524" s="13"/>
     </row>
-    <row r="525">
+    <row r="525" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B525" s="18"/>
       <c r="C525" s="13"/>
       <c r="D525" s="13"/>
@@ -5134,7 +5545,7 @@
       <c r="G525" s="13"/>
       <c r="H525" s="13"/>
     </row>
-    <row r="526">
+    <row r="526" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B526" s="18"/>
       <c r="C526" s="13"/>
       <c r="D526" s="13"/>
@@ -5143,7 +5554,7 @@
       <c r="G526" s="13"/>
       <c r="H526" s="13"/>
     </row>
-    <row r="527">
+    <row r="527" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B527" s="18"/>
       <c r="C527" s="13"/>
       <c r="D527" s="13"/>
@@ -5152,7 +5563,7 @@
       <c r="G527" s="13"/>
       <c r="H527" s="13"/>
     </row>
-    <row r="528">
+    <row r="528" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B528" s="18"/>
       <c r="C528" s="13"/>
       <c r="D528" s="13"/>
@@ -5161,7 +5572,7 @@
       <c r="G528" s="13"/>
       <c r="H528" s="13"/>
     </row>
-    <row r="529">
+    <row r="529" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B529" s="18"/>
       <c r="C529" s="13"/>
       <c r="D529" s="13"/>
@@ -5170,7 +5581,7 @@
       <c r="G529" s="13"/>
       <c r="H529" s="13"/>
     </row>
-    <row r="530">
+    <row r="530" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B530" s="18"/>
       <c r="C530" s="13"/>
       <c r="D530" s="13"/>
@@ -5179,7 +5590,7 @@
       <c r="G530" s="13"/>
       <c r="H530" s="13"/>
     </row>
-    <row r="531">
+    <row r="531" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B531" s="18"/>
       <c r="C531" s="13"/>
       <c r="D531" s="13"/>
@@ -5188,7 +5599,7 @@
       <c r="G531" s="13"/>
       <c r="H531" s="13"/>
     </row>
-    <row r="532">
+    <row r="532" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B532" s="18"/>
       <c r="C532" s="13"/>
       <c r="D532" s="13"/>
@@ -5197,7 +5608,7 @@
       <c r="G532" s="13"/>
       <c r="H532" s="13"/>
     </row>
-    <row r="533">
+    <row r="533" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B533" s="18"/>
       <c r="C533" s="13"/>
       <c r="D533" s="13"/>
@@ -5206,7 +5617,7 @@
       <c r="G533" s="13"/>
       <c r="H533" s="13"/>
     </row>
-    <row r="534">
+    <row r="534" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B534" s="18"/>
       <c r="C534" s="13"/>
       <c r="D534" s="13"/>
@@ -5215,7 +5626,7 @@
       <c r="G534" s="13"/>
       <c r="H534" s="13"/>
     </row>
-    <row r="535">
+    <row r="535" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B535" s="18"/>
       <c r="C535" s="13"/>
       <c r="D535" s="13"/>
@@ -5224,7 +5635,7 @@
       <c r="G535" s="13"/>
       <c r="H535" s="13"/>
     </row>
-    <row r="536">
+    <row r="536" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B536" s="18"/>
       <c r="C536" s="13"/>
       <c r="D536" s="13"/>
@@ -5233,7 +5644,7 @@
       <c r="G536" s="13"/>
       <c r="H536" s="13"/>
     </row>
-    <row r="537">
+    <row r="537" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B537" s="18"/>
       <c r="C537" s="13"/>
       <c r="D537" s="13"/>
@@ -5242,7 +5653,7 @@
       <c r="G537" s="13"/>
       <c r="H537" s="13"/>
     </row>
-    <row r="538">
+    <row r="538" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B538" s="18"/>
       <c r="C538" s="13"/>
       <c r="D538" s="13"/>
@@ -5251,7 +5662,7 @@
       <c r="G538" s="13"/>
       <c r="H538" s="13"/>
     </row>
-    <row r="539">
+    <row r="539" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B539" s="18"/>
       <c r="C539" s="13"/>
       <c r="D539" s="13"/>
@@ -5260,7 +5671,7 @@
       <c r="G539" s="13"/>
       <c r="H539" s="13"/>
     </row>
-    <row r="540">
+    <row r="540" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B540" s="18"/>
       <c r="C540" s="13"/>
       <c r="D540" s="13"/>
@@ -5269,7 +5680,7 @@
       <c r="G540" s="13"/>
       <c r="H540" s="13"/>
     </row>
-    <row r="541">
+    <row r="541" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B541" s="18"/>
       <c r="C541" s="13"/>
       <c r="D541" s="13"/>
@@ -5278,7 +5689,7 @@
       <c r="G541" s="13"/>
       <c r="H541" s="13"/>
     </row>
-    <row r="542">
+    <row r="542" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B542" s="18"/>
       <c r="C542" s="13"/>
       <c r="D542" s="13"/>
@@ -5287,7 +5698,7 @@
       <c r="G542" s="13"/>
       <c r="H542" s="13"/>
     </row>
-    <row r="543">
+    <row r="543" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B543" s="18"/>
       <c r="C543" s="13"/>
       <c r="D543" s="13"/>
@@ -5296,7 +5707,7 @@
       <c r="G543" s="13"/>
       <c r="H543" s="13"/>
     </row>
-    <row r="544">
+    <row r="544" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B544" s="18"/>
       <c r="C544" s="13"/>
       <c r="D544" s="13"/>
@@ -5305,7 +5716,7 @@
       <c r="G544" s="13"/>
       <c r="H544" s="13"/>
     </row>
-    <row r="545">
+    <row r="545" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B545" s="18"/>
       <c r="C545" s="13"/>
       <c r="D545" s="13"/>
@@ -5314,7 +5725,7 @@
       <c r="G545" s="13"/>
       <c r="H545" s="13"/>
     </row>
-    <row r="546">
+    <row r="546" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B546" s="18"/>
       <c r="C546" s="13"/>
       <c r="D546" s="13"/>
@@ -5323,7 +5734,7 @@
       <c r="G546" s="13"/>
       <c r="H546" s="13"/>
     </row>
-    <row r="547">
+    <row r="547" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B547" s="18"/>
       <c r="C547" s="13"/>
       <c r="D547" s="13"/>
@@ -5332,7 +5743,7 @@
       <c r="G547" s="13"/>
       <c r="H547" s="13"/>
     </row>
-    <row r="548">
+    <row r="548" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B548" s="18"/>
       <c r="C548" s="13"/>
       <c r="D548" s="13"/>
@@ -5341,7 +5752,7 @@
       <c r="G548" s="13"/>
       <c r="H548" s="13"/>
     </row>
-    <row r="549">
+    <row r="549" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B549" s="18"/>
       <c r="C549" s="13"/>
       <c r="D549" s="13"/>
@@ -5350,7 +5761,7 @@
       <c r="G549" s="13"/>
       <c r="H549" s="13"/>
     </row>
-    <row r="550">
+    <row r="550" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B550" s="18"/>
       <c r="C550" s="13"/>
       <c r="D550" s="13"/>
@@ -5359,7 +5770,7 @@
       <c r="G550" s="13"/>
       <c r="H550" s="13"/>
     </row>
-    <row r="551">
+    <row r="551" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B551" s="18"/>
       <c r="C551" s="13"/>
       <c r="D551" s="13"/>
@@ -5368,7 +5779,7 @@
       <c r="G551" s="13"/>
       <c r="H551" s="13"/>
     </row>
-    <row r="552">
+    <row r="552" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B552" s="18"/>
       <c r="C552" s="13"/>
       <c r="D552" s="13"/>
@@ -5377,7 +5788,7 @@
       <c r="G552" s="13"/>
       <c r="H552" s="13"/>
     </row>
-    <row r="553">
+    <row r="553" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B553" s="18"/>
       <c r="C553" s="13"/>
       <c r="D553" s="13"/>
@@ -5386,7 +5797,7 @@
       <c r="G553" s="13"/>
       <c r="H553" s="13"/>
     </row>
-    <row r="554">
+    <row r="554" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B554" s="18"/>
       <c r="C554" s="13"/>
       <c r="D554" s="13"/>
@@ -5395,7 +5806,7 @@
       <c r="G554" s="13"/>
       <c r="H554" s="13"/>
     </row>
-    <row r="555">
+    <row r="555" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B555" s="18"/>
       <c r="C555" s="13"/>
       <c r="D555" s="13"/>
@@ -5404,7 +5815,7 @@
       <c r="G555" s="13"/>
       <c r="H555" s="13"/>
     </row>
-    <row r="556">
+    <row r="556" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B556" s="18"/>
       <c r="C556" s="13"/>
       <c r="D556" s="13"/>
@@ -5413,7 +5824,7 @@
       <c r="G556" s="13"/>
       <c r="H556" s="13"/>
     </row>
-    <row r="557">
+    <row r="557" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B557" s="18"/>
       <c r="C557" s="13"/>
       <c r="D557" s="13"/>
@@ -5422,7 +5833,7 @@
       <c r="G557" s="13"/>
       <c r="H557" s="13"/>
     </row>
-    <row r="558">
+    <row r="558" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B558" s="18"/>
       <c r="C558" s="13"/>
       <c r="D558" s="13"/>
@@ -5431,7 +5842,7 @@
       <c r="G558" s="13"/>
       <c r="H558" s="13"/>
     </row>
-    <row r="559">
+    <row r="559" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B559" s="18"/>
       <c r="C559" s="13"/>
       <c r="D559" s="13"/>
@@ -5440,7 +5851,7 @@
       <c r="G559" s="13"/>
       <c r="H559" s="13"/>
     </row>
-    <row r="560">
+    <row r="560" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B560" s="18"/>
       <c r="C560" s="13"/>
       <c r="D560" s="13"/>
@@ -5449,7 +5860,7 @@
       <c r="G560" s="13"/>
       <c r="H560" s="13"/>
     </row>
-    <row r="561">
+    <row r="561" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B561" s="18"/>
       <c r="C561" s="13"/>
       <c r="D561" s="13"/>
@@ -5458,7 +5869,7 @@
       <c r="G561" s="13"/>
       <c r="H561" s="13"/>
     </row>
-    <row r="562">
+    <row r="562" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B562" s="18"/>
       <c r="C562" s="13"/>
       <c r="D562" s="13"/>
@@ -5467,7 +5878,7 @@
       <c r="G562" s="13"/>
       <c r="H562" s="13"/>
     </row>
-    <row r="563">
+    <row r="563" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B563" s="18"/>
       <c r="C563" s="13"/>
       <c r="D563" s="13"/>
@@ -5476,7 +5887,7 @@
       <c r="G563" s="13"/>
       <c r="H563" s="13"/>
     </row>
-    <row r="564">
+    <row r="564" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B564" s="18"/>
       <c r="C564" s="13"/>
       <c r="D564" s="13"/>
@@ -5485,7 +5896,7 @@
       <c r="G564" s="13"/>
       <c r="H564" s="13"/>
     </row>
-    <row r="565">
+    <row r="565" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B565" s="18"/>
       <c r="C565" s="13"/>
       <c r="D565" s="13"/>
@@ -5494,7 +5905,7 @@
       <c r="G565" s="13"/>
       <c r="H565" s="13"/>
     </row>
-    <row r="566">
+    <row r="566" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B566" s="18"/>
       <c r="C566" s="13"/>
       <c r="D566" s="13"/>
@@ -5503,7 +5914,7 @@
       <c r="G566" s="13"/>
       <c r="H566" s="13"/>
     </row>
-    <row r="567">
+    <row r="567" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B567" s="18"/>
       <c r="C567" s="13"/>
       <c r="D567" s="13"/>
@@ -5512,7 +5923,7 @@
       <c r="G567" s="13"/>
       <c r="H567" s="13"/>
     </row>
-    <row r="568">
+    <row r="568" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B568" s="18"/>
       <c r="C568" s="13"/>
       <c r="D568" s="13"/>
@@ -5521,7 +5932,7 @@
       <c r="G568" s="13"/>
       <c r="H568" s="13"/>
     </row>
-    <row r="569">
+    <row r="569" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B569" s="18"/>
       <c r="C569" s="13"/>
       <c r="D569" s="13"/>
@@ -5530,7 +5941,7 @@
       <c r="G569" s="13"/>
       <c r="H569" s="13"/>
     </row>
-    <row r="570">
+    <row r="570" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B570" s="18"/>
       <c r="C570" s="13"/>
       <c r="D570" s="13"/>
@@ -5539,7 +5950,7 @@
       <c r="G570" s="13"/>
       <c r="H570" s="13"/>
     </row>
-    <row r="571">
+    <row r="571" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B571" s="18"/>
       <c r="C571" s="13"/>
       <c r="D571" s="13"/>
@@ -5548,7 +5959,7 @@
       <c r="G571" s="13"/>
       <c r="H571" s="13"/>
     </row>
-    <row r="572">
+    <row r="572" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B572" s="18"/>
       <c r="C572" s="13"/>
       <c r="D572" s="13"/>
@@ -5557,7 +5968,7 @@
       <c r="G572" s="13"/>
       <c r="H572" s="13"/>
     </row>
-    <row r="573">
+    <row r="573" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B573" s="18"/>
       <c r="C573" s="13"/>
       <c r="D573" s="13"/>
@@ -5566,7 +5977,7 @@
       <c r="G573" s="13"/>
       <c r="H573" s="13"/>
     </row>
-    <row r="574">
+    <row r="574" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B574" s="18"/>
       <c r="C574" s="13"/>
       <c r="D574" s="13"/>
@@ -5575,7 +5986,7 @@
       <c r="G574" s="13"/>
       <c r="H574" s="13"/>
     </row>
-    <row r="575">
+    <row r="575" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B575" s="18"/>
       <c r="C575" s="13"/>
       <c r="D575" s="13"/>
@@ -5584,7 +5995,7 @@
       <c r="G575" s="13"/>
       <c r="H575" s="13"/>
     </row>
-    <row r="576">
+    <row r="576" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B576" s="18"/>
       <c r="C576" s="13"/>
       <c r="D576" s="13"/>
@@ -5593,7 +6004,7 @@
       <c r="G576" s="13"/>
       <c r="H576" s="13"/>
     </row>
-    <row r="577">
+    <row r="577" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B577" s="18"/>
       <c r="C577" s="13"/>
       <c r="D577" s="13"/>
@@ -5602,7 +6013,7 @@
       <c r="G577" s="13"/>
       <c r="H577" s="13"/>
     </row>
-    <row r="578">
+    <row r="578" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B578" s="18"/>
       <c r="C578" s="13"/>
       <c r="D578" s="13"/>
@@ -5611,7 +6022,7 @@
       <c r="G578" s="13"/>
       <c r="H578" s="13"/>
     </row>
-    <row r="579">
+    <row r="579" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B579" s="18"/>
       <c r="C579" s="13"/>
       <c r="D579" s="13"/>
@@ -5620,7 +6031,7 @@
       <c r="G579" s="13"/>
       <c r="H579" s="13"/>
     </row>
-    <row r="580">
+    <row r="580" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B580" s="18"/>
       <c r="C580" s="13"/>
       <c r="D580" s="13"/>
@@ -5629,7 +6040,7 @@
       <c r="G580" s="13"/>
       <c r="H580" s="13"/>
     </row>
-    <row r="581">
+    <row r="581" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B581" s="18"/>
       <c r="C581" s="13"/>
       <c r="D581" s="13"/>
@@ -5638,7 +6049,7 @@
       <c r="G581" s="13"/>
       <c r="H581" s="13"/>
     </row>
-    <row r="582">
+    <row r="582" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B582" s="18"/>
       <c r="C582" s="13"/>
       <c r="D582" s="13"/>
@@ -5647,7 +6058,7 @@
       <c r="G582" s="13"/>
       <c r="H582" s="13"/>
     </row>
-    <row r="583">
+    <row r="583" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B583" s="18"/>
       <c r="C583" s="13"/>
       <c r="D583" s="13"/>
@@ -5656,7 +6067,7 @@
       <c r="G583" s="13"/>
       <c r="H583" s="13"/>
     </row>
-    <row r="584">
+    <row r="584" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B584" s="18"/>
       <c r="C584" s="13"/>
       <c r="D584" s="13"/>
@@ -5665,7 +6076,7 @@
       <c r="G584" s="13"/>
       <c r="H584" s="13"/>
     </row>
-    <row r="585">
+    <row r="585" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B585" s="18"/>
       <c r="C585" s="13"/>
       <c r="D585" s="13"/>
@@ -5674,7 +6085,7 @@
       <c r="G585" s="13"/>
       <c r="H585" s="13"/>
     </row>
-    <row r="586">
+    <row r="586" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B586" s="18"/>
       <c r="C586" s="13"/>
       <c r="D586" s="13"/>
@@ -5683,7 +6094,7 @@
       <c r="G586" s="13"/>
       <c r="H586" s="13"/>
     </row>
-    <row r="587">
+    <row r="587" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B587" s="18"/>
       <c r="C587" s="13"/>
       <c r="D587" s="13"/>
@@ -5692,7 +6103,7 @@
       <c r="G587" s="13"/>
       <c r="H587" s="13"/>
     </row>
-    <row r="588">
+    <row r="588" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B588" s="18"/>
       <c r="C588" s="13"/>
       <c r="D588" s="13"/>
@@ -5701,7 +6112,7 @@
       <c r="G588" s="13"/>
       <c r="H588" s="13"/>
     </row>
-    <row r="589">
+    <row r="589" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B589" s="18"/>
       <c r="C589" s="13"/>
       <c r="D589" s="13"/>
@@ -5710,7 +6121,7 @@
       <c r="G589" s="13"/>
       <c r="H589" s="13"/>
     </row>
-    <row r="590">
+    <row r="590" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B590" s="18"/>
       <c r="C590" s="13"/>
       <c r="D590" s="13"/>
@@ -5719,7 +6130,7 @@
       <c r="G590" s="13"/>
       <c r="H590" s="13"/>
     </row>
-    <row r="591">
+    <row r="591" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B591" s="18"/>
       <c r="C591" s="13"/>
       <c r="D591" s="13"/>
@@ -5728,7 +6139,7 @@
       <c r="G591" s="13"/>
       <c r="H591" s="13"/>
     </row>
-    <row r="592">
+    <row r="592" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B592" s="18"/>
       <c r="C592" s="13"/>
       <c r="D592" s="13"/>
@@ -5737,7 +6148,7 @@
       <c r="G592" s="13"/>
       <c r="H592" s="13"/>
     </row>
-    <row r="593">
+    <row r="593" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B593" s="18"/>
       <c r="C593" s="13"/>
       <c r="D593" s="13"/>
@@ -5746,7 +6157,7 @@
       <c r="G593" s="13"/>
       <c r="H593" s="13"/>
     </row>
-    <row r="594">
+    <row r="594" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B594" s="18"/>
       <c r="C594" s="13"/>
       <c r="D594" s="13"/>
@@ -5755,7 +6166,7 @@
       <c r="G594" s="13"/>
       <c r="H594" s="13"/>
     </row>
-    <row r="595">
+    <row r="595" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B595" s="18"/>
       <c r="C595" s="13"/>
       <c r="D595" s="13"/>
@@ -5764,7 +6175,7 @@
       <c r="G595" s="13"/>
       <c r="H595" s="13"/>
     </row>
-    <row r="596">
+    <row r="596" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B596" s="18"/>
       <c r="C596" s="13"/>
       <c r="D596" s="13"/>
@@ -5773,7 +6184,7 @@
       <c r="G596" s="13"/>
       <c r="H596" s="13"/>
     </row>
-    <row r="597">
+    <row r="597" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B597" s="18"/>
       <c r="C597" s="13"/>
       <c r="D597" s="13"/>
@@ -5782,7 +6193,7 @@
       <c r="G597" s="13"/>
       <c r="H597" s="13"/>
     </row>
-    <row r="598">
+    <row r="598" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B598" s="18"/>
       <c r="C598" s="13"/>
       <c r="D598" s="13"/>
@@ -5791,7 +6202,7 @@
       <c r="G598" s="13"/>
       <c r="H598" s="13"/>
     </row>
-    <row r="599">
+    <row r="599" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B599" s="18"/>
       <c r="C599" s="13"/>
       <c r="D599" s="13"/>
@@ -5800,7 +6211,7 @@
       <c r="G599" s="13"/>
       <c r="H599" s="13"/>
     </row>
-    <row r="600">
+    <row r="600" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B600" s="18"/>
       <c r="C600" s="13"/>
       <c r="D600" s="13"/>
@@ -5809,7 +6220,7 @@
       <c r="G600" s="13"/>
       <c r="H600" s="13"/>
     </row>
-    <row r="601">
+    <row r="601" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B601" s="18"/>
       <c r="C601" s="13"/>
       <c r="D601" s="13"/>
@@ -5818,7 +6229,7 @@
       <c r="G601" s="13"/>
       <c r="H601" s="13"/>
     </row>
-    <row r="602">
+    <row r="602" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B602" s="18"/>
       <c r="C602" s="13"/>
       <c r="D602" s="13"/>
@@ -5827,7 +6238,7 @@
       <c r="G602" s="13"/>
       <c r="H602" s="13"/>
     </row>
-    <row r="603">
+    <row r="603" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B603" s="18"/>
       <c r="C603" s="13"/>
       <c r="D603" s="13"/>
@@ -5836,7 +6247,7 @@
       <c r="G603" s="13"/>
       <c r="H603" s="13"/>
     </row>
-    <row r="604">
+    <row r="604" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B604" s="18"/>
       <c r="C604" s="13"/>
       <c r="D604" s="13"/>
@@ -5845,7 +6256,7 @@
       <c r="G604" s="13"/>
       <c r="H604" s="13"/>
     </row>
-    <row r="605">
+    <row r="605" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B605" s="18"/>
       <c r="C605" s="13"/>
       <c r="D605" s="13"/>
@@ -5854,7 +6265,7 @@
       <c r="G605" s="13"/>
       <c r="H605" s="13"/>
     </row>
-    <row r="606">
+    <row r="606" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B606" s="18"/>
       <c r="C606" s="13"/>
       <c r="D606" s="13"/>
@@ -5863,7 +6274,7 @@
       <c r="G606" s="13"/>
       <c r="H606" s="13"/>
     </row>
-    <row r="607">
+    <row r="607" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B607" s="18"/>
       <c r="C607" s="13"/>
       <c r="D607" s="13"/>
@@ -5872,7 +6283,7 @@
       <c r="G607" s="13"/>
       <c r="H607" s="13"/>
     </row>
-    <row r="608">
+    <row r="608" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B608" s="18"/>
       <c r="C608" s="13"/>
       <c r="D608" s="13"/>
@@ -5881,7 +6292,7 @@
       <c r="G608" s="13"/>
       <c r="H608" s="13"/>
     </row>
-    <row r="609">
+    <row r="609" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B609" s="18"/>
       <c r="C609" s="13"/>
       <c r="D609" s="13"/>
@@ -5890,7 +6301,7 @@
       <c r="G609" s="13"/>
       <c r="H609" s="13"/>
     </row>
-    <row r="610">
+    <row r="610" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B610" s="18"/>
       <c r="C610" s="13"/>
       <c r="D610" s="13"/>
@@ -5899,7 +6310,7 @@
       <c r="G610" s="13"/>
       <c r="H610" s="13"/>
     </row>
-    <row r="611">
+    <row r="611" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B611" s="18"/>
       <c r="C611" s="13"/>
       <c r="D611" s="13"/>
@@ -5908,7 +6319,7 @@
       <c r="G611" s="13"/>
       <c r="H611" s="13"/>
     </row>
-    <row r="612">
+    <row r="612" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B612" s="18"/>
       <c r="C612" s="13"/>
       <c r="D612" s="13"/>
@@ -5917,7 +6328,7 @@
       <c r="G612" s="13"/>
       <c r="H612" s="13"/>
     </row>
-    <row r="613">
+    <row r="613" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B613" s="18"/>
       <c r="C613" s="13"/>
       <c r="D613" s="13"/>
@@ -5926,7 +6337,7 @@
       <c r="G613" s="13"/>
       <c r="H613" s="13"/>
     </row>
-    <row r="614">
+    <row r="614" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B614" s="18"/>
       <c r="C614" s="13"/>
       <c r="D614" s="13"/>
@@ -5935,7 +6346,7 @@
       <c r="G614" s="13"/>
       <c r="H614" s="13"/>
     </row>
-    <row r="615">
+    <row r="615" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B615" s="18"/>
       <c r="C615" s="13"/>
       <c r="D615" s="13"/>
@@ -5944,7 +6355,7 @@
       <c r="G615" s="13"/>
       <c r="H615" s="13"/>
     </row>
-    <row r="616">
+    <row r="616" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B616" s="18"/>
       <c r="C616" s="13"/>
       <c r="D616" s="13"/>
@@ -5953,7 +6364,7 @@
       <c r="G616" s="13"/>
       <c r="H616" s="13"/>
     </row>
-    <row r="617">
+    <row r="617" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B617" s="18"/>
       <c r="C617" s="13"/>
       <c r="D617" s="13"/>
@@ -5962,7 +6373,7 @@
       <c r="G617" s="13"/>
       <c r="H617" s="13"/>
     </row>
-    <row r="618">
+    <row r="618" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B618" s="18"/>
       <c r="C618" s="13"/>
       <c r="D618" s="13"/>
@@ -5971,7 +6382,7 @@
       <c r="G618" s="13"/>
       <c r="H618" s="13"/>
     </row>
-    <row r="619">
+    <row r="619" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B619" s="18"/>
       <c r="C619" s="13"/>
       <c r="D619" s="13"/>
@@ -5980,7 +6391,7 @@
       <c r="G619" s="13"/>
       <c r="H619" s="13"/>
     </row>
-    <row r="620">
+    <row r="620" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B620" s="18"/>
       <c r="C620" s="13"/>
       <c r="D620" s="13"/>
@@ -5989,7 +6400,7 @@
       <c r="G620" s="13"/>
       <c r="H620" s="13"/>
     </row>
-    <row r="621">
+    <row r="621" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B621" s="18"/>
       <c r="C621" s="13"/>
       <c r="D621" s="13"/>
@@ -5998,7 +6409,7 @@
       <c r="G621" s="13"/>
       <c r="H621" s="13"/>
     </row>
-    <row r="622">
+    <row r="622" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B622" s="18"/>
       <c r="C622" s="13"/>
       <c r="D622" s="13"/>
@@ -6007,7 +6418,7 @@
       <c r="G622" s="13"/>
       <c r="H622" s="13"/>
     </row>
-    <row r="623">
+    <row r="623" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B623" s="18"/>
       <c r="C623" s="13"/>
       <c r="D623" s="13"/>
@@ -6016,7 +6427,7 @@
       <c r="G623" s="13"/>
       <c r="H623" s="13"/>
     </row>
-    <row r="624">
+    <row r="624" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B624" s="18"/>
       <c r="C624" s="13"/>
       <c r="D624" s="13"/>
@@ -6025,7 +6436,7 @@
       <c r="G624" s="13"/>
       <c r="H624" s="13"/>
     </row>
-    <row r="625">
+    <row r="625" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B625" s="18"/>
       <c r="C625" s="13"/>
       <c r="D625" s="13"/>
@@ -6034,7 +6445,7 @@
       <c r="G625" s="13"/>
       <c r="H625" s="13"/>
     </row>
-    <row r="626">
+    <row r="626" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B626" s="18"/>
       <c r="C626" s="13"/>
       <c r="D626" s="13"/>
@@ -6043,7 +6454,7 @@
       <c r="G626" s="13"/>
       <c r="H626" s="13"/>
     </row>
-    <row r="627">
+    <row r="627" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B627" s="18"/>
       <c r="C627" s="13"/>
       <c r="D627" s="13"/>
@@ -6052,7 +6463,7 @@
       <c r="G627" s="13"/>
       <c r="H627" s="13"/>
     </row>
-    <row r="628">
+    <row r="628" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B628" s="18"/>
       <c r="C628" s="13"/>
       <c r="D628" s="13"/>
@@ -6061,7 +6472,7 @@
       <c r="G628" s="13"/>
       <c r="H628" s="13"/>
     </row>
-    <row r="629">
+    <row r="629" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B629" s="18"/>
       <c r="C629" s="13"/>
       <c r="D629" s="13"/>
@@ -6070,7 +6481,7 @@
       <c r="G629" s="13"/>
       <c r="H629" s="13"/>
     </row>
-    <row r="630">
+    <row r="630" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B630" s="18"/>
       <c r="C630" s="13"/>
       <c r="D630" s="13"/>
@@ -6079,7 +6490,7 @@
       <c r="G630" s="13"/>
       <c r="H630" s="13"/>
     </row>
-    <row r="631">
+    <row r="631" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B631" s="18"/>
       <c r="C631" s="13"/>
       <c r="D631" s="13"/>
@@ -6088,7 +6499,7 @@
       <c r="G631" s="13"/>
       <c r="H631" s="13"/>
     </row>
-    <row r="632">
+    <row r="632" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B632" s="18"/>
       <c r="C632" s="13"/>
       <c r="D632" s="13"/>
@@ -6097,7 +6508,7 @@
       <c r="G632" s="13"/>
       <c r="H632" s="13"/>
     </row>
-    <row r="633">
+    <row r="633" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B633" s="18"/>
       <c r="C633" s="13"/>
       <c r="D633" s="13"/>
@@ -6106,7 +6517,7 @@
       <c r="G633" s="13"/>
       <c r="H633" s="13"/>
     </row>
-    <row r="634">
+    <row r="634" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B634" s="18"/>
       <c r="C634" s="13"/>
       <c r="D634" s="13"/>
@@ -6115,7 +6526,7 @@
       <c r="G634" s="13"/>
       <c r="H634" s="13"/>
     </row>
-    <row r="635">
+    <row r="635" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B635" s="18"/>
       <c r="C635" s="13"/>
       <c r="D635" s="13"/>
@@ -6124,7 +6535,7 @@
       <c r="G635" s="13"/>
       <c r="H635" s="13"/>
     </row>
-    <row r="636">
+    <row r="636" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B636" s="18"/>
       <c r="C636" s="13"/>
       <c r="D636" s="13"/>
@@ -6133,7 +6544,7 @@
       <c r="G636" s="13"/>
       <c r="H636" s="13"/>
     </row>
-    <row r="637">
+    <row r="637" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B637" s="18"/>
       <c r="C637" s="13"/>
       <c r="D637" s="13"/>
@@ -6142,7 +6553,7 @@
       <c r="G637" s="13"/>
       <c r="H637" s="13"/>
     </row>
-    <row r="638">
+    <row r="638" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B638" s="18"/>
       <c r="C638" s="13"/>
       <c r="D638" s="13"/>
@@ -6151,7 +6562,7 @@
       <c r="G638" s="13"/>
       <c r="H638" s="13"/>
     </row>
-    <row r="639">
+    <row r="639" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B639" s="18"/>
       <c r="C639" s="13"/>
       <c r="D639" s="13"/>
@@ -6160,7 +6571,7 @@
       <c r="G639" s="13"/>
       <c r="H639" s="13"/>
     </row>
-    <row r="640">
+    <row r="640" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B640" s="18"/>
       <c r="C640" s="13"/>
       <c r="D640" s="13"/>
@@ -6169,7 +6580,7 @@
       <c r="G640" s="13"/>
       <c r="H640" s="13"/>
     </row>
-    <row r="641">
+    <row r="641" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B641" s="18"/>
       <c r="C641" s="13"/>
       <c r="D641" s="13"/>
@@ -6178,7 +6589,7 @@
       <c r="G641" s="13"/>
       <c r="H641" s="13"/>
     </row>
-    <row r="642">
+    <row r="642" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B642" s="18"/>
       <c r="C642" s="13"/>
       <c r="D642" s="13"/>
@@ -6187,7 +6598,7 @@
       <c r="G642" s="13"/>
       <c r="H642" s="13"/>
     </row>
-    <row r="643">
+    <row r="643" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B643" s="18"/>
       <c r="C643" s="13"/>
       <c r="D643" s="13"/>
@@ -6196,7 +6607,7 @@
       <c r="G643" s="13"/>
       <c r="H643" s="13"/>
     </row>
-    <row r="644">
+    <row r="644" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B644" s="18"/>
       <c r="C644" s="13"/>
       <c r="D644" s="13"/>
@@ -6205,7 +6616,7 @@
       <c r="G644" s="13"/>
       <c r="H644" s="13"/>
     </row>
-    <row r="645">
+    <row r="645" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B645" s="18"/>
       <c r="C645" s="13"/>
       <c r="D645" s="13"/>
@@ -6214,7 +6625,7 @@
       <c r="G645" s="13"/>
       <c r="H645" s="13"/>
     </row>
-    <row r="646">
+    <row r="646" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B646" s="18"/>
       <c r="C646" s="13"/>
       <c r="D646" s="13"/>
@@ -6223,7 +6634,7 @@
       <c r="G646" s="13"/>
       <c r="H646" s="13"/>
     </row>
-    <row r="647">
+    <row r="647" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B647" s="18"/>
       <c r="C647" s="13"/>
       <c r="D647" s="13"/>
@@ -6232,7 +6643,7 @@
       <c r="G647" s="13"/>
       <c r="H647" s="13"/>
     </row>
-    <row r="648">
+    <row r="648" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B648" s="18"/>
       <c r="C648" s="13"/>
       <c r="D648" s="13"/>
@@ -6241,7 +6652,7 @@
       <c r="G648" s="13"/>
       <c r="H648" s="13"/>
     </row>
-    <row r="649">
+    <row r="649" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B649" s="18"/>
       <c r="C649" s="13"/>
       <c r="D649" s="13"/>
@@ -6250,7 +6661,7 @@
       <c r="G649" s="13"/>
       <c r="H649" s="13"/>
     </row>
-    <row r="650">
+    <row r="650" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B650" s="18"/>
       <c r="C650" s="13"/>
       <c r="D650" s="13"/>
@@ -6259,7 +6670,7 @@
       <c r="G650" s="13"/>
       <c r="H650" s="13"/>
     </row>
-    <row r="651">
+    <row r="651" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B651" s="18"/>
       <c r="C651" s="13"/>
       <c r="D651" s="13"/>
@@ -6268,7 +6679,7 @@
       <c r="G651" s="13"/>
       <c r="H651" s="13"/>
     </row>
-    <row r="652">
+    <row r="652" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B652" s="18"/>
       <c r="C652" s="13"/>
       <c r="D652" s="13"/>
@@ -6277,7 +6688,7 @@
       <c r="G652" s="13"/>
       <c r="H652" s="13"/>
     </row>
-    <row r="653">
+    <row r="653" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B653" s="18"/>
       <c r="C653" s="13"/>
       <c r="D653" s="13"/>
@@ -6286,7 +6697,7 @@
       <c r="G653" s="13"/>
       <c r="H653" s="13"/>
     </row>
-    <row r="654">
+    <row r="654" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B654" s="18"/>
       <c r="C654" s="13"/>
       <c r="D654" s="13"/>
@@ -6295,7 +6706,7 @@
       <c r="G654" s="13"/>
       <c r="H654" s="13"/>
     </row>
-    <row r="655">
+    <row r="655" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B655" s="18"/>
       <c r="C655" s="13"/>
       <c r="D655" s="13"/>
@@ -6304,7 +6715,7 @@
       <c r="G655" s="13"/>
       <c r="H655" s="13"/>
     </row>
-    <row r="656">
+    <row r="656" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B656" s="18"/>
       <c r="C656" s="13"/>
       <c r="D656" s="13"/>
@@ -6313,7 +6724,7 @@
       <c r="G656" s="13"/>
       <c r="H656" s="13"/>
     </row>
-    <row r="657">
+    <row r="657" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B657" s="18"/>
       <c r="C657" s="13"/>
       <c r="D657" s="13"/>
@@ -6322,7 +6733,7 @@
       <c r="G657" s="13"/>
       <c r="H657" s="13"/>
     </row>
-    <row r="658">
+    <row r="658" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B658" s="18"/>
       <c r="C658" s="13"/>
       <c r="D658" s="13"/>
@@ -6331,7 +6742,7 @@
       <c r="G658" s="13"/>
       <c r="H658" s="13"/>
     </row>
-    <row r="659">
+    <row r="659" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B659" s="18"/>
       <c r="C659" s="13"/>
       <c r="D659" s="13"/>
@@ -6340,7 +6751,7 @@
       <c r="G659" s="13"/>
       <c r="H659" s="13"/>
     </row>
-    <row r="660">
+    <row r="660" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B660" s="18"/>
       <c r="C660" s="13"/>
       <c r="D660" s="13"/>
@@ -6349,7 +6760,7 @@
       <c r="G660" s="13"/>
       <c r="H660" s="13"/>
     </row>
-    <row r="661">
+    <row r="661" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B661" s="18"/>
       <c r="C661" s="13"/>
       <c r="D661" s="13"/>
@@ -6358,7 +6769,7 @@
       <c r="G661" s="13"/>
       <c r="H661" s="13"/>
     </row>
-    <row r="662">
+    <row r="662" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B662" s="18"/>
       <c r="C662" s="13"/>
       <c r="D662" s="13"/>
@@ -6367,7 +6778,7 @@
       <c r="G662" s="13"/>
       <c r="H662" s="13"/>
     </row>
-    <row r="663">
+    <row r="663" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B663" s="18"/>
       <c r="C663" s="13"/>
       <c r="D663" s="13"/>
@@ -6376,7 +6787,7 @@
       <c r="G663" s="13"/>
       <c r="H663" s="13"/>
     </row>
-    <row r="664">
+    <row r="664" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B664" s="18"/>
       <c r="C664" s="13"/>
       <c r="D664" s="13"/>
@@ -6385,7 +6796,7 @@
       <c r="G664" s="13"/>
       <c r="H664" s="13"/>
     </row>
-    <row r="665">
+    <row r="665" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B665" s="18"/>
       <c r="C665" s="13"/>
       <c r="D665" s="13"/>
@@ -6394,7 +6805,7 @@
       <c r="G665" s="13"/>
       <c r="H665" s="13"/>
     </row>
-    <row r="666">
+    <row r="666" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B666" s="18"/>
       <c r="C666" s="13"/>
       <c r="D666" s="13"/>
@@ -6403,7 +6814,7 @@
       <c r="G666" s="13"/>
       <c r="H666" s="13"/>
     </row>
-    <row r="667">
+    <row r="667" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B667" s="18"/>
       <c r="C667" s="13"/>
       <c r="D667" s="13"/>
@@ -6412,7 +6823,7 @@
       <c r="G667" s="13"/>
       <c r="H667" s="13"/>
     </row>
-    <row r="668">
+    <row r="668" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B668" s="18"/>
       <c r="C668" s="13"/>
       <c r="D668" s="13"/>
@@ -6421,7 +6832,7 @@
       <c r="G668" s="13"/>
       <c r="H668" s="13"/>
     </row>
-    <row r="669">
+    <row r="669" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B669" s="18"/>
       <c r="C669" s="13"/>
       <c r="D669" s="13"/>
@@ -6430,7 +6841,7 @@
       <c r="G669" s="13"/>
       <c r="H669" s="13"/>
     </row>
-    <row r="670">
+    <row r="670" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B670" s="18"/>
       <c r="C670" s="13"/>
       <c r="D670" s="13"/>
@@ -6439,7 +6850,7 @@
       <c r="G670" s="13"/>
       <c r="H670" s="13"/>
     </row>
-    <row r="671">
+    <row r="671" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B671" s="18"/>
       <c r="C671" s="13"/>
       <c r="D671" s="13"/>
@@ -6448,7 +6859,7 @@
       <c r="G671" s="13"/>
       <c r="H671" s="13"/>
     </row>
-    <row r="672">
+    <row r="672" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B672" s="18"/>
       <c r="C672" s="13"/>
       <c r="D672" s="13"/>
@@ -6457,7 +6868,7 @@
       <c r="G672" s="13"/>
       <c r="H672" s="13"/>
     </row>
-    <row r="673">
+    <row r="673" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B673" s="18"/>
       <c r="C673" s="13"/>
       <c r="D673" s="13"/>
@@ -6466,7 +6877,7 @@
       <c r="G673" s="13"/>
       <c r="H673" s="13"/>
     </row>
-    <row r="674">
+    <row r="674" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B674" s="18"/>
       <c r="C674" s="13"/>
       <c r="D674" s="13"/>
@@ -6475,7 +6886,7 @@
       <c r="G674" s="13"/>
       <c r="H674" s="13"/>
     </row>
-    <row r="675">
+    <row r="675" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B675" s="18"/>
       <c r="C675" s="13"/>
       <c r="D675" s="13"/>
@@ -6484,7 +6895,7 @@
       <c r="G675" s="13"/>
       <c r="H675" s="13"/>
     </row>
-    <row r="676">
+    <row r="676" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B676" s="18"/>
       <c r="C676" s="13"/>
       <c r="D676" s="13"/>
@@ -6493,7 +6904,7 @@
       <c r="G676" s="13"/>
       <c r="H676" s="13"/>
     </row>
-    <row r="677">
+    <row r="677" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B677" s="18"/>
       <c r="C677" s="13"/>
       <c r="D677" s="13"/>
@@ -6502,7 +6913,7 @@
       <c r="G677" s="13"/>
       <c r="H677" s="13"/>
     </row>
-    <row r="678">
+    <row r="678" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B678" s="18"/>
       <c r="C678" s="13"/>
       <c r="D678" s="13"/>
@@ -6511,7 +6922,7 @@
       <c r="G678" s="13"/>
       <c r="H678" s="13"/>
     </row>
-    <row r="679">
+    <row r="679" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B679" s="18"/>
       <c r="C679" s="13"/>
       <c r="D679" s="13"/>
@@ -6520,7 +6931,7 @@
       <c r="G679" s="13"/>
       <c r="H679" s="13"/>
     </row>
-    <row r="680">
+    <row r="680" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B680" s="18"/>
       <c r="C680" s="13"/>
       <c r="D680" s="13"/>
@@ -6529,7 +6940,7 @@
       <c r="G680" s="13"/>
       <c r="H680" s="13"/>
     </row>
-    <row r="681">
+    <row r="681" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B681" s="18"/>
       <c r="C681" s="13"/>
       <c r="D681" s="13"/>
@@ -6538,7 +6949,7 @@
       <c r="G681" s="13"/>
       <c r="H681" s="13"/>
     </row>
-    <row r="682">
+    <row r="682" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B682" s="18"/>
       <c r="C682" s="13"/>
       <c r="D682" s="13"/>
@@ -6547,7 +6958,7 @@
       <c r="G682" s="13"/>
       <c r="H682" s="13"/>
     </row>
-    <row r="683">
+    <row r="683" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B683" s="18"/>
       <c r="C683" s="13"/>
       <c r="D683" s="13"/>
@@ -6556,7 +6967,7 @@
       <c r="G683" s="13"/>
       <c r="H683" s="13"/>
     </row>
-    <row r="684">
+    <row r="684" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B684" s="18"/>
       <c r="C684" s="13"/>
       <c r="D684" s="13"/>
@@ -6565,7 +6976,7 @@
       <c r="G684" s="13"/>
       <c r="H684" s="13"/>
     </row>
-    <row r="685">
+    <row r="685" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B685" s="18"/>
       <c r="C685" s="13"/>
       <c r="D685" s="13"/>
@@ -6574,7 +6985,7 @@
       <c r="G685" s="13"/>
       <c r="H685" s="13"/>
     </row>
-    <row r="686">
+    <row r="686" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B686" s="18"/>
       <c r="C686" s="13"/>
       <c r="D686" s="13"/>
@@ -6583,7 +6994,7 @@
       <c r="G686" s="13"/>
       <c r="H686" s="13"/>
     </row>
-    <row r="687">
+    <row r="687" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B687" s="18"/>
       <c r="C687" s="13"/>
       <c r="D687" s="13"/>
@@ -6592,7 +7003,7 @@
       <c r="G687" s="13"/>
       <c r="H687" s="13"/>
     </row>
-    <row r="688">
+    <row r="688" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B688" s="18"/>
       <c r="C688" s="13"/>
       <c r="D688" s="13"/>
@@ -6601,7 +7012,7 @@
       <c r="G688" s="13"/>
       <c r="H688" s="13"/>
     </row>
-    <row r="689">
+    <row r="689" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B689" s="18"/>
       <c r="C689" s="13"/>
       <c r="D689" s="13"/>
@@ -6610,7 +7021,7 @@
       <c r="G689" s="13"/>
       <c r="H689" s="13"/>
     </row>
-    <row r="690">
+    <row r="690" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B690" s="18"/>
       <c r="C690" s="13"/>
       <c r="D690" s="13"/>
@@ -6619,7 +7030,7 @@
       <c r="G690" s="13"/>
       <c r="H690" s="13"/>
     </row>
-    <row r="691">
+    <row r="691" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B691" s="18"/>
       <c r="C691" s="13"/>
       <c r="D691" s="13"/>
@@ -6628,7 +7039,7 @@
       <c r="G691" s="13"/>
       <c r="H691" s="13"/>
     </row>
-    <row r="692">
+    <row r="692" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B692" s="18"/>
       <c r="C692" s="13"/>
       <c r="D692" s="13"/>
@@ -6637,7 +7048,7 @@
       <c r="G692" s="13"/>
       <c r="H692" s="13"/>
     </row>
-    <row r="693">
+    <row r="693" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B693" s="18"/>
       <c r="C693" s="13"/>
       <c r="D693" s="13"/>
@@ -6646,7 +7057,7 @@
       <c r="G693" s="13"/>
       <c r="H693" s="13"/>
     </row>
-    <row r="694">
+    <row r="694" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B694" s="18"/>
       <c r="C694" s="13"/>
       <c r="D694" s="13"/>
@@ -6655,7 +7066,7 @@
       <c r="G694" s="13"/>
       <c r="H694" s="13"/>
     </row>
-    <row r="695">
+    <row r="695" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B695" s="18"/>
       <c r="C695" s="13"/>
       <c r="D695" s="13"/>
@@ -6664,7 +7075,7 @@
       <c r="G695" s="13"/>
       <c r="H695" s="13"/>
     </row>
-    <row r="696">
+    <row r="696" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B696" s="18"/>
       <c r="C696" s="13"/>
       <c r="D696" s="13"/>
@@ -6673,7 +7084,7 @@
       <c r="G696" s="13"/>
       <c r="H696" s="13"/>
     </row>
-    <row r="697">
+    <row r="697" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B697" s="18"/>
       <c r="C697" s="13"/>
       <c r="D697" s="13"/>
@@ -6682,7 +7093,7 @@
       <c r="G697" s="13"/>
       <c r="H697" s="13"/>
     </row>
-    <row r="698">
+    <row r="698" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B698" s="18"/>
       <c r="C698" s="13"/>
       <c r="D698" s="13"/>
@@ -6691,7 +7102,7 @@
       <c r="G698" s="13"/>
       <c r="H698" s="13"/>
     </row>
-    <row r="699">
+    <row r="699" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B699" s="18"/>
       <c r="C699" s="13"/>
       <c r="D699" s="13"/>
@@ -6700,7 +7111,7 @@
       <c r="G699" s="13"/>
       <c r="H699" s="13"/>
     </row>
-    <row r="700">
+    <row r="700" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B700" s="18"/>
       <c r="C700" s="13"/>
       <c r="D700" s="13"/>
@@ -6709,7 +7120,7 @@
       <c r="G700" s="13"/>
       <c r="H700" s="13"/>
     </row>
-    <row r="701">
+    <row r="701" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B701" s="18"/>
       <c r="C701" s="13"/>
       <c r="D701" s="13"/>
@@ -6718,7 +7129,7 @@
       <c r="G701" s="13"/>
       <c r="H701" s="13"/>
     </row>
-    <row r="702">
+    <row r="702" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B702" s="18"/>
       <c r="C702" s="13"/>
       <c r="D702" s="13"/>
@@ -6727,7 +7138,7 @@
       <c r="G702" s="13"/>
       <c r="H702" s="13"/>
     </row>
-    <row r="703">
+    <row r="703" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B703" s="18"/>
       <c r="C703" s="13"/>
       <c r="D703" s="13"/>
@@ -6736,7 +7147,7 @@
       <c r="G703" s="13"/>
       <c r="H703" s="13"/>
     </row>
-    <row r="704">
+    <row r="704" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B704" s="18"/>
       <c r="C704" s="13"/>
       <c r="D704" s="13"/>
@@ -6745,7 +7156,7 @@
       <c r="G704" s="13"/>
       <c r="H704" s="13"/>
     </row>
-    <row r="705">
+    <row r="705" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B705" s="18"/>
       <c r="C705" s="13"/>
       <c r="D705" s="13"/>
@@ -6754,7 +7165,7 @@
       <c r="G705" s="13"/>
       <c r="H705" s="13"/>
     </row>
-    <row r="706">
+    <row r="706" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B706" s="18"/>
       <c r="C706" s="13"/>
       <c r="D706" s="13"/>
@@ -6763,7 +7174,7 @@
       <c r="G706" s="13"/>
       <c r="H706" s="13"/>
     </row>
-    <row r="707">
+    <row r="707" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B707" s="18"/>
       <c r="C707" s="13"/>
       <c r="D707" s="13"/>
@@ -6772,7 +7183,7 @@
       <c r="G707" s="13"/>
       <c r="H707" s="13"/>
     </row>
-    <row r="708">
+    <row r="708" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B708" s="18"/>
       <c r="C708" s="13"/>
       <c r="D708" s="13"/>
@@ -6781,7 +7192,7 @@
       <c r="G708" s="13"/>
       <c r="H708" s="13"/>
     </row>
-    <row r="709">
+    <row r="709" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B709" s="18"/>
       <c r="C709" s="13"/>
       <c r="D709" s="13"/>
@@ -6790,7 +7201,7 @@
       <c r="G709" s="13"/>
       <c r="H709" s="13"/>
     </row>
-    <row r="710">
+    <row r="710" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B710" s="18"/>
       <c r="C710" s="13"/>
       <c r="D710" s="13"/>
@@ -6799,7 +7210,7 @@
       <c r="G710" s="13"/>
       <c r="H710" s="13"/>
     </row>
-    <row r="711">
+    <row r="711" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B711" s="18"/>
       <c r="C711" s="13"/>
       <c r="D711" s="13"/>
@@ -6808,7 +7219,7 @@
       <c r="G711" s="13"/>
       <c r="H711" s="13"/>
     </row>
-    <row r="712">
+    <row r="712" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B712" s="18"/>
       <c r="C712" s="13"/>
       <c r="D712" s="13"/>
@@ -6817,7 +7228,7 @@
       <c r="G712" s="13"/>
       <c r="H712" s="13"/>
     </row>
-    <row r="713">
+    <row r="713" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B713" s="18"/>
       <c r="C713" s="13"/>
       <c r="D713" s="13"/>
@@ -6826,7 +7237,7 @@
       <c r="G713" s="13"/>
       <c r="H713" s="13"/>
     </row>
-    <row r="714">
+    <row r="714" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B714" s="18"/>
       <c r="C714" s="13"/>
       <c r="D714" s="13"/>
@@ -6835,7 +7246,7 @@
       <c r="G714" s="13"/>
       <c r="H714" s="13"/>
     </row>
-    <row r="715">
+    <row r="715" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B715" s="18"/>
       <c r="C715" s="13"/>
       <c r="D715" s="13"/>
@@ -6844,7 +7255,7 @@
       <c r="G715" s="13"/>
       <c r="H715" s="13"/>
     </row>
-    <row r="716">
+    <row r="716" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B716" s="18"/>
       <c r="C716" s="13"/>
       <c r="D716" s="13"/>
@@ -6853,7 +7264,7 @@
       <c r="G716" s="13"/>
       <c r="H716" s="13"/>
     </row>
-    <row r="717">
+    <row r="717" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B717" s="18"/>
       <c r="C717" s="13"/>
       <c r="D717" s="13"/>
@@ -6862,7 +7273,7 @@
       <c r="G717" s="13"/>
       <c r="H717" s="13"/>
     </row>
-    <row r="718">
+    <row r="718" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B718" s="18"/>
       <c r="C718" s="13"/>
       <c r="D718" s="13"/>
@@ -6871,7 +7282,7 @@
       <c r="G718" s="13"/>
       <c r="H718" s="13"/>
     </row>
-    <row r="719">
+    <row r="719" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B719" s="18"/>
       <c r="C719" s="13"/>
       <c r="D719" s="13"/>
@@ -6880,7 +7291,7 @@
       <c r="G719" s="13"/>
       <c r="H719" s="13"/>
     </row>
-    <row r="720">
+    <row r="720" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B720" s="18"/>
       <c r="C720" s="13"/>
       <c r="D720" s="13"/>
@@ -6889,7 +7300,7 @@
       <c r="G720" s="13"/>
       <c r="H720" s="13"/>
     </row>
-    <row r="721">
+    <row r="721" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B721" s="18"/>
       <c r="C721" s="13"/>
       <c r="D721" s="13"/>
@@ -6898,7 +7309,7 @@
       <c r="G721" s="13"/>
       <c r="H721" s="13"/>
     </row>
-    <row r="722">
+    <row r="722" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B722" s="18"/>
       <c r="C722" s="13"/>
       <c r="D722" s="13"/>
@@ -6907,7 +7318,7 @@
       <c r="G722" s="13"/>
       <c r="H722" s="13"/>
     </row>
-    <row r="723">
+    <row r="723" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B723" s="18"/>
       <c r="C723" s="13"/>
       <c r="D723" s="13"/>
@@ -6916,7 +7327,7 @@
       <c r="G723" s="13"/>
       <c r="H723" s="13"/>
     </row>
-    <row r="724">
+    <row r="724" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B724" s="18"/>
       <c r="C724" s="13"/>
       <c r="D724" s="13"/>
@@ -6925,7 +7336,7 @@
       <c r="G724" s="13"/>
       <c r="H724" s="13"/>
     </row>
-    <row r="725">
+    <row r="725" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B725" s="18"/>
       <c r="C725" s="13"/>
       <c r="D725" s="13"/>
@@ -6934,7 +7345,7 @@
       <c r="G725" s="13"/>
       <c r="H725" s="13"/>
     </row>
-    <row r="726">
+    <row r="726" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B726" s="18"/>
       <c r="C726" s="13"/>
       <c r="D726" s="13"/>
@@ -6943,7 +7354,7 @@
       <c r="G726" s="13"/>
       <c r="H726" s="13"/>
     </row>
-    <row r="727">
+    <row r="727" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B727" s="18"/>
       <c r="C727" s="13"/>
       <c r="D727" s="13"/>
@@ -6952,7 +7363,7 @@
       <c r="G727" s="13"/>
       <c r="H727" s="13"/>
     </row>
-    <row r="728">
+    <row r="728" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B728" s="18"/>
       <c r="C728" s="13"/>
       <c r="D728" s="13"/>
@@ -6961,7 +7372,7 @@
       <c r="G728" s="13"/>
       <c r="H728" s="13"/>
     </row>
-    <row r="729">
+    <row r="729" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B729" s="18"/>
       <c r="C729" s="13"/>
       <c r="D729" s="13"/>
@@ -6970,7 +7381,7 @@
       <c r="G729" s="13"/>
       <c r="H729" s="13"/>
     </row>
-    <row r="730">
+    <row r="730" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B730" s="18"/>
       <c r="C730" s="13"/>
       <c r="D730" s="13"/>
@@ -6979,7 +7390,7 @@
       <c r="G730" s="13"/>
       <c r="H730" s="13"/>
     </row>
-    <row r="731">
+    <row r="731" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B731" s="18"/>
       <c r="C731" s="13"/>
       <c r="D731" s="13"/>
@@ -6988,7 +7399,7 @@
       <c r="G731" s="13"/>
       <c r="H731" s="13"/>
     </row>
-    <row r="732">
+    <row r="732" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B732" s="18"/>
       <c r="C732" s="13"/>
       <c r="D732" s="13"/>
@@ -6997,7 +7408,7 @@
       <c r="G732" s="13"/>
       <c r="H732" s="13"/>
     </row>
-    <row r="733">
+    <row r="733" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B733" s="18"/>
       <c r="C733" s="13"/>
       <c r="D733" s="13"/>
@@ -7006,7 +7417,7 @@
       <c r="G733" s="13"/>
       <c r="H733" s="13"/>
     </row>
-    <row r="734">
+    <row r="734" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B734" s="18"/>
       <c r="C734" s="13"/>
       <c r="D734" s="13"/>
@@ -7015,7 +7426,7 @@
       <c r="G734" s="13"/>
       <c r="H734" s="13"/>
     </row>
-    <row r="735">
+    <row r="735" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B735" s="18"/>
       <c r="C735" s="13"/>
       <c r="D735" s="13"/>
@@ -7024,7 +7435,7 @@
       <c r="G735" s="13"/>
       <c r="H735" s="13"/>
     </row>
-    <row r="736">
+    <row r="736" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B736" s="18"/>
       <c r="C736" s="13"/>
       <c r="D736" s="13"/>
@@ -7033,7 +7444,7 @@
       <c r="G736" s="13"/>
       <c r="H736" s="13"/>
     </row>
-    <row r="737">
+    <row r="737" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B737" s="18"/>
       <c r="C737" s="13"/>
       <c r="D737" s="13"/>
@@ -7042,7 +7453,7 @@
       <c r="G737" s="13"/>
       <c r="H737" s="13"/>
     </row>
-    <row r="738">
+    <row r="738" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B738" s="18"/>
       <c r="C738" s="13"/>
       <c r="D738" s="13"/>
@@ -7051,7 +7462,7 @@
       <c r="G738" s="13"/>
       <c r="H738" s="13"/>
     </row>
-    <row r="739">
+    <row r="739" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B739" s="18"/>
       <c r="C739" s="13"/>
       <c r="D739" s="13"/>
@@ -7060,7 +7471,7 @@
       <c r="G739" s="13"/>
       <c r="H739" s="13"/>
     </row>
-    <row r="740">
+    <row r="740" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B740" s="18"/>
       <c r="C740" s="13"/>
       <c r="D740" s="13"/>
@@ -7069,7 +7480,7 @@
       <c r="G740" s="13"/>
       <c r="H740" s="13"/>
     </row>
-    <row r="741">
+    <row r="741" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B741" s="18"/>
       <c r="C741" s="13"/>
       <c r="D741" s="13"/>
@@ -7078,7 +7489,7 @@
       <c r="G741" s="13"/>
       <c r="H741" s="13"/>
     </row>
-    <row r="742">
+    <row r="742" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B742" s="18"/>
       <c r="C742" s="13"/>
       <c r="D742" s="13"/>
@@ -7087,7 +7498,7 @@
       <c r="G742" s="13"/>
       <c r="H742" s="13"/>
     </row>
-    <row r="743">
+    <row r="743" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B743" s="18"/>
       <c r="C743" s="13"/>
       <c r="D743" s="13"/>
@@ -7096,7 +7507,7 @@
       <c r="G743" s="13"/>
       <c r="H743" s="13"/>
     </row>
-    <row r="744">
+    <row r="744" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B744" s="18"/>
       <c r="C744" s="13"/>
       <c r="D744" s="13"/>
@@ -7105,7 +7516,7 @@
       <c r="G744" s="13"/>
       <c r="H744" s="13"/>
     </row>
-    <row r="745">
+    <row r="745" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B745" s="18"/>
       <c r="C745" s="13"/>
       <c r="D745" s="13"/>
@@ -7114,7 +7525,7 @@
       <c r="G745" s="13"/>
       <c r="H745" s="13"/>
     </row>
-    <row r="746">
+    <row r="746" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B746" s="18"/>
       <c r="C746" s="13"/>
       <c r="D746" s="13"/>
@@ -7123,7 +7534,7 @@
       <c r="G746" s="13"/>
       <c r="H746" s="13"/>
     </row>
-    <row r="747">
+    <row r="747" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B747" s="18"/>
       <c r="C747" s="13"/>
       <c r="D747" s="13"/>
@@ -7132,7 +7543,7 @@
       <c r="G747" s="13"/>
       <c r="H747" s="13"/>
     </row>
-    <row r="748">
+    <row r="748" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B748" s="18"/>
       <c r="C748" s="13"/>
       <c r="D748" s="13"/>
@@ -7141,7 +7552,7 @@
       <c r="G748" s="13"/>
       <c r="H748" s="13"/>
     </row>
-    <row r="749">
+    <row r="749" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B749" s="18"/>
       <c r="C749" s="13"/>
       <c r="D749" s="13"/>
@@ -7150,7 +7561,7 @@
       <c r="G749" s="13"/>
       <c r="H749" s="13"/>
     </row>
-    <row r="750">
+    <row r="750" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B750" s="18"/>
       <c r="C750" s="13"/>
       <c r="D750" s="13"/>
@@ -7159,7 +7570,7 @@
       <c r="G750" s="13"/>
       <c r="H750" s="13"/>
     </row>
-    <row r="751">
+    <row r="751" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B751" s="18"/>
       <c r="C751" s="13"/>
       <c r="D751" s="13"/>
@@ -7168,7 +7579,7 @@
       <c r="G751" s="13"/>
       <c r="H751" s="13"/>
     </row>
-    <row r="752">
+    <row r="752" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B752" s="18"/>
       <c r="C752" s="13"/>
       <c r="D752" s="13"/>
@@ -7177,7 +7588,7 @@
       <c r="G752" s="13"/>
       <c r="H752" s="13"/>
     </row>
-    <row r="753">
+    <row r="753" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B753" s="18"/>
       <c r="C753" s="13"/>
       <c r="D753" s="13"/>
@@ -7186,7 +7597,7 @@
       <c r="G753" s="13"/>
       <c r="H753" s="13"/>
     </row>
-    <row r="754">
+    <row r="754" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B754" s="18"/>
       <c r="C754" s="13"/>
       <c r="D754" s="13"/>
@@ -7195,7 +7606,7 @@
       <c r="G754" s="13"/>
       <c r="H754" s="13"/>
     </row>
-    <row r="755">
+    <row r="755" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B755" s="18"/>
       <c r="C755" s="13"/>
       <c r="D755" s="13"/>
@@ -7204,7 +7615,7 @@
       <c r="G755" s="13"/>
       <c r="H755" s="13"/>
     </row>
-    <row r="756">
+    <row r="756" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B756" s="18"/>
       <c r="C756" s="13"/>
       <c r="D756" s="13"/>
@@ -7213,7 +7624,7 @@
       <c r="G756" s="13"/>
       <c r="H756" s="13"/>
     </row>
-    <row r="757">
+    <row r="757" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B757" s="18"/>
       <c r="C757" s="13"/>
       <c r="D757" s="13"/>
@@ -7222,7 +7633,7 @@
       <c r="G757" s="13"/>
       <c r="H757" s="13"/>
     </row>
-    <row r="758">
+    <row r="758" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B758" s="18"/>
       <c r="C758" s="13"/>
       <c r="D758" s="13"/>
@@ -7231,7 +7642,7 @@
       <c r="G758" s="13"/>
       <c r="H758" s="13"/>
     </row>
-    <row r="759">
+    <row r="759" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B759" s="18"/>
       <c r="C759" s="13"/>
       <c r="D759" s="13"/>
@@ -7240,7 +7651,7 @@
       <c r="G759" s="13"/>
       <c r="H759" s="13"/>
     </row>
-    <row r="760">
+    <row r="760" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B760" s="18"/>
       <c r="C760" s="13"/>
       <c r="D760" s="13"/>
@@ -7249,7 +7660,7 @@
       <c r="G760" s="13"/>
       <c r="H760" s="13"/>
     </row>
-    <row r="761">
+    <row r="761" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B761" s="18"/>
       <c r="C761" s="13"/>
       <c r="D761" s="13"/>
@@ -7258,7 +7669,7 @@
       <c r="G761" s="13"/>
       <c r="H761" s="13"/>
     </row>
-    <row r="762">
+    <row r="762" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B762" s="18"/>
       <c r="C762" s="13"/>
       <c r="D762" s="13"/>
@@ -7267,7 +7678,7 @@
       <c r="G762" s="13"/>
       <c r="H762" s="13"/>
     </row>
-    <row r="763">
+    <row r="763" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B763" s="18"/>
       <c r="C763" s="13"/>
       <c r="D763" s="13"/>
@@ -7276,7 +7687,7 @@
       <c r="G763" s="13"/>
       <c r="H763" s="13"/>
     </row>
-    <row r="764">
+    <row r="764" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B764" s="18"/>
       <c r="C764" s="13"/>
       <c r="D764" s="13"/>
@@ -7285,7 +7696,7 @@
       <c r="G764" s="13"/>
       <c r="H764" s="13"/>
     </row>
-    <row r="765">
+    <row r="765" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B765" s="18"/>
       <c r="C765" s="13"/>
       <c r="D765" s="13"/>
@@ -7294,7 +7705,7 @@
       <c r="G765" s="13"/>
       <c r="H765" s="13"/>
     </row>
-    <row r="766">
+    <row r="766" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B766" s="18"/>
       <c r="C766" s="13"/>
       <c r="D766" s="13"/>
@@ -7303,7 +7714,7 @@
       <c r="G766" s="13"/>
       <c r="H766" s="13"/>
     </row>
-    <row r="767">
+    <row r="767" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B767" s="18"/>
       <c r="C767" s="13"/>
       <c r="D767" s="13"/>
@@ -7312,7 +7723,7 @@
       <c r="G767" s="13"/>
       <c r="H767" s="13"/>
     </row>
-    <row r="768">
+    <row r="768" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B768" s="18"/>
       <c r="C768" s="13"/>
       <c r="D768" s="13"/>
@@ -7321,7 +7732,7 @@
       <c r="G768" s="13"/>
       <c r="H768" s="13"/>
     </row>
-    <row r="769">
+    <row r="769" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B769" s="18"/>
       <c r="C769" s="13"/>
       <c r="D769" s="13"/>
@@ -7330,7 +7741,7 @@
       <c r="G769" s="13"/>
       <c r="H769" s="13"/>
     </row>
-    <row r="770">
+    <row r="770" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B770" s="18"/>
       <c r="C770" s="13"/>
       <c r="D770" s="13"/>
@@ -7339,7 +7750,7 @@
       <c r="G770" s="13"/>
       <c r="H770" s="13"/>
     </row>
-    <row r="771">
+    <row r="771" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B771" s="18"/>
       <c r="C771" s="13"/>
       <c r="D771" s="13"/>
@@ -7348,7 +7759,7 @@
       <c r="G771" s="13"/>
       <c r="H771" s="13"/>
     </row>
-    <row r="772">
+    <row r="772" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B772" s="18"/>
       <c r="C772" s="13"/>
       <c r="D772" s="13"/>
@@ -7357,7 +7768,7 @@
       <c r="G772" s="13"/>
       <c r="H772" s="13"/>
     </row>
-    <row r="773">
+    <row r="773" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B773" s="18"/>
       <c r="C773" s="13"/>
       <c r="D773" s="13"/>
@@ -7366,7 +7777,7 @@
       <c r="G773" s="13"/>
       <c r="H773" s="13"/>
     </row>
-    <row r="774">
+    <row r="774" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B774" s="18"/>
       <c r="C774" s="13"/>
       <c r="D774" s="13"/>
@@ -7375,7 +7786,7 @@
       <c r="G774" s="13"/>
       <c r="H774" s="13"/>
     </row>
-    <row r="775">
+    <row r="775" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B775" s="18"/>
       <c r="C775" s="13"/>
       <c r="D775" s="13"/>
@@ -7384,7 +7795,7 @@
       <c r="G775" s="13"/>
       <c r="H775" s="13"/>
     </row>
-    <row r="776">
+    <row r="776" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B776" s="18"/>
       <c r="C776" s="13"/>
       <c r="D776" s="13"/>
@@ -7393,7 +7804,7 @@
       <c r="G776" s="13"/>
       <c r="H776" s="13"/>
     </row>
-    <row r="777">
+    <row r="777" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B777" s="18"/>
       <c r="C777" s="13"/>
       <c r="D777" s="13"/>
@@ -7402,7 +7813,7 @@
       <c r="G777" s="13"/>
       <c r="H777" s="13"/>
     </row>
-    <row r="778">
+    <row r="778" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B778" s="18"/>
       <c r="C778" s="13"/>
       <c r="D778" s="13"/>
@@ -7411,7 +7822,7 @@
       <c r="G778" s="13"/>
       <c r="H778" s="13"/>
     </row>
-    <row r="779">
+    <row r="779" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B779" s="18"/>
       <c r="C779" s="13"/>
       <c r="D779" s="13"/>
@@ -7420,7 +7831,7 @@
       <c r="G779" s="13"/>
       <c r="H779" s="13"/>
     </row>
-    <row r="780">
+    <row r="780" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B780" s="18"/>
       <c r="C780" s="13"/>
       <c r="D780" s="13"/>
@@ -7429,7 +7840,7 @@
       <c r="G780" s="13"/>
       <c r="H780" s="13"/>
     </row>
-    <row r="781">
+    <row r="781" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B781" s="18"/>
       <c r="C781" s="13"/>
       <c r="D781" s="13"/>
@@ -7438,7 +7849,7 @@
       <c r="G781" s="13"/>
       <c r="H781" s="13"/>
     </row>
-    <row r="782">
+    <row r="782" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B782" s="18"/>
       <c r="C782" s="13"/>
       <c r="D782" s="13"/>
@@ -7447,7 +7858,7 @@
       <c r="G782" s="13"/>
       <c r="H782" s="13"/>
     </row>
-    <row r="783">
+    <row r="783" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B783" s="18"/>
       <c r="C783" s="13"/>
       <c r="D783" s="13"/>
@@ -7456,7 +7867,7 @@
       <c r="G783" s="13"/>
       <c r="H783" s="13"/>
     </row>
-    <row r="784">
+    <row r="784" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B784" s="18"/>
       <c r="C784" s="13"/>
       <c r="D784" s="13"/>
@@ -7465,7 +7876,7 @@
       <c r="G784" s="13"/>
       <c r="H784" s="13"/>
     </row>
-    <row r="785">
+    <row r="785" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B785" s="18"/>
       <c r="C785" s="13"/>
       <c r="D785" s="13"/>
@@ -7474,7 +7885,7 @@
       <c r="G785" s="13"/>
       <c r="H785" s="13"/>
     </row>
-    <row r="786">
+    <row r="786" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B786" s="18"/>
       <c r="C786" s="13"/>
       <c r="D786" s="13"/>
@@ -7483,7 +7894,7 @@
       <c r="G786" s="13"/>
       <c r="H786" s="13"/>
     </row>
-    <row r="787">
+    <row r="787" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B787" s="18"/>
       <c r="C787" s="13"/>
       <c r="D787" s="13"/>
@@ -7492,7 +7903,7 @@
       <c r="G787" s="13"/>
       <c r="H787" s="13"/>
     </row>
-    <row r="788">
+    <row r="788" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B788" s="18"/>
       <c r="C788" s="13"/>
       <c r="D788" s="13"/>
@@ -7501,7 +7912,7 @@
       <c r="G788" s="13"/>
       <c r="H788" s="13"/>
     </row>
-    <row r="789">
+    <row r="789" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B789" s="18"/>
       <c r="C789" s="13"/>
       <c r="D789" s="13"/>
@@ -7510,7 +7921,7 @@
       <c r="G789" s="13"/>
       <c r="H789" s="13"/>
     </row>
-    <row r="790">
+    <row r="790" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B790" s="18"/>
       <c r="C790" s="13"/>
       <c r="D790" s="13"/>
@@ -7519,7 +7930,7 @@
       <c r="G790" s="13"/>
       <c r="H790" s="13"/>
     </row>
-    <row r="791">
+    <row r="791" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B791" s="18"/>
       <c r="C791" s="13"/>
       <c r="D791" s="13"/>
@@ -7528,7 +7939,7 @@
       <c r="G791" s="13"/>
       <c r="H791" s="13"/>
     </row>
-    <row r="792">
+    <row r="792" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B792" s="18"/>
       <c r="C792" s="13"/>
       <c r="D792" s="13"/>
@@ -7537,7 +7948,7 @@
       <c r="G792" s="13"/>
       <c r="H792" s="13"/>
     </row>
-    <row r="793">
+    <row r="793" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B793" s="18"/>
       <c r="C793" s="13"/>
       <c r="D793" s="13"/>
@@ -7546,7 +7957,7 @@
       <c r="G793" s="13"/>
       <c r="H793" s="13"/>
     </row>
-    <row r="794">
+    <row r="794" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B794" s="18"/>
       <c r="C794" s="13"/>
       <c r="D794" s="13"/>
@@ -7555,7 +7966,7 @@
       <c r="G794" s="13"/>
       <c r="H794" s="13"/>
     </row>
-    <row r="795">
+    <row r="795" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B795" s="18"/>
       <c r="C795" s="13"/>
       <c r="D795" s="13"/>
@@ -7564,7 +7975,7 @@
       <c r="G795" s="13"/>
       <c r="H795" s="13"/>
     </row>
-    <row r="796">
+    <row r="796" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B796" s="18"/>
       <c r="C796" s="13"/>
       <c r="D796" s="13"/>
@@ -7573,7 +7984,7 @@
       <c r="G796" s="13"/>
       <c r="H796" s="13"/>
     </row>
-    <row r="797">
+    <row r="797" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B797" s="18"/>
       <c r="C797" s="13"/>
       <c r="D797" s="13"/>
@@ -7582,7 +7993,7 @@
       <c r="G797" s="13"/>
       <c r="H797" s="13"/>
     </row>
-    <row r="798">
+    <row r="798" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B798" s="18"/>
       <c r="C798" s="13"/>
       <c r="D798" s="13"/>
@@ -7591,7 +8002,7 @@
       <c r="G798" s="13"/>
       <c r="H798" s="13"/>
     </row>
-    <row r="799">
+    <row r="799" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B799" s="18"/>
       <c r="C799" s="13"/>
       <c r="D799" s="13"/>
@@ -7600,7 +8011,7 @@
       <c r="G799" s="13"/>
       <c r="H799" s="13"/>
     </row>
-    <row r="800">
+    <row r="800" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B800" s="18"/>
       <c r="C800" s="13"/>
       <c r="D800" s="13"/>
@@ -7609,7 +8020,7 @@
       <c r="G800" s="13"/>
       <c r="H800" s="13"/>
     </row>
-    <row r="801">
+    <row r="801" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B801" s="18"/>
       <c r="C801" s="13"/>
       <c r="D801" s="13"/>
@@ -7618,7 +8029,7 @@
       <c r="G801" s="13"/>
       <c r="H801" s="13"/>
     </row>
-    <row r="802">
+    <row r="802" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B802" s="18"/>
       <c r="C802" s="13"/>
       <c r="D802" s="13"/>
@@ -7627,7 +8038,7 @@
       <c r="G802" s="13"/>
       <c r="H802" s="13"/>
     </row>
-    <row r="803">
+    <row r="803" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B803" s="18"/>
       <c r="C803" s="13"/>
       <c r="D803" s="13"/>
@@ -7636,7 +8047,7 @@
       <c r="G803" s="13"/>
       <c r="H803" s="13"/>
     </row>
-    <row r="804">
+    <row r="804" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B804" s="18"/>
       <c r="C804" s="13"/>
       <c r="D804" s="13"/>
@@ -7645,7 +8056,7 @@
       <c r="G804" s="13"/>
       <c r="H804" s="13"/>
     </row>
-    <row r="805">
+    <row r="805" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B805" s="18"/>
       <c r="C805" s="13"/>
       <c r="D805" s="13"/>
@@ -7654,7 +8065,7 @@
       <c r="G805" s="13"/>
       <c r="H805" s="13"/>
     </row>
-    <row r="806">
+    <row r="806" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B806" s="18"/>
       <c r="C806" s="13"/>
       <c r="D806" s="13"/>
@@ -7663,7 +8074,7 @@
       <c r="G806" s="13"/>
       <c r="H806" s="13"/>
     </row>
-    <row r="807">
+    <row r="807" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B807" s="18"/>
       <c r="C807" s="13"/>
       <c r="D807" s="13"/>
@@ -7672,7 +8083,7 @@
       <c r="G807" s="13"/>
       <c r="H807" s="13"/>
     </row>
-    <row r="808">
+    <row r="808" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B808" s="18"/>
       <c r="C808" s="13"/>
       <c r="D808" s="13"/>
@@ -7681,7 +8092,7 @@
       <c r="G808" s="13"/>
       <c r="H808" s="13"/>
     </row>
-    <row r="809">
+    <row r="809" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B809" s="18"/>
       <c r="C809" s="13"/>
       <c r="D809" s="13"/>
@@ -7690,7 +8101,7 @@
       <c r="G809" s="13"/>
       <c r="H809" s="13"/>
     </row>
-    <row r="810">
+    <row r="810" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B810" s="18"/>
       <c r="C810" s="13"/>
       <c r="D810" s="13"/>
@@ -7699,7 +8110,7 @@
       <c r="G810" s="13"/>
       <c r="H810" s="13"/>
     </row>
-    <row r="811">
+    <row r="811" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B811" s="18"/>
       <c r="C811" s="13"/>
       <c r="D811" s="13"/>
@@ -7708,7 +8119,7 @@
       <c r="G811" s="13"/>
       <c r="H811" s="13"/>
     </row>
-    <row r="812">
+    <row r="812" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B812" s="18"/>
       <c r="C812" s="13"/>
       <c r="D812" s="13"/>
@@ -7717,7 +8128,7 @@
       <c r="G812" s="13"/>
       <c r="H812" s="13"/>
     </row>
-    <row r="813">
+    <row r="813" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B813" s="18"/>
       <c r="C813" s="13"/>
       <c r="D813" s="13"/>
@@ -7726,7 +8137,7 @@
       <c r="G813" s="13"/>
       <c r="H813" s="13"/>
     </row>
-    <row r="814">
+    <row r="814" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B814" s="18"/>
       <c r="C814" s="13"/>
       <c r="D814" s="13"/>
@@ -7735,7 +8146,7 @@
       <c r="G814" s="13"/>
       <c r="H814" s="13"/>
     </row>
-    <row r="815">
+    <row r="815" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B815" s="18"/>
       <c r="C815" s="13"/>
       <c r="D815" s="13"/>
@@ -7744,7 +8155,7 @@
       <c r="G815" s="13"/>
       <c r="H815" s="13"/>
     </row>
-    <row r="816">
+    <row r="816" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B816" s="18"/>
       <c r="C816" s="13"/>
       <c r="D816" s="13"/>
@@ -7753,7 +8164,7 @@
       <c r="G816" s="13"/>
       <c r="H816" s="13"/>
     </row>
-    <row r="817">
+    <row r="817" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B817" s="18"/>
       <c r="C817" s="13"/>
       <c r="D817" s="13"/>
@@ -7762,7 +8173,7 @@
       <c r="G817" s="13"/>
       <c r="H817" s="13"/>
     </row>
-    <row r="818">
+    <row r="818" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B818" s="18"/>
       <c r="C818" s="13"/>
       <c r="D818" s="13"/>
@@ -7771,7 +8182,7 @@
       <c r="G818" s="13"/>
       <c r="H818" s="13"/>
     </row>
-    <row r="819">
+    <row r="819" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B819" s="18"/>
       <c r="C819" s="13"/>
       <c r="D819" s="13"/>
@@ -7780,7 +8191,7 @@
       <c r="G819" s="13"/>
       <c r="H819" s="13"/>
     </row>
-    <row r="820">
+    <row r="820" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B820" s="18"/>
       <c r="C820" s="13"/>
       <c r="D820" s="13"/>
@@ -7789,7 +8200,7 @@
       <c r="G820" s="13"/>
       <c r="H820" s="13"/>
     </row>
-    <row r="821">
+    <row r="821" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B821" s="18"/>
       <c r="C821" s="13"/>
       <c r="D821" s="13"/>
@@ -7798,7 +8209,7 @@
       <c r="G821" s="13"/>
       <c r="H821" s="13"/>
     </row>
-    <row r="822">
+    <row r="822" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B822" s="18"/>
       <c r="C822" s="13"/>
       <c r="D822" s="13"/>
@@ -7807,7 +8218,7 @@
       <c r="G822" s="13"/>
       <c r="H822" s="13"/>
     </row>
-    <row r="823">
+    <row r="823" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B823" s="18"/>
       <c r="C823" s="13"/>
       <c r="D823" s="13"/>
@@ -7816,7 +8227,7 @@
       <c r="G823" s="13"/>
       <c r="H823" s="13"/>
     </row>
-    <row r="824">
+    <row r="824" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B824" s="18"/>
       <c r="C824" s="13"/>
       <c r="D824" s="13"/>
@@ -7825,7 +8236,7 @@
       <c r="G824" s="13"/>
       <c r="H824" s="13"/>
     </row>
-    <row r="825">
+    <row r="825" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B825" s="18"/>
       <c r="C825" s="13"/>
       <c r="D825" s="13"/>
@@ -7834,7 +8245,7 @@
       <c r="G825" s="13"/>
       <c r="H825" s="13"/>
     </row>
-    <row r="826">
+    <row r="826" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B826" s="18"/>
       <c r="C826" s="13"/>
       <c r="D826" s="13"/>
@@ -7843,7 +8254,7 @@
       <c r="G826" s="13"/>
       <c r="H826" s="13"/>
     </row>
-    <row r="827">
+    <row r="827" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B827" s="18"/>
       <c r="C827" s="13"/>
       <c r="D827" s="13"/>
@@ -7852,7 +8263,7 @@
       <c r="G827" s="13"/>
       <c r="H827" s="13"/>
     </row>
-    <row r="828">
+    <row r="828" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B828" s="18"/>
       <c r="C828" s="13"/>
       <c r="D828" s="13"/>
@@ -7861,7 +8272,7 @@
       <c r="G828" s="13"/>
       <c r="H828" s="13"/>
     </row>
-    <row r="829">
+    <row r="829" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B829" s="18"/>
       <c r="C829" s="13"/>
       <c r="D829" s="13"/>
@@ -7870,7 +8281,7 @@
       <c r="G829" s="13"/>
       <c r="H829" s="13"/>
     </row>
-    <row r="830">
+    <row r="830" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B830" s="18"/>
       <c r="C830" s="13"/>
       <c r="D830" s="13"/>
@@ -7879,7 +8290,7 @@
       <c r="G830" s="13"/>
       <c r="H830" s="13"/>
     </row>
-    <row r="831">
+    <row r="831" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B831" s="18"/>
       <c r="C831" s="13"/>
       <c r="D831" s="13"/>
@@ -7888,7 +8299,7 @@
       <c r="G831" s="13"/>
       <c r="H831" s="13"/>
     </row>
-    <row r="832">
+    <row r="832" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B832" s="18"/>
       <c r="C832" s="13"/>
       <c r="D832" s="13"/>
@@ -7897,7 +8308,7 @@
       <c r="G832" s="13"/>
       <c r="H832" s="13"/>
     </row>
-    <row r="833">
+    <row r="833" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B833" s="18"/>
       <c r="C833" s="13"/>
       <c r="D833" s="13"/>
@@ -7906,7 +8317,7 @@
       <c r="G833" s="13"/>
       <c r="H833" s="13"/>
     </row>
-    <row r="834">
+    <row r="834" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B834" s="18"/>
       <c r="C834" s="13"/>
       <c r="D834" s="13"/>
@@ -7915,7 +8326,7 @@
       <c r="G834" s="13"/>
       <c r="H834" s="13"/>
     </row>
-    <row r="835">
+    <row r="835" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B835" s="18"/>
       <c r="C835" s="13"/>
       <c r="D835" s="13"/>
@@ -7924,7 +8335,7 @@
       <c r="G835" s="13"/>
       <c r="H835" s="13"/>
     </row>
-    <row r="836">
+    <row r="836" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B836" s="18"/>
       <c r="C836" s="13"/>
       <c r="D836" s="13"/>
@@ -7933,7 +8344,7 @@
       <c r="G836" s="13"/>
       <c r="H836" s="13"/>
     </row>
-    <row r="837">
+    <row r="837" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B837" s="18"/>
       <c r="C837" s="13"/>
       <c r="D837" s="13"/>
@@ -7942,7 +8353,7 @@
       <c r="G837" s="13"/>
       <c r="H837" s="13"/>
     </row>
-    <row r="838">
+    <row r="838" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B838" s="18"/>
       <c r="C838" s="13"/>
       <c r="D838" s="13"/>
@@ -7951,7 +8362,7 @@
       <c r="G838" s="13"/>
       <c r="H838" s="13"/>
     </row>
-    <row r="839">
+    <row r="839" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B839" s="18"/>
       <c r="C839" s="13"/>
       <c r="D839" s="13"/>
@@ -7960,7 +8371,7 @@
       <c r="G839" s="13"/>
       <c r="H839" s="13"/>
     </row>
-    <row r="840">
+    <row r="840" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B840" s="18"/>
       <c r="C840" s="13"/>
       <c r="D840" s="13"/>
@@ -7969,7 +8380,7 @@
       <c r="G840" s="13"/>
       <c r="H840" s="13"/>
     </row>
-    <row r="841">
+    <row r="841" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B841" s="18"/>
       <c r="C841" s="13"/>
       <c r="D841" s="13"/>
@@ -7978,7 +8389,7 @@
       <c r="G841" s="13"/>
       <c r="H841" s="13"/>
     </row>
-    <row r="842">
+    <row r="842" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B842" s="18"/>
       <c r="C842" s="13"/>
       <c r="D842" s="13"/>
@@ -7987,7 +8398,7 @@
       <c r="G842" s="13"/>
       <c r="H842" s="13"/>
     </row>
-    <row r="843">
+    <row r="843" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B843" s="18"/>
       <c r="C843" s="13"/>
       <c r="D843" s="13"/>
@@ -7996,7 +8407,7 @@
       <c r="G843" s="13"/>
       <c r="H843" s="13"/>
     </row>
-    <row r="844">
+    <row r="844" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B844" s="18"/>
       <c r="C844" s="13"/>
       <c r="D844" s="13"/>
@@ -8005,7 +8416,7 @@
       <c r="G844" s="13"/>
       <c r="H844" s="13"/>
     </row>
-    <row r="845">
+    <row r="845" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B845" s="18"/>
       <c r="C845" s="13"/>
       <c r="D845" s="13"/>
@@ -8014,7 +8425,7 @@
       <c r="G845" s="13"/>
       <c r="H845" s="13"/>
     </row>
-    <row r="846">
+    <row r="846" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B846" s="18"/>
       <c r="C846" s="13"/>
       <c r="D846" s="13"/>
@@ -8023,7 +8434,7 @@
       <c r="G846" s="13"/>
       <c r="H846" s="13"/>
     </row>
-    <row r="847">
+    <row r="847" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B847" s="18"/>
       <c r="C847" s="13"/>
       <c r="D847" s="13"/>
@@ -8032,7 +8443,7 @@
       <c r="G847" s="13"/>
       <c r="H847" s="13"/>
     </row>
-    <row r="848">
+    <row r="848" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B848" s="18"/>
       <c r="C848" s="13"/>
       <c r="D848" s="13"/>
@@ -8041,7 +8452,7 @@
       <c r="G848" s="13"/>
       <c r="H848" s="13"/>
     </row>
-    <row r="849">
+    <row r="849" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B849" s="18"/>
       <c r="C849" s="13"/>
       <c r="D849" s="13"/>
@@ -8050,7 +8461,7 @@
       <c r="G849" s="13"/>
       <c r="H849" s="13"/>
     </row>
-    <row r="850">
+    <row r="850" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B850" s="18"/>
       <c r="C850" s="13"/>
       <c r="D850" s="13"/>
@@ -8059,7 +8470,7 @@
       <c r="G850" s="13"/>
       <c r="H850" s="13"/>
     </row>
-    <row r="851">
+    <row r="851" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B851" s="18"/>
       <c r="C851" s="13"/>
       <c r="D851" s="13"/>
@@ -8068,7 +8479,7 @@
       <c r="G851" s="13"/>
       <c r="H851" s="13"/>
     </row>
-    <row r="852">
+    <row r="852" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B852" s="18"/>
       <c r="C852" s="13"/>
       <c r="D852" s="13"/>
@@ -8077,7 +8488,7 @@
       <c r="G852" s="13"/>
       <c r="H852" s="13"/>
     </row>
-    <row r="853">
+    <row r="853" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B853" s="18"/>
       <c r="C853" s="13"/>
       <c r="D853" s="13"/>
@@ -8086,7 +8497,7 @@
       <c r="G853" s="13"/>
       <c r="H853" s="13"/>
     </row>
-    <row r="854">
+    <row r="854" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B854" s="18"/>
       <c r="C854" s="13"/>
       <c r="D854" s="13"/>
@@ -8095,7 +8506,7 @@
       <c r="G854" s="13"/>
       <c r="H854" s="13"/>
     </row>
-    <row r="855">
+    <row r="855" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B855" s="18"/>
       <c r="C855" s="13"/>
       <c r="D855" s="13"/>
@@ -8104,7 +8515,7 @@
       <c r="G855" s="13"/>
       <c r="H855" s="13"/>
     </row>
-    <row r="856">
+    <row r="856" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B856" s="18"/>
       <c r="C856" s="13"/>
       <c r="D856" s="13"/>
@@ -8113,7 +8524,7 @@
       <c r="G856" s="13"/>
       <c r="H856" s="13"/>
     </row>
-    <row r="857">
+    <row r="857" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B857" s="18"/>
       <c r="C857" s="13"/>
       <c r="D857" s="13"/>
@@ -8122,7 +8533,7 @@
       <c r="G857" s="13"/>
       <c r="H857" s="13"/>
     </row>
-    <row r="858">
+    <row r="858" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B858" s="18"/>
       <c r="C858" s="13"/>
       <c r="D858" s="13"/>
@@ -8131,7 +8542,7 @@
       <c r="G858" s="13"/>
       <c r="H858" s="13"/>
     </row>
-    <row r="859">
+    <row r="859" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B859" s="18"/>
       <c r="C859" s="13"/>
       <c r="D859" s="13"/>
@@ -8140,7 +8551,7 @@
       <c r="G859" s="13"/>
       <c r="H859" s="13"/>
     </row>
-    <row r="860">
+    <row r="860" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B860" s="18"/>
       <c r="C860" s="13"/>
       <c r="D860" s="13"/>
@@ -8149,7 +8560,7 @@
       <c r="G860" s="13"/>
       <c r="H860" s="13"/>
     </row>
-    <row r="861">
+    <row r="861" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B861" s="18"/>
       <c r="C861" s="13"/>
       <c r="D861" s="13"/>
@@ -8158,7 +8569,7 @@
       <c r="G861" s="13"/>
       <c r="H861" s="13"/>
     </row>
-    <row r="862">
+    <row r="862" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B862" s="18"/>
       <c r="C862" s="13"/>
       <c r="D862" s="13"/>
@@ -8167,7 +8578,7 @@
       <c r="G862" s="13"/>
       <c r="H862" s="13"/>
     </row>
-    <row r="863">
+    <row r="863" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B863" s="18"/>
       <c r="C863" s="13"/>
       <c r="D863" s="13"/>
@@ -8176,7 +8587,7 @@
       <c r="G863" s="13"/>
       <c r="H863" s="13"/>
     </row>
-    <row r="864">
+    <row r="864" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B864" s="18"/>
       <c r="C864" s="13"/>
       <c r="D864" s="13"/>
@@ -8185,7 +8596,7 @@
       <c r="G864" s="13"/>
       <c r="H864" s="13"/>
     </row>
-    <row r="865">
+    <row r="865" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B865" s="18"/>
       <c r="C865" s="13"/>
       <c r="D865" s="13"/>
@@ -8194,7 +8605,7 @@
       <c r="G865" s="13"/>
       <c r="H865" s="13"/>
     </row>
-    <row r="866">
+    <row r="866" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B866" s="18"/>
       <c r="C866" s="13"/>
       <c r="D866" s="13"/>
@@ -8203,7 +8614,7 @@
       <c r="G866" s="13"/>
       <c r="H866" s="13"/>
     </row>
-    <row r="867">
+    <row r="867" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B867" s="18"/>
       <c r="C867" s="13"/>
       <c r="D867" s="13"/>
@@ -8212,7 +8623,7 @@
       <c r="G867" s="13"/>
       <c r="H867" s="13"/>
     </row>
-    <row r="868">
+    <row r="868" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B868" s="18"/>
       <c r="C868" s="13"/>
       <c r="D868" s="13"/>
@@ -8221,7 +8632,7 @@
       <c r="G868" s="13"/>
       <c r="H868" s="13"/>
     </row>
-    <row r="869">
+    <row r="869" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B869" s="18"/>
       <c r="C869" s="13"/>
       <c r="D869" s="13"/>
@@ -8230,7 +8641,7 @@
       <c r="G869" s="13"/>
       <c r="H869" s="13"/>
     </row>
-    <row r="870">
+    <row r="870" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B870" s="18"/>
       <c r="C870" s="13"/>
       <c r="D870" s="13"/>
@@ -8239,7 +8650,7 @@
       <c r="G870" s="13"/>
       <c r="H870" s="13"/>
     </row>
-    <row r="871">
+    <row r="871" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B871" s="18"/>
       <c r="C871" s="13"/>
       <c r="D871" s="13"/>
@@ -8248,7 +8659,7 @@
       <c r="G871" s="13"/>
       <c r="H871" s="13"/>
     </row>
-    <row r="872">
+    <row r="872" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B872" s="18"/>
       <c r="C872" s="13"/>
       <c r="D872" s="13"/>
@@ -8257,7 +8668,7 @@
       <c r="G872" s="13"/>
       <c r="H872" s="13"/>
     </row>
-    <row r="873">
+    <row r="873" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B873" s="18"/>
       <c r="C873" s="13"/>
       <c r="D873" s="13"/>
@@ -8266,7 +8677,7 @@
       <c r="G873" s="13"/>
       <c r="H873" s="13"/>
     </row>
-    <row r="874">
+    <row r="874" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B874" s="18"/>
       <c r="C874" s="13"/>
       <c r="D874" s="13"/>
@@ -8275,7 +8686,7 @@
       <c r="G874" s="13"/>
       <c r="H874" s="13"/>
     </row>
-    <row r="875">
+    <row r="875" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B875" s="18"/>
       <c r="C875" s="13"/>
       <c r="D875" s="13"/>
@@ -8284,7 +8695,7 @@
       <c r="G875" s="13"/>
       <c r="H875" s="13"/>
     </row>
-    <row r="876">
+    <row r="876" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B876" s="18"/>
       <c r="C876" s="13"/>
       <c r="D876" s="13"/>
@@ -8293,7 +8704,7 @@
       <c r="G876" s="13"/>
       <c r="H876" s="13"/>
     </row>
-    <row r="877">
+    <row r="877" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B877" s="18"/>
       <c r="C877" s="13"/>
       <c r="D877" s="13"/>
@@ -8302,7 +8713,7 @@
       <c r="G877" s="13"/>
       <c r="H877" s="13"/>
     </row>
-    <row r="878">
+    <row r="878" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B878" s="18"/>
       <c r="C878" s="13"/>
       <c r="D878" s="13"/>
@@ -8311,7 +8722,7 @@
       <c r="G878" s="13"/>
       <c r="H878" s="13"/>
     </row>
-    <row r="879">
+    <row r="879" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B879" s="18"/>
       <c r="C879" s="13"/>
       <c r="D879" s="13"/>
@@ -8320,7 +8731,7 @@
       <c r="G879" s="13"/>
       <c r="H879" s="13"/>
     </row>
-    <row r="880">
+    <row r="880" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B880" s="18"/>
       <c r="C880" s="13"/>
       <c r="D880" s="13"/>
@@ -8329,7 +8740,7 @@
       <c r="G880" s="13"/>
       <c r="H880" s="13"/>
     </row>
-    <row r="881">
+    <row r="881" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B881" s="18"/>
       <c r="C881" s="13"/>
       <c r="D881" s="13"/>
@@ -8338,7 +8749,7 @@
       <c r="G881" s="13"/>
       <c r="H881" s="13"/>
     </row>
-    <row r="882">
+    <row r="882" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B882" s="18"/>
       <c r="C882" s="13"/>
       <c r="D882" s="13"/>
@@ -8347,7 +8758,7 @@
       <c r="G882" s="13"/>
       <c r="H882" s="13"/>
     </row>
-    <row r="883">
+    <row r="883" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B883" s="18"/>
       <c r="C883" s="13"/>
       <c r="D883" s="13"/>
@@ -8356,7 +8767,7 @@
       <c r="G883" s="13"/>
       <c r="H883" s="13"/>
     </row>
-    <row r="884">
+    <row r="884" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B884" s="18"/>
       <c r="C884" s="13"/>
       <c r="D884" s="13"/>
@@ -8365,7 +8776,7 @@
       <c r="G884" s="13"/>
       <c r="H884" s="13"/>
     </row>
-    <row r="885">
+    <row r="885" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B885" s="18"/>
       <c r="C885" s="13"/>
       <c r="D885" s="13"/>
@@ -8374,7 +8785,7 @@
       <c r="G885" s="13"/>
       <c r="H885" s="13"/>
     </row>
-    <row r="886">
+    <row r="886" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B886" s="18"/>
       <c r="C886" s="13"/>
       <c r="D886" s="13"/>
@@ -8383,7 +8794,7 @@
       <c r="G886" s="13"/>
       <c r="H886" s="13"/>
     </row>
-    <row r="887">
+    <row r="887" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B887" s="18"/>
       <c r="C887" s="13"/>
       <c r="D887" s="13"/>
@@ -8392,7 +8803,7 @@
       <c r="G887" s="13"/>
       <c r="H887" s="13"/>
     </row>
-    <row r="888">
+    <row r="888" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B888" s="18"/>
       <c r="C888" s="13"/>
       <c r="D888" s="13"/>
@@ -8401,7 +8812,7 @@
       <c r="G888" s="13"/>
       <c r="H888" s="13"/>
     </row>
-    <row r="889">
+    <row r="889" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B889" s="18"/>
       <c r="C889" s="13"/>
       <c r="D889" s="13"/>
@@ -8410,7 +8821,7 @@
       <c r="G889" s="13"/>
       <c r="H889" s="13"/>
     </row>
-    <row r="890">
+    <row r="890" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B890" s="18"/>
       <c r="C890" s="13"/>
       <c r="D890" s="13"/>
@@ -8419,7 +8830,7 @@
       <c r="G890" s="13"/>
       <c r="H890" s="13"/>
     </row>
-    <row r="891">
+    <row r="891" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B891" s="18"/>
       <c r="C891" s="13"/>
       <c r="D891" s="13"/>
@@ -8428,7 +8839,7 @@
       <c r="G891" s="13"/>
       <c r="H891" s="13"/>
     </row>
-    <row r="892">
+    <row r="892" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B892" s="18"/>
       <c r="C892" s="13"/>
       <c r="D892" s="13"/>
@@ -8437,7 +8848,7 @@
       <c r="G892" s="13"/>
       <c r="H892" s="13"/>
     </row>
-    <row r="893">
+    <row r="893" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B893" s="18"/>
       <c r="C893" s="13"/>
       <c r="D893" s="13"/>
@@ -8446,7 +8857,7 @@
       <c r="G893" s="13"/>
       <c r="H893" s="13"/>
     </row>
-    <row r="894">
+    <row r="894" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B894" s="18"/>
       <c r="C894" s="13"/>
       <c r="D894" s="13"/>
@@ -8455,7 +8866,7 @@
       <c r="G894" s="13"/>
       <c r="H894" s="13"/>
     </row>
-    <row r="895">
+    <row r="895" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B895" s="18"/>
       <c r="C895" s="13"/>
       <c r="D895" s="13"/>
@@ -8464,7 +8875,7 @@
       <c r="G895" s="13"/>
       <c r="H895" s="13"/>
     </row>
-    <row r="896">
+    <row r="896" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B896" s="18"/>
       <c r="C896" s="13"/>
       <c r="D896" s="13"/>
@@ -8473,7 +8884,7 @@
       <c r="G896" s="13"/>
       <c r="H896" s="13"/>
     </row>
-    <row r="897">
+    <row r="897" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B897" s="18"/>
       <c r="C897" s="13"/>
       <c r="D897" s="13"/>
@@ -8482,7 +8893,7 @@
       <c r="G897" s="13"/>
       <c r="H897" s="13"/>
     </row>
-    <row r="898">
+    <row r="898" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B898" s="18"/>
       <c r="C898" s="13"/>
       <c r="D898" s="13"/>
@@ -8491,7 +8902,7 @@
       <c r="G898" s="13"/>
       <c r="H898" s="13"/>
     </row>
-    <row r="899">
+    <row r="899" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B899" s="18"/>
       <c r="C899" s="13"/>
       <c r="D899" s="13"/>
@@ -8500,7 +8911,7 @@
       <c r="G899" s="13"/>
       <c r="H899" s="13"/>
     </row>
-    <row r="900">
+    <row r="900" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B900" s="18"/>
       <c r="C900" s="13"/>
       <c r="D900" s="13"/>
@@ -8509,7 +8920,7 @@
       <c r="G900" s="13"/>
       <c r="H900" s="13"/>
     </row>
-    <row r="901">
+    <row r="901" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B901" s="18"/>
       <c r="C901" s="13"/>
       <c r="D901" s="13"/>
@@ -8518,7 +8929,7 @@
       <c r="G901" s="13"/>
       <c r="H901" s="13"/>
     </row>
-    <row r="902">
+    <row r="902" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B902" s="18"/>
       <c r="C902" s="13"/>
       <c r="D902" s="13"/>
@@ -8527,7 +8938,7 @@
       <c r="G902" s="13"/>
       <c r="H902" s="13"/>
     </row>
-    <row r="903">
+    <row r="903" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B903" s="18"/>
       <c r="C903" s="13"/>
       <c r="D903" s="13"/>
@@ -8536,7 +8947,7 @@
       <c r="G903" s="13"/>
       <c r="H903" s="13"/>
     </row>
-    <row r="904">
+    <row r="904" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B904" s="18"/>
       <c r="C904" s="13"/>
       <c r="D904" s="13"/>
@@ -8545,7 +8956,7 @@
       <c r="G904" s="13"/>
       <c r="H904" s="13"/>
     </row>
-    <row r="905">
+    <row r="905" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B905" s="18"/>
       <c r="C905" s="13"/>
       <c r="D905" s="13"/>
@@ -8554,7 +8965,7 @@
       <c r="G905" s="13"/>
       <c r="H905" s="13"/>
     </row>
-    <row r="906">
+    <row r="906" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B906" s="18"/>
       <c r="C906" s="13"/>
       <c r="D906" s="13"/>
@@ -8563,7 +8974,7 @@
       <c r="G906" s="13"/>
       <c r="H906" s="13"/>
     </row>
-    <row r="907">
+    <row r="907" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B907" s="18"/>
       <c r="C907" s="13"/>
       <c r="D907" s="13"/>
@@ -8572,7 +8983,7 @@
       <c r="G907" s="13"/>
       <c r="H907" s="13"/>
     </row>
-    <row r="908">
+    <row r="908" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B908" s="18"/>
       <c r="C908" s="13"/>
       <c r="D908" s="13"/>
@@ -8581,7 +8992,7 @@
       <c r="G908" s="13"/>
       <c r="H908" s="13"/>
     </row>
-    <row r="909">
+    <row r="909" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B909" s="18"/>
       <c r="C909" s="13"/>
       <c r="D909" s="13"/>
@@ -8590,7 +9001,7 @@
       <c r="G909" s="13"/>
       <c r="H909" s="13"/>
     </row>
-    <row r="910">
+    <row r="910" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B910" s="18"/>
       <c r="C910" s="13"/>
       <c r="D910" s="13"/>
@@ -8599,7 +9010,7 @@
       <c r="G910" s="13"/>
       <c r="H910" s="13"/>
     </row>
-    <row r="911">
+    <row r="911" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B911" s="18"/>
       <c r="C911" s="13"/>
       <c r="D911" s="13"/>
@@ -8608,7 +9019,7 @@
       <c r="G911" s="13"/>
       <c r="H911" s="13"/>
     </row>
-    <row r="912">
+    <row r="912" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B912" s="18"/>
       <c r="C912" s="13"/>
       <c r="D912" s="13"/>
@@ -8617,7 +9028,7 @@
       <c r="G912" s="13"/>
       <c r="H912" s="13"/>
     </row>
-    <row r="913">
+    <row r="913" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B913" s="18"/>
       <c r="C913" s="13"/>
       <c r="D913" s="13"/>
@@ -8626,7 +9037,7 @@
       <c r="G913" s="13"/>
       <c r="H913" s="13"/>
     </row>
-    <row r="914">
+    <row r="914" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B914" s="18"/>
       <c r="C914" s="13"/>
       <c r="D914" s="13"/>
@@ -8635,7 +9046,7 @@
       <c r="G914" s="13"/>
       <c r="H914" s="13"/>
     </row>
-    <row r="915">
+    <row r="915" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B915" s="18"/>
       <c r="C915" s="13"/>
       <c r="D915" s="13"/>
@@ -8644,7 +9055,7 @@
       <c r="G915" s="13"/>
       <c r="H915" s="13"/>
     </row>
-    <row r="916">
+    <row r="916" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B916" s="18"/>
       <c r="C916" s="13"/>
       <c r="D916" s="13"/>
@@ -8653,7 +9064,7 @@
       <c r="G916" s="13"/>
       <c r="H916" s="13"/>
     </row>
-    <row r="917">
+    <row r="917" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B917" s="18"/>
       <c r="C917" s="13"/>
       <c r="D917" s="13"/>
@@ -8662,7 +9073,7 @@
       <c r="G917" s="13"/>
       <c r="H917" s="13"/>
     </row>
-    <row r="918">
+    <row r="918" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B918" s="18"/>
       <c r="C918" s="13"/>
       <c r="D918" s="13"/>
@@ -8671,7 +9082,7 @@
       <c r="G918" s="13"/>
       <c r="H918" s="13"/>
     </row>
-    <row r="919">
+    <row r="919" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B919" s="18"/>
       <c r="C919" s="13"/>
       <c r="D919" s="13"/>
@@ -8680,7 +9091,7 @@
       <c r="G919" s="13"/>
       <c r="H919" s="13"/>
     </row>
-    <row r="920">
+    <row r="920" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B920" s="18"/>
       <c r="C920" s="13"/>
       <c r="D920" s="13"/>
@@ -8689,7 +9100,7 @@
       <c r="G920" s="13"/>
       <c r="H920" s="13"/>
     </row>
-    <row r="921">
+    <row r="921" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B921" s="18"/>
       <c r="C921" s="13"/>
       <c r="D921" s="13"/>
@@ -8698,7 +9109,7 @@
       <c r="G921" s="13"/>
       <c r="H921" s="13"/>
     </row>
-    <row r="922">
+    <row r="922" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B922" s="18"/>
       <c r="C922" s="13"/>
       <c r="D922" s="13"/>
@@ -8707,7 +9118,7 @@
       <c r="G922" s="13"/>
       <c r="H922" s="13"/>
     </row>
-    <row r="923">
+    <row r="923" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B923" s="18"/>
       <c r="C923" s="13"/>
       <c r="D923" s="13"/>
@@ -8716,7 +9127,7 @@
       <c r="G923" s="13"/>
       <c r="H923" s="13"/>
     </row>
-    <row r="924">
+    <row r="924" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B924" s="18"/>
       <c r="C924" s="13"/>
       <c r="D924" s="13"/>
@@ -8725,7 +9136,7 @@
       <c r="G924" s="13"/>
       <c r="H924" s="13"/>
     </row>
-    <row r="925">
+    <row r="925" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B925" s="18"/>
       <c r="C925" s="13"/>
       <c r="D925" s="13"/>
@@ -8734,7 +9145,7 @@
       <c r="G925" s="13"/>
       <c r="H925" s="13"/>
     </row>
-    <row r="926">
+    <row r="926" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B926" s="18"/>
       <c r="C926" s="13"/>
       <c r="D926" s="13"/>
@@ -8743,7 +9154,7 @@
       <c r="G926" s="13"/>
       <c r="H926" s="13"/>
     </row>
-    <row r="927">
+    <row r="927" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B927" s="18"/>
       <c r="C927" s="13"/>
       <c r="D927" s="13"/>
@@ -8752,7 +9163,7 @@
       <c r="G927" s="13"/>
       <c r="H927" s="13"/>
     </row>
-    <row r="928">
+    <row r="928" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B928" s="18"/>
       <c r="C928" s="13"/>
       <c r="D928" s="13"/>
@@ -8761,7 +9172,7 @@
       <c r="G928" s="13"/>
       <c r="H928" s="13"/>
     </row>
-    <row r="929">
+    <row r="929" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B929" s="18"/>
       <c r="C929" s="13"/>
       <c r="D929" s="13"/>
@@ -8770,7 +9181,7 @@
       <c r="G929" s="13"/>
       <c r="H929" s="13"/>
     </row>
-    <row r="930">
+    <row r="930" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B930" s="18"/>
       <c r="C930" s="13"/>
       <c r="D930" s="13"/>
@@ -8779,7 +9190,7 @@
       <c r="G930" s="13"/>
       <c r="H930" s="13"/>
     </row>
-    <row r="931">
+    <row r="931" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B931" s="18"/>
       <c r="C931" s="13"/>
       <c r="D931" s="13"/>
@@ -8788,7 +9199,7 @@
       <c r="G931" s="13"/>
       <c r="H931" s="13"/>
     </row>
-    <row r="932">
+    <row r="932" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B932" s="18"/>
       <c r="C932" s="13"/>
       <c r="D932" s="13"/>
@@ -8797,7 +9208,7 @@
       <c r="G932" s="13"/>
       <c r="H932" s="13"/>
     </row>
-    <row r="933">
+    <row r="933" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B933" s="18"/>
       <c r="C933" s="13"/>
       <c r="D933" s="13"/>
@@ -8806,7 +9217,7 @@
       <c r="G933" s="13"/>
       <c r="H933" s="13"/>
     </row>
-    <row r="934">
+    <row r="934" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B934" s="18"/>
       <c r="C934" s="13"/>
       <c r="D934" s="13"/>
@@ -8815,7 +9226,7 @@
       <c r="G934" s="13"/>
       <c r="H934" s="13"/>
     </row>
-    <row r="935">
+    <row r="935" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B935" s="18"/>
       <c r="C935" s="13"/>
       <c r="D935" s="13"/>
@@ -8824,7 +9235,7 @@
       <c r="G935" s="13"/>
       <c r="H935" s="13"/>
     </row>
-    <row r="936">
+    <row r="936" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B936" s="18"/>
       <c r="C936" s="13"/>
       <c r="D936" s="13"/>
@@ -8833,7 +9244,7 @@
       <c r="G936" s="13"/>
       <c r="H936" s="13"/>
     </row>
-    <row r="937">
+    <row r="937" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B937" s="18"/>
       <c r="C937" s="13"/>
       <c r="D937" s="13"/>
@@ -8842,7 +9253,7 @@
       <c r="G937" s="13"/>
       <c r="H937" s="13"/>
     </row>
-    <row r="938">
+    <row r="938" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B938" s="18"/>
       <c r="C938" s="13"/>
       <c r="D938" s="13"/>
@@ -8851,7 +9262,7 @@
       <c r="G938" s="13"/>
       <c r="H938" s="13"/>
     </row>
-    <row r="939">
+    <row r="939" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B939" s="18"/>
       <c r="C939" s="13"/>
       <c r="D939" s="13"/>
@@ -8860,7 +9271,7 @@
       <c r="G939" s="13"/>
       <c r="H939" s="13"/>
     </row>
-    <row r="940">
+    <row r="940" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B940" s="18"/>
       <c r="C940" s="13"/>
       <c r="D940" s="13"/>
@@ -8869,7 +9280,7 @@
       <c r="G940" s="13"/>
       <c r="H940" s="13"/>
     </row>
-    <row r="941">
+    <row r="941" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B941" s="18"/>
       <c r="C941" s="13"/>
       <c r="D941" s="13"/>
@@ -8878,7 +9289,7 @@
       <c r="G941" s="13"/>
       <c r="H941" s="13"/>
     </row>
-    <row r="942">
+    <row r="942" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B942" s="18"/>
       <c r="C942" s="13"/>
       <c r="D942" s="13"/>
@@ -8887,7 +9298,7 @@
       <c r="G942" s="13"/>
       <c r="H942" s="13"/>
     </row>
-    <row r="943">
+    <row r="943" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B943" s="18"/>
       <c r="C943" s="13"/>
       <c r="D943" s="13"/>
@@ -8896,7 +9307,7 @@
       <c r="G943" s="13"/>
       <c r="H943" s="13"/>
     </row>
-    <row r="944">
+    <row r="944" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B944" s="18"/>
       <c r="C944" s="13"/>
       <c r="D944" s="13"/>
@@ -8905,7 +9316,7 @@
       <c r="G944" s="13"/>
       <c r="H944" s="13"/>
     </row>
-    <row r="945">
+    <row r="945" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B945" s="18"/>
       <c r="C945" s="13"/>
       <c r="D945" s="13"/>
@@ -8914,7 +9325,7 @@
       <c r="G945" s="13"/>
       <c r="H945" s="13"/>
     </row>
-    <row r="946">
+    <row r="946" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B946" s="18"/>
       <c r="C946" s="13"/>
       <c r="D946" s="13"/>
@@ -8923,7 +9334,7 @@
       <c r="G946" s="13"/>
       <c r="H946" s="13"/>
     </row>
-    <row r="947">
+    <row r="947" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B947" s="18"/>
       <c r="C947" s="13"/>
       <c r="D947" s="13"/>
@@ -8932,7 +9343,7 @@
       <c r="G947" s="13"/>
       <c r="H947" s="13"/>
     </row>
-    <row r="948">
+    <row r="948" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B948" s="18"/>
       <c r="C948" s="13"/>
       <c r="D948" s="13"/>
@@ -8941,7 +9352,7 @@
       <c r="G948" s="13"/>
       <c r="H948" s="13"/>
     </row>
-    <row r="949">
+    <row r="949" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B949" s="18"/>
       <c r="C949" s="13"/>
       <c r="D949" s="13"/>
@@ -8950,7 +9361,7 @@
       <c r="G949" s="13"/>
       <c r="H949" s="13"/>
     </row>
-    <row r="950">
+    <row r="950" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B950" s="18"/>
       <c r="C950" s="13"/>
       <c r="D950" s="13"/>
@@ -8959,7 +9370,7 @@
       <c r="G950" s="13"/>
       <c r="H950" s="13"/>
     </row>
-    <row r="951">
+    <row r="951" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B951" s="18"/>
       <c r="C951" s="13"/>
       <c r="D951" s="13"/>
@@ -8968,7 +9379,7 @@
       <c r="G951" s="13"/>
       <c r="H951" s="13"/>
     </row>
-    <row r="952">
+    <row r="952" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B952" s="18"/>
       <c r="C952" s="13"/>
       <c r="D952" s="13"/>
@@ -8977,7 +9388,7 @@
       <c r="G952" s="13"/>
       <c r="H952" s="13"/>
     </row>
-    <row r="953">
+    <row r="953" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B953" s="18"/>
       <c r="C953" s="13"/>
       <c r="D953" s="13"/>
@@ -8986,7 +9397,7 @@
       <c r="G953" s="13"/>
       <c r="H953" s="13"/>
     </row>
-    <row r="954">
+    <row r="954" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B954" s="18"/>
       <c r="C954" s="13"/>
       <c r="D954" s="13"/>
@@ -8995,7 +9406,7 @@
       <c r="G954" s="13"/>
       <c r="H954" s="13"/>
     </row>
-    <row r="955">
+    <row r="955" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B955" s="18"/>
       <c r="C955" s="13"/>
       <c r="D955" s="13"/>
@@ -9004,7 +9415,7 @@
       <c r="G955" s="13"/>
       <c r="H955" s="13"/>
     </row>
-    <row r="956">
+    <row r="956" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B956" s="18"/>
       <c r="C956" s="13"/>
       <c r="D956" s="13"/>
@@ -9013,7 +9424,7 @@
       <c r="G956" s="13"/>
       <c r="H956" s="13"/>
     </row>
-    <row r="957">
+    <row r="957" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B957" s="18"/>
       <c r="C957" s="13"/>
       <c r="D957" s="13"/>
@@ -9022,7 +9433,7 @@
       <c r="G957" s="13"/>
       <c r="H957" s="13"/>
     </row>
-    <row r="958">
+    <row r="958" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B958" s="18"/>
       <c r="C958" s="13"/>
       <c r="D958" s="13"/>
@@ -9031,7 +9442,7 @@
       <c r="G958" s="13"/>
       <c r="H958" s="13"/>
     </row>
-    <row r="959">
+    <row r="959" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B959" s="18"/>
       <c r="C959" s="13"/>
       <c r="D959" s="13"/>
@@ -9040,7 +9451,7 @@
       <c r="G959" s="13"/>
       <c r="H959" s="13"/>
     </row>
-    <row r="960">
+    <row r="960" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B960" s="18"/>
       <c r="C960" s="13"/>
       <c r="D960" s="13"/>
@@ -9049,7 +9460,7 @@
       <c r="G960" s="13"/>
       <c r="H960" s="13"/>
     </row>
-    <row r="961">
+    <row r="961" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B961" s="18"/>
       <c r="C961" s="13"/>
       <c r="D961" s="13"/>
@@ -9058,7 +9469,7 @@
       <c r="G961" s="13"/>
       <c r="H961" s="13"/>
     </row>
-    <row r="962">
+    <row r="962" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B962" s="18"/>
       <c r="C962" s="13"/>
       <c r="D962" s="13"/>
@@ -9067,7 +9478,7 @@
       <c r="G962" s="13"/>
       <c r="H962" s="13"/>
     </row>
-    <row r="963">
+    <row r="963" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B963" s="18"/>
       <c r="C963" s="13"/>
       <c r="D963" s="13"/>
@@ -9076,7 +9487,7 @@
       <c r="G963" s="13"/>
       <c r="H963" s="13"/>
     </row>
-    <row r="964">
+    <row r="964" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B964" s="18"/>
       <c r="C964" s="13"/>
       <c r="D964" s="13"/>
@@ -9085,7 +9496,7 @@
       <c r="G964" s="13"/>
       <c r="H964" s="13"/>
     </row>
-    <row r="965">
+    <row r="965" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B965" s="18"/>
       <c r="C965" s="13"/>
       <c r="D965" s="13"/>
@@ -9094,7 +9505,7 @@
       <c r="G965" s="13"/>
       <c r="H965" s="13"/>
     </row>
-    <row r="966">
+    <row r="966" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B966" s="18"/>
       <c r="C966" s="13"/>
       <c r="D966" s="13"/>
@@ -9103,7 +9514,7 @@
       <c r="G966" s="13"/>
       <c r="H966" s="13"/>
     </row>
-    <row r="967">
+    <row r="967" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B967" s="18"/>
       <c r="C967" s="13"/>
       <c r="D967" s="13"/>
@@ -9112,7 +9523,7 @@
       <c r="G967" s="13"/>
       <c r="H967" s="13"/>
     </row>
-    <row r="968">
+    <row r="968" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B968" s="18"/>
       <c r="C968" s="13"/>
       <c r="D968" s="13"/>
@@ -9121,7 +9532,7 @@
       <c r="G968" s="13"/>
       <c r="H968" s="13"/>
     </row>
-    <row r="969">
+    <row r="969" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B969" s="18"/>
       <c r="C969" s="13"/>
       <c r="D969" s="13"/>
@@ -9130,7 +9541,7 @@
       <c r="G969" s="13"/>
       <c r="H969" s="13"/>
     </row>
-    <row r="970">
+    <row r="970" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B970" s="18"/>
       <c r="C970" s="13"/>
       <c r="D970" s="13"/>
@@ -9139,7 +9550,7 @@
       <c r="G970" s="13"/>
       <c r="H970" s="13"/>
     </row>
-    <row r="971">
+    <row r="971" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B971" s="18"/>
       <c r="C971" s="13"/>
       <c r="D971" s="13"/>
@@ -9148,7 +9559,7 @@
       <c r="G971" s="13"/>
       <c r="H971" s="13"/>
     </row>
-    <row r="972">
+    <row r="972" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B972" s="18"/>
       <c r="C972" s="13"/>
       <c r="D972" s="13"/>
@@ -9157,7 +9568,7 @@
       <c r="G972" s="13"/>
       <c r="H972" s="13"/>
     </row>
-    <row r="973">
+    <row r="973" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B973" s="18"/>
       <c r="C973" s="13"/>
       <c r="D973" s="13"/>
@@ -9166,7 +9577,7 @@
       <c r="G973" s="13"/>
       <c r="H973" s="13"/>
     </row>
-    <row r="974">
+    <row r="974" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B974" s="18"/>
       <c r="C974" s="13"/>
       <c r="D974" s="13"/>
@@ -9175,7 +9586,7 @@
       <c r="G974" s="13"/>
       <c r="H974" s="13"/>
     </row>
-    <row r="975">
+    <row r="975" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B975" s="18"/>
       <c r="C975" s="13"/>
       <c r="D975" s="13"/>
@@ -9184,7 +9595,7 @@
       <c r="G975" s="13"/>
       <c r="H975" s="13"/>
     </row>
-    <row r="976">
+    <row r="976" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B976" s="18"/>
       <c r="C976" s="13"/>
       <c r="D976" s="13"/>
@@ -9193,7 +9604,7 @@
       <c r="G976" s="13"/>
       <c r="H976" s="13"/>
     </row>
-    <row r="977">
+    <row r="977" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B977" s="18"/>
       <c r="C977" s="13"/>
       <c r="D977" s="13"/>
@@ -9202,7 +9613,7 @@
       <c r="G977" s="13"/>
       <c r="H977" s="13"/>
     </row>
-    <row r="978">
+    <row r="978" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B978" s="18"/>
       <c r="C978" s="13"/>
       <c r="D978" s="13"/>
@@ -9211,7 +9622,7 @@
       <c r="G978" s="13"/>
       <c r="H978" s="13"/>
     </row>
-    <row r="979">
+    <row r="979" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B979" s="18"/>
       <c r="C979" s="13"/>
       <c r="D979" s="13"/>
@@ -9220,7 +9631,7 @@
       <c r="G979" s="13"/>
       <c r="H979" s="13"/>
     </row>
-    <row r="980">
+    <row r="980" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B980" s="18"/>
       <c r="C980" s="13"/>
       <c r="D980" s="13"/>
@@ -9229,7 +9640,7 @@
       <c r="G980" s="13"/>
       <c r="H980" s="13"/>
     </row>
-    <row r="981">
+    <row r="981" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B981" s="18"/>
       <c r="C981" s="13"/>
       <c r="D981" s="13"/>
@@ -9238,7 +9649,7 @@
       <c r="G981" s="13"/>
       <c r="H981" s="13"/>
     </row>
-    <row r="982">
+    <row r="982" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B982" s="18"/>
       <c r="C982" s="13"/>
       <c r="D982" s="13"/>
@@ -9247,7 +9658,7 @@
       <c r="G982" s="13"/>
       <c r="H982" s="13"/>
     </row>
-    <row r="983">
+    <row r="983" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B983" s="18"/>
       <c r="C983" s="13"/>
       <c r="D983" s="13"/>
@@ -9256,7 +9667,7 @@
       <c r="G983" s="13"/>
       <c r="H983" s="13"/>
     </row>
-    <row r="984">
+    <row r="984" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B984" s="18"/>
       <c r="C984" s="13"/>
       <c r="D984" s="13"/>
@@ -9265,7 +9676,7 @@
       <c r="G984" s="13"/>
       <c r="H984" s="13"/>
     </row>
-    <row r="985">
+    <row r="985" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B985" s="18"/>
       <c r="C985" s="13"/>
       <c r="D985" s="13"/>
@@ -9274,7 +9685,7 @@
       <c r="G985" s="13"/>
       <c r="H985" s="13"/>
     </row>
-    <row r="986">
+    <row r="986" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B986" s="18"/>
       <c r="C986" s="13"/>
       <c r="D986" s="13"/>
@@ -9283,7 +9694,7 @@
       <c r="G986" s="13"/>
       <c r="H986" s="13"/>
     </row>
-    <row r="987">
+    <row r="987" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B987" s="18"/>
       <c r="C987" s="13"/>
       <c r="D987" s="13"/>
@@ -9292,7 +9703,7 @@
       <c r="G987" s="13"/>
       <c r="H987" s="13"/>
     </row>
-    <row r="988">
+    <row r="988" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B988" s="18"/>
       <c r="C988" s="13"/>
       <c r="D988" s="13"/>
@@ -9301,7 +9712,7 @@
       <c r="G988" s="13"/>
       <c r="H988" s="13"/>
     </row>
-    <row r="989">
+    <row r="989" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B989" s="18"/>
       <c r="C989" s="13"/>
       <c r="D989" s="13"/>
@@ -9310,7 +9721,7 @@
       <c r="G989" s="13"/>
       <c r="H989" s="13"/>
     </row>
-    <row r="990">
+    <row r="990" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B990" s="18"/>
       <c r="C990" s="13"/>
       <c r="D990" s="13"/>
@@ -9319,7 +9730,7 @@
       <c r="G990" s="13"/>
       <c r="H990" s="13"/>
     </row>
-    <row r="991">
+    <row r="991" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B991" s="18"/>
       <c r="C991" s="13"/>
       <c r="D991" s="13"/>
@@ -9328,7 +9739,7 @@
       <c r="G991" s="13"/>
       <c r="H991" s="13"/>
     </row>
-    <row r="992">
+    <row r="992" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B992" s="18"/>
       <c r="C992" s="13"/>
       <c r="D992" s="13"/>
@@ -9337,7 +9748,7 @@
       <c r="G992" s="13"/>
       <c r="H992" s="13"/>
     </row>
-    <row r="993">
+    <row r="993" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B993" s="18"/>
       <c r="C993" s="13"/>
       <c r="D993" s="13"/>
@@ -9346,7 +9757,7 @@
       <c r="G993" s="13"/>
       <c r="H993" s="13"/>
     </row>
-    <row r="994">
+    <row r="994" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B994" s="18"/>
       <c r="C994" s="13"/>
       <c r="D994" s="13"/>
@@ -9355,7 +9766,7 @@
       <c r="G994" s="13"/>
       <c r="H994" s="13"/>
     </row>
-    <row r="995">
+    <row r="995" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B995" s="18"/>
       <c r="C995" s="13"/>
       <c r="D995" s="13"/>
@@ -9364,7 +9775,7 @@
       <c r="G995" s="13"/>
       <c r="H995" s="13"/>
     </row>
-    <row r="996">
+    <row r="996" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B996" s="18"/>
       <c r="C996" s="13"/>
       <c r="D996" s="13"/>
@@ -9373,7 +9784,7 @@
       <c r="G996" s="13"/>
       <c r="H996" s="13"/>
     </row>
-    <row r="997">
+    <row r="997" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B997" s="18"/>
       <c r="C997" s="13"/>
       <c r="D997" s="13"/>
@@ -9382,7 +9793,7 @@
       <c r="G997" s="13"/>
       <c r="H997" s="13"/>
     </row>
-    <row r="998">
+    <row r="998" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B998" s="18"/>
       <c r="C998" s="13"/>
       <c r="D998" s="13"/>
@@ -9391,7 +9802,7 @@
       <c r="G998" s="13"/>
       <c r="H998" s="13"/>
     </row>
-    <row r="999">
+    <row r="999" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B999" s="18"/>
       <c r="C999" s="13"/>
       <c r="D999" s="13"/>
@@ -9400,7 +9811,7 @@
       <c r="G999" s="13"/>
       <c r="H999" s="13"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B1000" s="18"/>
       <c r="C1000" s="13"/>
       <c r="D1000" s="13"/>
@@ -9409,7 +9820,7 @@
       <c r="G1000" s="13"/>
       <c r="H1000" s="13"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B1001" s="18"/>
       <c r="C1001" s="13"/>
       <c r="D1001" s="13"/>
@@ -9418,7 +9829,7 @@
       <c r="G1001" s="13"/>
       <c r="H1001" s="13"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="2:8" ht="12.7" x14ac:dyDescent="0.25">
       <c r="B1002" s="18"/>
       <c r="C1002" s="13"/>
       <c r="D1002" s="13"/>
@@ -9429,8 +9840,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="B7:B11"/>
@@ -9443,14 +9852,16 @@
     <mergeCell ref="F17:F22"/>
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="E17:E22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D2:D32"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D2:D31"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>